--- a/RailIndexPrj/rawdata_yearly.xlsx
+++ b/RailIndexPrj/rawdata_yearly.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="855" yWindow="1935" windowWidth="13755" windowHeight="4890"/>
+    <workbookView xWindow="852" yWindow="1932" windowWidth="13752" windowHeight="4896"/>
   </bookViews>
   <sheets>
     <sheet name="rawdata_yearly" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -1851,34 +1851,34 @@
   <dimension ref="A1:AF28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I2" sqref="I2"/>
+      <selection pane="bottomRight" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="6" width="9" style="3"/>
     <col min="7" max="7" width="9" style="1"/>
     <col min="8" max="9" width="9" style="3"/>
-    <col min="10" max="10" width="19.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.88671875" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="23" width="9" style="3"/>
     <col min="24" max="24" width="9" style="1"/>
-    <col min="25" max="25" width="14.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.44140625" style="4" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="9" style="3"/>
-    <col min="27" max="27" width="17.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.5" style="9" customWidth="1"/>
-    <col min="29" max="29" width="13.125" style="8" customWidth="1"/>
-    <col min="30" max="30" width="12.875" style="8" customWidth="1"/>
-    <col min="31" max="31" width="12.5" style="8" customWidth="1"/>
+    <col min="27" max="27" width="17.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.44140625" style="9" customWidth="1"/>
+    <col min="29" max="29" width="13.109375" style="8" customWidth="1"/>
+    <col min="30" max="30" width="12.88671875" style="8" customWidth="1"/>
+    <col min="31" max="31" width="12.44140625" style="8" customWidth="1"/>
     <col min="32" max="32" width="9" style="8"/>
     <col min="33" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="12" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:32" s="12" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>27</v>
       </c>
@@ -4524,7 +4524,7 @@
         <v>65473</v>
       </c>
       <c r="C28" s="3">
-        <v>0</v>
+        <v>19846</v>
       </c>
       <c r="D28" s="3">
         <v>19846</v>

--- a/RailIndexPrj/rawdata_yearly.xlsx
+++ b/RailIndexPrj/rawdata_yearly.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\桌面\常用文件夹\铁路景气指数\APP\railwayIdx\RailIndexPrj\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="852" yWindow="1932" windowWidth="13752" windowHeight="4896"/>
+    <workbookView xWindow="855" yWindow="1935" windowWidth="13755" windowHeight="4890"/>
   </bookViews>
   <sheets>
     <sheet name="rawdata_yearly" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
     <author>WenJing</author>
   </authors>
   <commentList>
-    <comment ref="G1" authorId="0">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -45,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0">
+    <comment ref="W1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -71,7 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0">
+    <comment ref="X1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -98,7 +103,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0">
+    <comment ref="Y1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -115,7 +120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0">
+    <comment ref="Z1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -141,7 +146,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0">
+    <comment ref="AA1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -167,38 +172,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>WenJing:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-请古松来给这几个变量命英文名吧</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>tm</t>
   </si>
@@ -748,6 +727,25 @@
   </si>
   <si>
     <t>freight_rotation_volume_yearly</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>population</t>
+  </si>
+  <si>
+    <t>GDP</t>
+  </si>
+  <si>
+    <t>income</t>
+  </si>
+  <si>
+    <t>aviation</t>
+  </si>
+  <si>
+    <t>third_industry</t>
+  </si>
+  <si>
+    <t>第三产业增加值</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -986,7 +984,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1172,12 +1170,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -1435,7 +1427,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1486,9 +1478,6 @@
     <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1507,24 +1496,24 @@
     </xf>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - 强调文字颜色 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -1540,15 +1529,15 @@
     <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1557,12 +1546,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1604,7 +1596,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1639,7 +1631,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1848,37 +1840,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF28"/>
+  <dimension ref="A1:AG28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="AB3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C28" sqref="C28"/>
+      <selection pane="bottomRight" activeCell="AH3" sqref="AH3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="6" width="9" style="3"/>
     <col min="7" max="7" width="9" style="1"/>
     <col min="8" max="9" width="9" style="3"/>
-    <col min="10" max="10" width="19.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.875" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="23" width="9" style="3"/>
     <col min="24" max="24" width="9" style="1"/>
-    <col min="25" max="25" width="14.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5" style="4" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="9" style="3"/>
-    <col min="27" max="27" width="17.77734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.44140625" style="9" customWidth="1"/>
-    <col min="29" max="29" width="13.109375" style="8" customWidth="1"/>
-    <col min="30" max="30" width="12.88671875" style="8" customWidth="1"/>
-    <col min="31" max="31" width="12.44140625" style="8" customWidth="1"/>
+    <col min="27" max="27" width="17.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.5" style="9" customWidth="1"/>
+    <col min="29" max="29" width="13.125" style="8" customWidth="1"/>
+    <col min="30" max="30" width="12.875" style="8" customWidth="1"/>
+    <col min="31" max="31" width="12.5" style="8" customWidth="1"/>
     <col min="32" max="32" width="9" style="8"/>
-    <col min="33" max="16384" width="9" style="1"/>
+    <col min="33" max="33" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="12" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" s="12" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>27</v>
       </c>
@@ -1894,16 +1887,16 @@
       <c r="E1" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>22</v>
       </c>
       <c r="H1" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="19" t="s">
         <v>23</v>
       </c>
       <c r="J1" s="14" t="s">
@@ -1918,19 +1911,19 @@
       <c r="M1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="N1" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="O1" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="P1" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="Q1" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="R1" s="20" t="s">
+      <c r="R1" s="19" t="s">
         <v>26</v>
       </c>
       <c r="S1" s="13" t="s">
@@ -1960,23 +1953,26 @@
       <c r="AA1" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="AB1" s="21" t="s">
+      <c r="AB1" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="AC1" s="21" t="s">
+      <c r="AC1" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="AD1" s="21" t="s">
+      <c r="AD1" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="AE1" s="21" t="s">
+      <c r="AE1" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="AF1" s="21" t="s">
+      <c r="AF1" s="20" t="s">
         <v>48</v>
       </c>
+      <c r="AG1" s="18" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="2" spans="1:32" s="10" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:33" s="10" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -2061,12 +2057,23 @@
       <c r="AB2" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="AC2" s="18"/>
-      <c r="AD2" s="18"/>
-      <c r="AE2" s="18"/>
-      <c r="AF2" s="18"/>
+      <c r="AC2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>33238</v>
       </c>
@@ -2151,7 +2158,7 @@
       <c r="AB3" s="6">
         <v>95712</v>
       </c>
-      <c r="AC3" s="23">
+      <c r="AC3" s="22">
         <v>114333</v>
       </c>
       <c r="AD3" s="6">
@@ -2163,8 +2170,11 @@
       <c r="AF3" s="6">
         <v>1660</v>
       </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>33603</v>
       </c>
@@ -2249,7 +2259,7 @@
       <c r="AB4" s="6">
         <v>95080</v>
       </c>
-      <c r="AC4" s="23">
+      <c r="AC4" s="22">
         <v>115823</v>
       </c>
       <c r="AD4" s="6">
@@ -2261,8 +2271,11 @@
       <c r="AF4" s="6">
         <v>2178</v>
       </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>33969</v>
       </c>
@@ -2347,7 +2360,7 @@
       <c r="AB5" s="6">
         <v>99693</v>
       </c>
-      <c r="AC5" s="23">
+      <c r="AC5" s="22">
         <v>117171</v>
       </c>
       <c r="AD5" s="6">
@@ -2359,8 +2372,11 @@
       <c r="AF5" s="6">
         <v>2886</v>
       </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>34334</v>
       </c>
@@ -2445,7 +2461,7 @@
       <c r="AB6" s="6">
         <v>105458</v>
       </c>
-      <c r="AC6" s="23">
+      <c r="AC6" s="22">
         <v>118517</v>
       </c>
       <c r="AD6" s="6">
@@ -2457,8 +2473,11 @@
       <c r="AF6" s="6">
         <v>3383</v>
       </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>34699</v>
       </c>
@@ -2543,7 +2562,7 @@
       <c r="AB7" s="6">
         <v>108738</v>
       </c>
-      <c r="AC7" s="23">
+      <c r="AC7" s="22">
         <v>119850</v>
       </c>
       <c r="AD7" s="6">
@@ -2555,8 +2574,11 @@
       <c r="AF7" s="6">
         <v>4039</v>
       </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>35064</v>
       </c>
@@ -2641,7 +2663,7 @@
       <c r="AB8" s="6">
         <v>102745</v>
       </c>
-      <c r="AC8" s="23">
+      <c r="AC8" s="22">
         <v>121121</v>
       </c>
       <c r="AD8" s="6">
@@ -2653,8 +2675,11 @@
       <c r="AF8" s="6">
         <v>5117</v>
       </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>35430</v>
       </c>
@@ -2739,7 +2764,7 @@
       <c r="AB9" s="6">
         <v>94797</v>
       </c>
-      <c r="AC9" s="23">
+      <c r="AC9" s="22">
         <v>122389</v>
       </c>
       <c r="AD9" s="6">
@@ -2751,8 +2776,11 @@
       <c r="AF9" s="6">
         <v>5555</v>
       </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>35795</v>
       </c>
@@ -2837,7 +2865,7 @@
       <c r="AB10" s="6">
         <v>93308</v>
       </c>
-      <c r="AC10" s="23">
+      <c r="AC10" s="22">
         <v>123626</v>
       </c>
       <c r="AD10" s="6">
@@ -2849,8 +2877,11 @@
       <c r="AF10" s="6">
         <v>5630</v>
       </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>36160</v>
       </c>
@@ -2935,7 +2966,7 @@
       <c r="AB11" s="6">
         <v>95085</v>
       </c>
-      <c r="AC11" s="23">
+      <c r="AC11" s="22">
         <v>124761</v>
       </c>
       <c r="AD11" s="6">
@@ -2947,8 +2978,11 @@
       <c r="AF11" s="6">
         <v>5755</v>
       </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>36525</v>
       </c>
@@ -3033,7 +3067,7 @@
       <c r="AB12" s="6">
         <v>100164</v>
       </c>
-      <c r="AC12" s="23">
+      <c r="AC12" s="22">
         <v>125786</v>
       </c>
       <c r="AD12" s="6">
@@ -3045,8 +3079,11 @@
       <c r="AF12" s="6">
         <v>6094</v>
       </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>36891</v>
       </c>
@@ -3131,7 +3168,7 @@
       <c r="AB13" s="6">
         <v>105073</v>
       </c>
-      <c r="AC13" s="23">
+      <c r="AC13" s="22">
         <v>126743</v>
       </c>
       <c r="AD13" s="6">
@@ -3143,8 +3180,11 @@
       <c r="AF13" s="6">
         <v>6722</v>
       </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>37256</v>
       </c>
@@ -3229,7 +3269,7 @@
       <c r="AB14" s="7">
         <v>105155</v>
       </c>
-      <c r="AC14" s="22">
+      <c r="AC14" s="21">
         <v>127627</v>
       </c>
       <c r="AD14" s="7">
@@ -3241,8 +3281,11 @@
       <c r="AF14" s="7">
         <v>7524</v>
       </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>37621</v>
       </c>
@@ -3327,7 +3370,7 @@
       <c r="AB15" s="7">
         <v>105606</v>
       </c>
-      <c r="AC15" s="22">
+      <c r="AC15" s="21">
         <v>128453</v>
       </c>
       <c r="AD15" s="7">
@@ -3339,8 +3382,11 @@
       <c r="AF15" s="7">
         <v>8594</v>
       </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>37986</v>
       </c>
@@ -3425,7 +3471,7 @@
       <c r="AB16" s="7">
         <v>97260</v>
       </c>
-      <c r="AC16" s="22">
+      <c r="AC16" s="21">
         <v>129227</v>
       </c>
       <c r="AD16" s="7">
@@ -3437,8 +3483,11 @@
       <c r="AF16" s="7">
         <v>8759</v>
       </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>38352</v>
       </c>
@@ -3523,7 +3572,7 @@
       <c r="AB17" s="7">
         <v>111764</v>
       </c>
-      <c r="AC17" s="22">
+      <c r="AC17" s="21">
         <v>129988</v>
       </c>
       <c r="AD17" s="7">
@@ -3535,8 +3584,11 @@
       <c r="AF17" s="7">
         <v>12123</v>
       </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>38717</v>
       </c>
@@ -3621,7 +3673,7 @@
       <c r="AB18" s="7">
         <v>115583</v>
       </c>
-      <c r="AC18" s="22">
+      <c r="AC18" s="21">
         <v>130756</v>
       </c>
       <c r="AD18" s="7">
@@ -3633,8 +3685,11 @@
       <c r="AF18" s="7">
         <v>13827</v>
       </c>
+      <c r="AG18">
+        <v>41.4</v>
+      </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>39082</v>
       </c>
@@ -3719,7 +3774,7 @@
       <c r="AB19" s="7">
         <v>125655.79580000001</v>
       </c>
-      <c r="AC19" s="22">
+      <c r="AC19" s="21">
         <v>131448</v>
       </c>
       <c r="AD19" s="7">
@@ -3731,8 +3786,11 @@
       <c r="AF19" s="7">
         <v>15967.844800000001</v>
       </c>
+      <c r="AG19">
+        <v>41.9</v>
+      </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>39447</v>
       </c>
@@ -3817,7 +3875,7 @@
       <c r="AB20" s="7">
         <v>135670</v>
       </c>
-      <c r="AC20" s="22">
+      <c r="AC20" s="21">
         <v>132129</v>
       </c>
       <c r="AD20" s="7">
@@ -3829,8 +3887,11 @@
       <c r="AF20" s="7">
         <v>18576.211200000002</v>
       </c>
+      <c r="AG20">
+        <v>42.9</v>
+      </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>39813</v>
       </c>
@@ -3915,7 +3976,7 @@
       <c r="AB21" s="7">
         <v>146192.84789999999</v>
       </c>
-      <c r="AC21" s="22">
+      <c r="AC21" s="21">
         <v>132802</v>
       </c>
       <c r="AD21" s="7">
@@ -3927,8 +3988,11 @@
       <c r="AF21" s="7">
         <v>19251.116000000002</v>
       </c>
+      <c r="AG21">
+        <v>42.9</v>
+      </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>40178</v>
       </c>
@@ -4013,7 +4077,7 @@
       <c r="AB22" s="7">
         <v>152451.19260000001</v>
       </c>
-      <c r="AC22" s="22">
+      <c r="AC22" s="21">
         <v>133450</v>
       </c>
       <c r="AD22" s="7">
@@ -4025,8 +4089,11 @@
       <c r="AF22" s="7">
         <v>23051.6387</v>
       </c>
+      <c r="AG22">
+        <v>44.4</v>
+      </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>40543</v>
       </c>
@@ -4111,7 +4178,7 @@
       <c r="AB23" s="7">
         <v>167609.02299999999</v>
       </c>
-      <c r="AC23" s="22">
+      <c r="AC23" s="21">
         <v>134091</v>
       </c>
       <c r="AD23" s="7">
@@ -4123,8 +4190,11 @@
       <c r="AF23" s="7">
         <v>26769.143700000001</v>
       </c>
+      <c r="AG23">
+        <v>44.2</v>
+      </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>40908</v>
       </c>
@@ -4209,7 +4279,7 @@
       <c r="AB24" s="7">
         <v>186226.07279999999</v>
       </c>
-      <c r="AC24" s="22">
+      <c r="AC24" s="21">
         <v>134735</v>
       </c>
       <c r="AD24" s="7">
@@ -4221,8 +4291,11 @@
       <c r="AF24" s="7">
         <v>29316.658200000002</v>
       </c>
+      <c r="AG24">
+        <v>44.3</v>
+      </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>41274</v>
       </c>
@@ -4307,7 +4380,7 @@
       <c r="AB25" s="7">
         <v>189336.8511</v>
       </c>
-      <c r="AC25" s="22">
+      <c r="AC25" s="21">
         <v>135404</v>
       </c>
       <c r="AD25" s="7">
@@ -4319,8 +4392,11 @@
       <c r="AF25" s="7">
         <v>31936.050500000001</v>
       </c>
+      <c r="AG25">
+        <v>45.5</v>
+      </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>41639</v>
       </c>
@@ -4405,7 +4481,7 @@
       <c r="AB26" s="7">
         <v>210596.91649999999</v>
       </c>
-      <c r="AC26" s="22">
+      <c r="AC26" s="21">
         <v>136072</v>
       </c>
       <c r="AD26" s="7">
@@ -4417,8 +4493,11 @@
       <c r="AF26" s="7">
         <v>35396.630100000002</v>
       </c>
+      <c r="AG26">
+        <v>46.9</v>
+      </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>42004</v>
       </c>
@@ -4503,7 +4582,7 @@
       <c r="AB27" s="7">
         <v>235704.4</v>
       </c>
-      <c r="AC27" s="22">
+      <c r="AC27" s="21">
         <v>136782</v>
       </c>
       <c r="AD27" s="7">
@@ -4515,8 +4594,11 @@
       <c r="AF27" s="7">
         <v>39165.800000000003</v>
       </c>
+      <c r="AG27">
+        <v>48.1</v>
+      </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>42369</v>
       </c>
@@ -4611,6 +4693,9 @@
         <v>0</v>
       </c>
       <c r="AF28" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="1">
         <v>0</v>
       </c>
     </row>

--- a/RailIndexPrj/rawdata_yearly.xlsx
+++ b/RailIndexPrj/rawdata_yearly.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="855" yWindow="1935" windowWidth="13755" windowHeight="4890"/>
+    <workbookView xWindow="10755" yWindow="480" windowWidth="9840" windowHeight="4710"/>
   </bookViews>
   <sheets>
     <sheet name="rawdata_yearly" sheetId="1" r:id="rId1"/>
@@ -203,24 +203,12 @@
     <t>tm</t>
   </si>
   <si>
-    <t>passenger_car</t>
-  </si>
-  <si>
-    <t>freight_car</t>
-  </si>
-  <si>
-    <t>locomotive_number</t>
-  </si>
-  <si>
     <t>bullettrain_number</t>
   </si>
   <si>
     <t>fixed_assets_investment</t>
   </si>
   <si>
-    <t>practitioner_number</t>
-  </si>
-  <si>
     <t>newline_tracklaying_mileage</t>
   </si>
   <si>
@@ -230,19 +218,7 @@
     <t>mileage</t>
   </si>
   <si>
-    <t>dailycar_run</t>
-  </si>
-  <si>
     <t>dailycar_now</t>
-  </si>
-  <si>
-    <t>locomotive_mileage_pcar</t>
-  </si>
-  <si>
-    <t>locomotive_mileage_fcar</t>
-  </si>
-  <si>
-    <t>locomotive_mileage_sum</t>
   </si>
   <si>
     <t>fixed_assets_investment_delta</t>
@@ -719,35 +695,67 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>Industrial_Added_Value_Rate_yearly</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>freight_volume_yearly</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>locomotive_mileage_fcar</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>locomotive_number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>locomotive_mileage_sum</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>locomotive_mileage_pcar</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>freight_car</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>dailycar_run</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>freight_rotation_volume_yearly</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>passenger_car</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>practitioner_number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>iron_output_yearly</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>oil_processing_volume_yearly</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>coal_output_yearly</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>oil_processing_volume_yearly</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>coalfired_power_generation_yearly</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Industrial_Added_Value_Rate_yearly</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>freight_volume_28_yearly</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>freight_volume_yearly</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>freight_rotation_volume_yearly</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -755,12 +763,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0.0000_);[Red]\(0.0000\)"/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="179" formatCode="0_ "/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -985,8 +994,19 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1172,14 +1192,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1303,6 +1317,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1435,14 +1464,11 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -1453,12 +1479,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="24" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="24" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1474,35 +1494,68 @@
     <xf numFmtId="0" fontId="24" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="27" fillId="33" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="27" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="24" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="24" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="30" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="28" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1851,215 +1904,212 @@
   <dimension ref="A1:AF28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="V21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I2" sqref="I2"/>
+      <selection pane="bottomRight" activeCell="AF23" sqref="AF23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="9" width="9" style="3"/>
-    <col min="10" max="10" width="19.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="23" width="9" style="3"/>
-    <col min="24" max="24" width="9" style="1"/>
-    <col min="25" max="25" width="14.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9" style="3"/>
-    <col min="27" max="27" width="17.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.5" style="9" customWidth="1"/>
-    <col min="29" max="29" width="13.125" style="8" customWidth="1"/>
-    <col min="30" max="30" width="12.875" style="8" customWidth="1"/>
-    <col min="31" max="31" width="12.5" style="8" customWidth="1"/>
-    <col min="32" max="32" width="9" style="8"/>
+    <col min="2" max="9" width="9" style="2"/>
+    <col min="10" max="10" width="19.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="24" width="9" style="2"/>
+    <col min="25" max="25" width="14.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9" style="2"/>
+    <col min="27" max="27" width="17.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.5" style="6" customWidth="1"/>
+    <col min="29" max="29" width="13.125" style="5" customWidth="1"/>
+    <col min="30" max="30" width="12.875" style="5" customWidth="1"/>
+    <col min="31" max="31" width="12.5" style="5" customWidth="1"/>
+    <col min="32" max="32" width="9" style="5"/>
     <col min="33" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="12" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:32" s="9" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="N1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="T1" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="U1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="V1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="W1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="13" t="s">
+      <c r="X1" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y1" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z1" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="M1" s="13" t="s">
+      <c r="AA1" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="N1" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="O1" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="P1" s="20" t="s">
+      <c r="AB1" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC1" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD1" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE1" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF1" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="Q1" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="R1" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="S1" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T1" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="U1" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="V1" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="W1" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="X1" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y1" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z1" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA1" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB1" s="21" t="s">
+      <c r="Q2" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="R2" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="S2" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="T2" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="U2" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="V2" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="W2" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="AC1" s="21" t="s">
+      <c r="X2" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y2" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="AD1" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE1" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF1" s="21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" s="10" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="11" t="s">
+      <c r="Z2" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="AB2" s="18" t="s">
         <v>12</v>
-      </c>
-      <c r="Q2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="R2" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="X2" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y2" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA2" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB2" s="16" t="s">
-        <v>20</v>
       </c>
       <c r="AC2" s="18"/>
       <c r="AD2" s="18"/>
@@ -2067,2551 +2117,2575 @@
       <c r="AF2" s="18"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A3" s="2">
+      <c r="A3" s="21">
         <v>33238</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="19">
         <v>27538</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="19">
         <v>13981</v>
       </c>
-      <c r="D3" s="3">
-        <v>13981</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3">
+      <c r="D3" s="19">
+        <v>368636</v>
+      </c>
+      <c r="E3" s="19">
+        <v>0</v>
+      </c>
+      <c r="F3" s="19">
         <v>151.43</v>
       </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3">
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="19">
         <v>529.4</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="19">
         <v>457.6</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="22">
         <v>1619</v>
       </c>
-      <c r="K3" s="5">
-        <v>0</v>
-      </c>
-      <c r="L3" s="3">
+      <c r="K3" s="22">
+        <v>0</v>
+      </c>
+      <c r="L3" s="19">
         <v>39.24</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="19">
         <v>57899.199999999997</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="19">
         <v>304337</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3" s="19">
         <v>386981</v>
       </c>
-      <c r="P3" s="3">
+      <c r="P3" s="19">
         <v>486</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="Q3" s="19">
         <v>418</v>
       </c>
-      <c r="R3" s="3">
+      <c r="R3" s="19">
         <v>1358</v>
       </c>
-      <c r="S3" s="3">
-        <v>0</v>
-      </c>
-      <c r="T3" s="3">
-        <v>0</v>
-      </c>
-      <c r="U3" s="3">
-        <v>0</v>
-      </c>
-      <c r="V3" s="3">
-        <v>0</v>
-      </c>
-      <c r="W3" s="3">
+      <c r="S3" s="19">
+        <v>0</v>
+      </c>
+      <c r="T3" s="19">
+        <v>0</v>
+      </c>
+      <c r="U3" s="19">
+        <v>0</v>
+      </c>
+      <c r="V3" s="19">
+        <v>0</v>
+      </c>
+      <c r="W3" s="19">
         <v>6840.6</v>
       </c>
-      <c r="X3" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="5">
+      <c r="X3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="22">
         <v>150681</v>
       </c>
-      <c r="Z3" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="5">
+      <c r="Z3" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="22">
         <v>95712</v>
       </c>
-      <c r="AB3" s="6">
+      <c r="AB3" s="23">
         <v>95712</v>
       </c>
-      <c r="AC3" s="23">
+      <c r="AC3" s="24">
         <v>114333</v>
       </c>
-      <c r="AD3" s="6">
+      <c r="AD3" s="23">
         <v>18774.3</v>
       </c>
-      <c r="AE3" s="6">
+      <c r="AE3" s="23">
         <v>1510.2</v>
       </c>
-      <c r="AF3" s="6">
+      <c r="AF3" s="23">
         <v>1660</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A4" s="2">
+      <c r="A4" s="21">
         <v>33603</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="19">
         <v>27891</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="19">
         <v>14295</v>
       </c>
-      <c r="D4" s="3">
-        <v>14295</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3">
+      <c r="D4" s="19">
+        <v>373802</v>
+      </c>
+      <c r="E4" s="19">
+        <v>0</v>
+      </c>
+      <c r="F4" s="19">
         <v>172.57999999999998</v>
       </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="19">
         <v>1029.3999999999999</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="19">
         <v>528.9</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="22">
         <v>1654</v>
       </c>
-      <c r="K4" s="5">
-        <v>0</v>
-      </c>
-      <c r="L4" s="3">
+      <c r="K4" s="22">
+        <v>0</v>
+      </c>
+      <c r="L4" s="19">
         <v>40.33</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="19">
         <v>57826</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="19">
         <v>315363</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4" s="19">
         <v>392206</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P4" s="19">
         <v>483</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="Q4" s="19">
         <v>419</v>
       </c>
-      <c r="R4" s="3">
+      <c r="R4" s="19">
         <v>1385</v>
       </c>
-      <c r="S4" s="3">
-        <v>0</v>
-      </c>
-      <c r="T4" s="3">
-        <v>0</v>
-      </c>
-      <c r="U4" s="3">
-        <v>0</v>
-      </c>
-      <c r="V4" s="3">
-        <v>0</v>
-      </c>
-      <c r="W4" s="3">
+      <c r="S4" s="19">
+        <v>0</v>
+      </c>
+      <c r="T4" s="19">
+        <v>0</v>
+      </c>
+      <c r="U4" s="19">
+        <v>0</v>
+      </c>
+      <c r="V4" s="19">
+        <v>0</v>
+      </c>
+      <c r="W4" s="19">
         <v>8066.5</v>
       </c>
-      <c r="X4" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="5">
+      <c r="X4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="22">
         <v>152893</v>
       </c>
-      <c r="Z4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="5">
+      <c r="Z4" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="22">
         <v>95080</v>
       </c>
-      <c r="AB4" s="6">
+      <c r="AB4" s="23">
         <v>95080</v>
       </c>
-      <c r="AC4" s="23">
+      <c r="AC4" s="24">
         <v>115823</v>
       </c>
-      <c r="AD4" s="6">
+      <c r="AD4" s="23">
         <v>21895.5</v>
       </c>
-      <c r="AE4" s="6">
+      <c r="AE4" s="23">
         <v>1700.6</v>
       </c>
-      <c r="AF4" s="6">
+      <c r="AF4" s="23">
         <v>2178</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A5" s="2">
+      <c r="A5" s="21">
         <v>33969</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="19">
         <v>28722</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="19">
         <v>14467</v>
       </c>
-      <c r="D5" s="3">
-        <v>14467</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3">
+      <c r="D5" s="19">
+        <v>376913</v>
+      </c>
+      <c r="E5" s="19">
+        <v>0</v>
+      </c>
+      <c r="F5" s="19">
         <v>233.97</v>
       </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3">
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="19">
         <v>1017.3000000000001</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="19">
         <v>350.7</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="22">
         <v>1562</v>
       </c>
-      <c r="K5" s="5">
-        <v>0</v>
-      </c>
-      <c r="L5" s="3">
+      <c r="K5" s="22">
+        <v>0</v>
+      </c>
+      <c r="L5" s="19">
         <v>42.43</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="19">
         <v>58075.9</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5" s="19">
         <v>317964</v>
       </c>
-      <c r="O5" s="3">
+      <c r="O5" s="19">
         <v>399683</v>
       </c>
-      <c r="P5" s="3">
+      <c r="P5" s="19">
         <v>484</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="Q5" s="19">
         <v>422</v>
       </c>
-      <c r="R5" s="3">
+      <c r="R5" s="19">
         <v>1426</v>
       </c>
-      <c r="S5" s="3">
-        <v>0</v>
-      </c>
-      <c r="T5" s="3">
-        <v>0</v>
-      </c>
-      <c r="U5" s="3">
-        <v>0</v>
-      </c>
-      <c r="V5" s="3">
-        <v>0</v>
-      </c>
-      <c r="W5" s="3">
+      <c r="S5" s="19">
+        <v>0</v>
+      </c>
+      <c r="T5" s="19">
+        <v>0</v>
+      </c>
+      <c r="U5" s="19">
+        <v>0</v>
+      </c>
+      <c r="V5" s="19">
+        <v>0</v>
+      </c>
+      <c r="W5" s="19">
         <v>10258.4</v>
       </c>
-      <c r="X5" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="5">
+      <c r="X5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="22">
         <v>157627</v>
       </c>
-      <c r="Z5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="5">
+      <c r="Z5" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="22">
         <v>99693</v>
       </c>
-      <c r="AB5" s="6">
+      <c r="AB5" s="23">
         <v>99693</v>
       </c>
-      <c r="AC5" s="23">
+      <c r="AC5" s="24">
         <v>117171</v>
       </c>
-      <c r="AD5" s="6">
+      <c r="AD5" s="23">
         <v>27068.3</v>
       </c>
-      <c r="AE5" s="6">
+      <c r="AE5" s="23">
         <v>2026.6</v>
       </c>
-      <c r="AF5" s="6">
+      <c r="AF5" s="23">
         <v>2886</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A6" s="2">
+      <c r="A6" s="21">
         <v>34334</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="19">
         <v>29609</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="19">
         <v>14781</v>
       </c>
-      <c r="D6" s="3">
-        <v>14781</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3">
+      <c r="D6" s="19">
+        <v>393756</v>
+      </c>
+      <c r="E6" s="19">
+        <v>0</v>
+      </c>
+      <c r="F6" s="19">
         <v>462.21</v>
       </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3">
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="19">
         <v>1563.4</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="19">
         <v>1293.0999999999999</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="22">
         <v>1732</v>
       </c>
-      <c r="K6" s="5">
-        <v>0</v>
-      </c>
-      <c r="L6" s="3">
+      <c r="K6" s="22">
+        <v>0</v>
+      </c>
+      <c r="L6" s="19">
         <v>79.319999999999993</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="19">
         <v>58602.5</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="19">
         <v>328206</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O6" s="19">
         <v>417950</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P6" s="19">
         <v>439</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="Q6" s="19">
         <v>420</v>
       </c>
-      <c r="R6" s="3">
+      <c r="R6" s="19">
         <v>1472</v>
       </c>
-      <c r="S6" s="3">
-        <v>0</v>
-      </c>
-      <c r="T6" s="3">
-        <v>0</v>
-      </c>
-      <c r="U6" s="3">
-        <v>0</v>
-      </c>
-      <c r="V6" s="3">
-        <v>0</v>
-      </c>
-      <c r="W6" s="3">
+      <c r="S6" s="19">
+        <v>0</v>
+      </c>
+      <c r="T6" s="19">
+        <v>0</v>
+      </c>
+      <c r="U6" s="19">
+        <v>0</v>
+      </c>
+      <c r="V6" s="19">
+        <v>0</v>
+      </c>
+      <c r="W6" s="19">
         <v>14151.9</v>
       </c>
-      <c r="X6" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="5">
+      <c r="X6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="22">
         <v>162663</v>
       </c>
-      <c r="Z6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="5">
+      <c r="Z6" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="22">
         <v>105458</v>
       </c>
-      <c r="AB6" s="6">
+      <c r="AB6" s="23">
         <v>105458</v>
       </c>
-      <c r="AC6" s="23">
+      <c r="AC6" s="24">
         <v>118517</v>
       </c>
-      <c r="AD6" s="6">
+      <c r="AD6" s="23">
         <v>35524.300000000003</v>
       </c>
-      <c r="AE6" s="6">
+      <c r="AE6" s="23">
         <v>2577.4</v>
       </c>
-      <c r="AF6" s="6">
+      <c r="AF6" s="23">
         <v>3383</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A7" s="2">
+      <c r="A7" s="21">
         <v>34699</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="19">
         <v>31268</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="19">
         <v>15085</v>
       </c>
-      <c r="D7" s="3">
-        <v>15085</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3">
+      <c r="D7" s="19">
+        <v>419578</v>
+      </c>
+      <c r="E7" s="19">
+        <v>0</v>
+      </c>
+      <c r="F7" s="19">
         <v>575.76</v>
       </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3">
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="19">
         <v>1643</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="19">
         <v>1926.8</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="22">
         <v>2115</v>
       </c>
-      <c r="K7" s="5">
-        <v>0</v>
-      </c>
-      <c r="L7" s="3">
+      <c r="K7" s="22">
+        <v>0</v>
+      </c>
+      <c r="L7" s="19">
         <v>105.59</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="19">
         <v>59029.599999999999</v>
       </c>
-      <c r="N7" s="3">
+      <c r="N7" s="19">
         <v>349152</v>
       </c>
-      <c r="O7" s="3">
+      <c r="O7" s="19">
         <v>446052</v>
       </c>
-      <c r="P7" s="3">
+      <c r="P7" s="19">
         <v>494</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="Q7" s="19">
         <v>421</v>
       </c>
-      <c r="R7" s="3">
+      <c r="R7" s="19">
         <v>1512</v>
       </c>
-      <c r="S7" s="3">
-        <v>0</v>
-      </c>
-      <c r="T7" s="3">
-        <v>0</v>
-      </c>
-      <c r="U7" s="3">
-        <v>0</v>
-      </c>
-      <c r="V7" s="3">
-        <v>0</v>
-      </c>
-      <c r="W7" s="3">
+      <c r="S7" s="19">
+        <v>0</v>
+      </c>
+      <c r="T7" s="19">
+        <v>0</v>
+      </c>
+      <c r="U7" s="19">
+        <v>0</v>
+      </c>
+      <c r="V7" s="19">
+        <v>0</v>
+      </c>
+      <c r="W7" s="19">
         <v>19431.2</v>
       </c>
-      <c r="X7" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="5">
+      <c r="X7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="22">
         <v>163093</v>
       </c>
-      <c r="Z7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="5">
+      <c r="Z7" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="22">
         <v>108738</v>
       </c>
-      <c r="AB7" s="6">
+      <c r="AB7" s="23">
         <v>108738</v>
       </c>
-      <c r="AC7" s="23">
+      <c r="AC7" s="24">
         <v>119850</v>
       </c>
-      <c r="AD7" s="6">
+      <c r="AD7" s="23">
         <v>48459.6</v>
       </c>
-      <c r="AE7" s="6">
+      <c r="AE7" s="23">
         <v>3496.2</v>
       </c>
-      <c r="AF7" s="6">
+      <c r="AF7" s="23">
         <v>4039</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A8" s="2">
+      <c r="A8" s="21">
         <v>35064</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="19">
         <v>32663</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="19">
         <v>15554</v>
       </c>
-      <c r="D8" s="3">
-        <v>15554</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="D8" s="19">
+        <v>436414</v>
+      </c>
+      <c r="E8" s="19">
+        <v>0</v>
+      </c>
+      <c r="F8" s="19">
         <v>580.72</v>
       </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="19">
         <v>1714.3</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="19">
         <v>1068.9000000000001</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="22">
         <v>2047</v>
       </c>
-      <c r="K8" s="5">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3">
+      <c r="K8" s="22">
+        <v>0</v>
+      </c>
+      <c r="L8" s="19">
         <v>107.17</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="19">
         <v>62388.800000000003</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="19">
         <v>354000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O8" s="19">
         <v>455413</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P8" s="19">
         <v>496</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="Q8" s="19">
         <v>424</v>
       </c>
-      <c r="R8" s="3">
+      <c r="R8" s="19">
         <v>1544.05</v>
       </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
-      <c r="T8" s="3">
-        <v>0</v>
-      </c>
-      <c r="U8" s="3">
-        <v>0</v>
-      </c>
-      <c r="V8" s="3">
-        <v>0</v>
-      </c>
-      <c r="W8" s="3">
+      <c r="S8" s="19">
+        <v>0</v>
+      </c>
+      <c r="T8" s="19">
+        <v>0</v>
+      </c>
+      <c r="U8" s="19">
+        <v>0</v>
+      </c>
+      <c r="V8" s="19">
+        <v>0</v>
+      </c>
+      <c r="W8" s="19">
         <v>24887.200000000001</v>
       </c>
-      <c r="X8" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="5">
+      <c r="X8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="22">
         <v>165855</v>
       </c>
-      <c r="Z8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="5">
+      <c r="Z8" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="22">
         <v>102745</v>
       </c>
-      <c r="AB8" s="6">
+      <c r="AB8" s="23">
         <v>102745</v>
       </c>
-      <c r="AC8" s="23">
+      <c r="AC8" s="24">
         <v>121121</v>
       </c>
-      <c r="AD8" s="6">
+      <c r="AD8" s="23">
         <v>61129.8</v>
       </c>
-      <c r="AE8" s="6">
+      <c r="AE8" s="23">
         <v>4283</v>
       </c>
-      <c r="AF8" s="6">
+      <c r="AF8" s="23">
         <v>5117</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A9" s="2">
+      <c r="A9" s="21">
         <v>35430</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="19">
         <v>34516</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="19">
         <v>16082</v>
       </c>
-      <c r="D9" s="3">
-        <v>16082</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="D9" s="19">
+        <v>448280</v>
+      </c>
+      <c r="E9" s="19">
+        <v>0</v>
+      </c>
+      <c r="F9" s="19">
         <v>620.29</v>
       </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="19">
         <v>1128.2</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="19">
         <v>474.9</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="22">
         <v>2459</v>
       </c>
-      <c r="K9" s="5">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3">
+      <c r="K9" s="22">
+        <v>0</v>
+      </c>
+      <c r="L9" s="19">
         <v>122.17</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="19">
         <v>64931.4</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9" s="19">
         <v>353476</v>
       </c>
-      <c r="O9" s="3">
+      <c r="O9" s="19">
         <v>468683</v>
       </c>
-      <c r="P9" s="3">
+      <c r="P9" s="19">
         <v>491</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="19">
         <v>422</v>
       </c>
-      <c r="R9" s="3">
+      <c r="R9" s="19">
         <v>1554.75</v>
       </c>
-      <c r="S9" s="3">
-        <v>0</v>
-      </c>
-      <c r="T9" s="3">
-        <v>0</v>
-      </c>
-      <c r="U9" s="3">
-        <v>0</v>
-      </c>
-      <c r="V9" s="3">
-        <v>0</v>
-      </c>
-      <c r="W9" s="3">
+      <c r="S9" s="19">
+        <v>0</v>
+      </c>
+      <c r="T9" s="19">
+        <v>0</v>
+      </c>
+      <c r="U9" s="19">
+        <v>0</v>
+      </c>
+      <c r="V9" s="19">
+        <v>0</v>
+      </c>
+      <c r="W9" s="19">
         <v>29372.7</v>
       </c>
-      <c r="X9" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="5">
+      <c r="X9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="22">
         <v>170915</v>
       </c>
-      <c r="Z9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="5">
+      <c r="Z9" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="22">
         <v>94797</v>
       </c>
-      <c r="AB9" s="6">
+      <c r="AB9" s="23">
         <v>94797</v>
       </c>
-      <c r="AC9" s="23">
+      <c r="AC9" s="24">
         <v>122389</v>
       </c>
-      <c r="AD9" s="6">
+      <c r="AD9" s="23">
         <v>71572.3</v>
       </c>
-      <c r="AE9" s="6">
+      <c r="AE9" s="23">
         <v>4838.8999999999996</v>
       </c>
-      <c r="AF9" s="6">
+      <c r="AF9" s="23">
         <v>5555</v>
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A10" s="2">
+      <c r="A10" s="21">
         <v>35795</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="19">
         <v>35171</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="19">
         <v>16084</v>
       </c>
-      <c r="D10" s="3">
-        <v>16084</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="D10" s="19">
+        <v>442501</v>
+      </c>
+      <c r="E10" s="19">
+        <v>0</v>
+      </c>
+      <c r="F10" s="19">
         <v>663.93000000000006</v>
       </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="19">
         <v>1015.4000000000001</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="19">
         <v>496.4</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="22">
         <v>2036</v>
       </c>
-      <c r="K10" s="5">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="K10" s="22">
+        <v>0</v>
+      </c>
+      <c r="L10" s="19">
         <v>125.23</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="19">
         <v>65969.5</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="19">
         <v>361070</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="19">
         <v>482873</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P10" s="19">
         <v>504</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="19">
         <v>428</v>
       </c>
-      <c r="R10" s="3">
+      <c r="R10" s="19">
         <v>1600.4</v>
       </c>
-      <c r="S10" s="3">
-        <v>0</v>
-      </c>
-      <c r="T10" s="3">
-        <v>0</v>
-      </c>
-      <c r="U10" s="3">
-        <v>0</v>
-      </c>
-      <c r="V10" s="3">
-        <v>0</v>
-      </c>
-      <c r="W10" s="3">
+      <c r="S10" s="19">
+        <v>0</v>
+      </c>
+      <c r="T10" s="19">
+        <v>0</v>
+      </c>
+      <c r="U10" s="19">
+        <v>0</v>
+      </c>
+      <c r="V10" s="19">
+        <v>0</v>
+      </c>
+      <c r="W10" s="19">
         <v>32837.699999999997</v>
       </c>
-      <c r="X10" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="5">
+      <c r="X10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="22">
         <v>172019</v>
       </c>
-      <c r="Z10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="5">
+      <c r="Z10" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="22">
         <v>93308</v>
       </c>
-      <c r="AB10" s="6">
+      <c r="AB10" s="23">
         <v>93308</v>
       </c>
-      <c r="AC10" s="23">
+      <c r="AC10" s="24">
         <v>123626</v>
       </c>
-      <c r="AD10" s="6">
+      <c r="AD10" s="23">
         <v>79429.5</v>
       </c>
-      <c r="AE10" s="6">
+      <c r="AE10" s="23">
         <v>5160.3</v>
       </c>
-      <c r="AF10" s="6">
+      <c r="AF10" s="23">
         <v>5630</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A11" s="2">
+      <c r="A11" s="21">
         <v>36160</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="19">
         <v>35204</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="19">
         <v>15982</v>
       </c>
-      <c r="D11" s="3">
-        <v>15982</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3">
+      <c r="D11" s="19">
+        <v>443546</v>
+      </c>
+      <c r="E11" s="19">
+        <v>0</v>
+      </c>
+      <c r="F11" s="19">
         <v>839.68999999999994</v>
       </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="3">
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="19">
         <v>1091.5999999999999</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="19">
         <v>1208.3</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="22">
         <v>1193</v>
       </c>
-      <c r="K11" s="5">
-        <v>0</v>
-      </c>
-      <c r="L11" s="3">
+      <c r="K11" s="22">
+        <v>0</v>
+      </c>
+      <c r="L11" s="19">
         <v>119.37</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M11" s="19">
         <v>66428.5</v>
       </c>
-      <c r="N11" s="3">
+      <c r="N11" s="19">
         <v>406817</v>
       </c>
-      <c r="O11" s="3">
+      <c r="O11" s="19">
         <v>508070</v>
       </c>
-      <c r="P11" s="3">
+      <c r="P11" s="19">
         <v>507</v>
       </c>
-      <c r="Q11" s="3">
+      <c r="Q11" s="19">
         <v>430</v>
       </c>
-      <c r="R11" s="3">
+      <c r="R11" s="19">
         <v>1593.66</v>
       </c>
-      <c r="S11" s="3">
-        <v>0</v>
-      </c>
-      <c r="T11" s="3">
-        <v>0</v>
-      </c>
-      <c r="U11" s="3">
-        <v>0</v>
-      </c>
-      <c r="V11" s="3">
-        <v>0</v>
-      </c>
-      <c r="W11" s="3">
+      <c r="S11" s="19">
+        <v>0</v>
+      </c>
+      <c r="T11" s="19">
+        <v>0</v>
+      </c>
+      <c r="U11" s="19">
+        <v>0</v>
+      </c>
+      <c r="V11" s="19">
+        <v>0</v>
+      </c>
+      <c r="W11" s="19">
         <v>33931.9</v>
       </c>
-      <c r="X11" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="5">
+      <c r="X11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="22">
         <v>164082</v>
       </c>
-      <c r="Z11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="5">
+      <c r="Z11" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="22">
         <v>95085</v>
       </c>
-      <c r="AB11" s="6">
+      <c r="AB11" s="23">
         <v>95085</v>
       </c>
-      <c r="AC11" s="23">
+      <c r="AC11" s="24">
         <v>124761</v>
       </c>
-      <c r="AD11" s="6">
+      <c r="AD11" s="23">
         <v>84883.7</v>
       </c>
-      <c r="AE11" s="6">
+      <c r="AE11" s="23">
         <v>5425.1</v>
       </c>
-      <c r="AF11" s="6">
+      <c r="AF11" s="23">
         <v>5755</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A12" s="2">
+      <c r="A12" s="21">
         <v>36525</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="19">
         <v>35317</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="19">
         <v>15196</v>
       </c>
-      <c r="D12" s="3">
-        <v>15196</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="D12" s="19">
+        <v>440211</v>
+      </c>
+      <c r="E12" s="19">
+        <v>0</v>
+      </c>
+      <c r="F12" s="19">
         <v>819.48</v>
       </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3">
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="19">
         <v>1148.8</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="19">
         <v>1053.8</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="22">
         <v>907</v>
       </c>
-      <c r="K12" s="5">
-        <v>0</v>
-      </c>
-      <c r="L12" s="3">
+      <c r="K12" s="22">
+        <v>0</v>
+      </c>
+      <c r="L12" s="19">
         <v>97.68</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12" s="19">
         <v>67394</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N12" s="19">
         <v>416136</v>
       </c>
-      <c r="O12" s="3">
+      <c r="O12" s="19">
         <v>513129</v>
       </c>
-      <c r="P12" s="3">
+      <c r="P12" s="19">
         <v>520</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="Q12" s="19">
         <v>438</v>
       </c>
-      <c r="R12" s="3">
+      <c r="R12" s="19">
         <v>1671.48</v>
       </c>
-      <c r="S12" s="3">
-        <v>0</v>
-      </c>
-      <c r="T12" s="3">
-        <v>0</v>
-      </c>
-      <c r="U12" s="3">
-        <v>0</v>
-      </c>
-      <c r="V12" s="3">
-        <v>0</v>
-      </c>
-      <c r="W12" s="3">
+      <c r="S12" s="19">
+        <v>0</v>
+      </c>
+      <c r="T12" s="19">
+        <v>0</v>
+      </c>
+      <c r="U12" s="19">
+        <v>0</v>
+      </c>
+      <c r="V12" s="19">
+        <v>0</v>
+      </c>
+      <c r="W12" s="19">
         <v>35770.300000000003</v>
       </c>
-      <c r="X12" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="5">
+      <c r="X12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="22">
         <v>167196</v>
       </c>
-      <c r="Z12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="5">
+      <c r="Z12" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="22">
         <v>100164</v>
       </c>
-      <c r="AB12" s="6">
+      <c r="AB12" s="23">
         <v>100164</v>
       </c>
-      <c r="AC12" s="23">
+      <c r="AC12" s="24">
         <v>125786</v>
       </c>
-      <c r="AD12" s="6">
+      <c r="AD12" s="23">
         <v>90187.7</v>
       </c>
-      <c r="AE12" s="6">
+      <c r="AE12" s="23">
         <v>5854</v>
       </c>
-      <c r="AF12" s="6">
+      <c r="AF12" s="23">
         <v>6094</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A13" s="2">
+      <c r="A13" s="21">
         <v>36891</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="19">
         <v>37249</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="19">
         <v>15253</v>
       </c>
-      <c r="D13" s="3">
-        <v>15253</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0</v>
-      </c>
-      <c r="F13" s="3">
+      <c r="D13" s="19">
+        <v>443902</v>
+      </c>
+      <c r="E13" s="19">
+        <v>0</v>
+      </c>
+      <c r="F13" s="19">
         <v>805.27</v>
       </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-      <c r="H13" s="3">
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="19">
         <v>1279.0999999999999</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="19">
         <v>1043.5999999999999</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="22">
         <v>1817</v>
       </c>
-      <c r="K13" s="5">
-        <v>0</v>
-      </c>
-      <c r="L13" s="3">
+      <c r="K13" s="22">
+        <v>0</v>
+      </c>
+      <c r="L13" s="19">
         <v>135.47</v>
       </c>
-      <c r="M13" s="3">
+      <c r="M13" s="19">
         <v>68649.600000000006</v>
       </c>
-      <c r="N13" s="3">
+      <c r="N13" s="19">
         <v>428918</v>
       </c>
-      <c r="O13" s="3">
+      <c r="O13" s="19">
         <v>523750</v>
       </c>
-      <c r="P13" s="3">
+      <c r="P13" s="19">
         <v>521</v>
       </c>
-      <c r="Q13" s="3">
+      <c r="Q13" s="19">
         <v>443</v>
       </c>
-      <c r="R13" s="3">
+      <c r="R13" s="19">
         <v>1756.91</v>
       </c>
-      <c r="S13" s="3">
-        <v>0</v>
-      </c>
-      <c r="T13" s="3">
-        <v>0</v>
-      </c>
-      <c r="U13" s="3">
-        <v>0</v>
-      </c>
-      <c r="V13" s="3">
-        <v>0</v>
-      </c>
-      <c r="W13" s="3">
+      <c r="S13" s="19">
+        <v>0</v>
+      </c>
+      <c r="T13" s="19">
+        <v>0</v>
+      </c>
+      <c r="U13" s="19">
+        <v>0</v>
+      </c>
+      <c r="V13" s="19">
+        <v>0</v>
+      </c>
+      <c r="W13" s="19">
         <v>39931.800000000003</v>
       </c>
-      <c r="X13" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="5">
+      <c r="X13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="22">
         <v>178023</v>
       </c>
-      <c r="Z13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="5">
+      <c r="Z13" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="22">
         <v>105073</v>
       </c>
-      <c r="AB13" s="6">
+      <c r="AB13" s="23">
         <v>105073</v>
       </c>
-      <c r="AC13" s="23">
+      <c r="AC13" s="24">
         <v>126743</v>
       </c>
-      <c r="AD13" s="6">
+      <c r="AD13" s="23">
         <v>99776.3</v>
       </c>
-      <c r="AE13" s="6">
+      <c r="AE13" s="23">
         <v>6280</v>
       </c>
-      <c r="AF13" s="6">
+      <c r="AF13" s="23">
         <v>6722</v>
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A14" s="2">
+      <c r="A14" s="21">
         <v>37256</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="19">
         <v>38780</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="19">
         <v>15756</v>
       </c>
-      <c r="D14" s="3">
-        <v>15756</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="D14" s="19">
+        <v>453620</v>
+      </c>
+      <c r="E14" s="19">
+        <v>0</v>
+      </c>
+      <c r="F14" s="19">
         <v>898.25</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="2">
         <v>262.81</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="19">
         <v>1522</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="19">
         <v>889</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="22">
         <v>2015</v>
       </c>
-      <c r="K14" s="5">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="K14" s="22">
+        <v>0</v>
+      </c>
+      <c r="L14" s="19">
         <v>157.36000000000001</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="19">
         <v>70057.2</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="19">
         <v>435459</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="19">
         <v>535748</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="19">
         <v>533</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="19">
         <v>437</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="19">
         <v>2160.7600000000002</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14" s="19">
         <v>15745.37</v>
       </c>
-      <c r="T14" s="3">
+      <c r="T14" s="19">
         <v>96047.55</v>
       </c>
-      <c r="U14" s="3">
+      <c r="U14" s="19">
         <v>21143.4</v>
       </c>
-      <c r="V14" s="3">
+      <c r="V14" s="19">
         <v>11767.51</v>
       </c>
-      <c r="W14" s="3">
+      <c r="W14" s="19">
         <v>43469.8</v>
       </c>
-      <c r="X14" s="1">
+      <c r="X14" s="2">
         <v>13.95587441</v>
       </c>
-      <c r="Y14" s="5">
+      <c r="Y14" s="22">
         <v>192580</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="Z14" s="19">
         <v>11737.70729</v>
       </c>
-      <c r="AA14" s="5">
+      <c r="AA14" s="22">
         <v>105155</v>
       </c>
-      <c r="AB14" s="7">
+      <c r="AB14" s="25">
         <v>105155</v>
       </c>
-      <c r="AC14" s="22">
+      <c r="AC14" s="26">
         <v>127627</v>
       </c>
-      <c r="AD14" s="7">
+      <c r="AD14" s="25">
         <v>110270.39999999999</v>
       </c>
-      <c r="AE14" s="7">
+      <c r="AE14" s="25">
         <v>6859.6</v>
       </c>
-      <c r="AF14" s="7">
+      <c r="AF14" s="25">
         <v>7524</v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A15" s="2">
+      <c r="A15" s="21">
         <v>37621</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="19">
         <v>39438</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="19">
         <v>16026</v>
       </c>
-      <c r="D15" s="3">
-        <v>16026</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
+      <c r="D15" s="19">
+        <v>459017</v>
+      </c>
+      <c r="E15" s="19">
+        <v>0</v>
+      </c>
+      <c r="F15" s="19">
         <v>962.73</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="2">
         <v>251</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="19">
         <v>1952.8</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="19">
         <v>858.7</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="22">
         <v>2375</v>
       </c>
-      <c r="K15" s="5">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3">
+      <c r="K15" s="22">
+        <v>0</v>
+      </c>
+      <c r="L15" s="19">
         <v>175.53</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M15" s="19">
         <v>71897.5</v>
       </c>
-      <c r="N15" s="3">
+      <c r="N15" s="19">
         <v>453933</v>
       </c>
-      <c r="O15" s="3">
+      <c r="O15" s="19">
         <v>553831</v>
       </c>
-      <c r="P15" s="3">
+      <c r="P15" s="19">
         <v>557</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="Q15" s="19">
         <v>445</v>
       </c>
-      <c r="R15" s="3">
+      <c r="R15" s="19">
         <v>2244.04</v>
       </c>
-      <c r="S15" s="3">
+      <c r="S15" s="19">
         <v>19218.34</v>
       </c>
-      <c r="T15" s="3">
+      <c r="T15" s="19">
         <v>110807.13</v>
       </c>
-      <c r="U15" s="3">
+      <c r="U15" s="19">
         <v>21964.46</v>
       </c>
-      <c r="V15" s="3">
+      <c r="V15" s="19">
         <v>13287.64</v>
       </c>
-      <c r="W15" s="3">
+      <c r="W15" s="19">
         <v>47310.7</v>
       </c>
-      <c r="X15" s="1">
+      <c r="X15" s="2">
         <v>14.604931029999999</v>
       </c>
-      <c r="Y15" s="5">
+      <c r="Y15" s="22">
         <v>204246</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="Z15" s="19">
         <v>12395.66418</v>
       </c>
-      <c r="AA15" s="5">
+      <c r="AA15" s="22">
         <v>105606</v>
       </c>
-      <c r="AB15" s="7">
+      <c r="AB15" s="25">
         <v>105606</v>
       </c>
-      <c r="AC15" s="22">
+      <c r="AC15" s="26">
         <v>128453</v>
       </c>
-      <c r="AD15" s="7">
+      <c r="AD15" s="25">
         <v>121002</v>
       </c>
-      <c r="AE15" s="7">
+      <c r="AE15" s="25">
         <v>7702.8</v>
       </c>
-      <c r="AF15" s="7">
+      <c r="AF15" s="25">
         <v>8594</v>
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A16" s="2">
+      <c r="A16" s="21">
         <v>37986</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="19">
         <v>40487</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="19">
         <v>16320</v>
       </c>
-      <c r="D16" s="3">
-        <v>16320</v>
-      </c>
-      <c r="E16" s="3">
-        <v>0</v>
-      </c>
-      <c r="F16" s="3">
+      <c r="D16" s="19">
+        <v>510327</v>
+      </c>
+      <c r="E16" s="19">
+        <v>0</v>
+      </c>
+      <c r="F16" s="19">
         <v>859.92</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="2">
         <v>235.5</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="19">
         <v>1574.8</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="19">
         <v>222.6</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="22">
         <v>1431</v>
       </c>
-      <c r="K16" s="5">
-        <v>0</v>
-      </c>
-      <c r="L16" s="3">
+      <c r="K16" s="22">
+        <v>0</v>
+      </c>
+      <c r="L16" s="19">
         <v>167.66</v>
       </c>
-      <c r="M16" s="3">
+      <c r="M16" s="19">
         <v>73002</v>
       </c>
-      <c r="N16" s="3">
+      <c r="N16" s="19">
         <v>480743</v>
       </c>
-      <c r="O16" s="3">
+      <c r="O16" s="19">
         <v>581177</v>
       </c>
-      <c r="P16" s="3">
+      <c r="P16" s="19">
         <v>562</v>
       </c>
-      <c r="Q16" s="3">
+      <c r="Q16" s="19">
         <v>450</v>
       </c>
-      <c r="R16" s="3">
+      <c r="R16" s="19">
         <v>2310.79</v>
       </c>
-      <c r="S16" s="3">
+      <c r="S16" s="19">
         <v>23581.58</v>
       </c>
-      <c r="T16" s="3">
+      <c r="T16" s="19">
         <v>131522.66</v>
       </c>
-      <c r="U16" s="3">
+      <c r="U16" s="19">
         <v>24176.66</v>
       </c>
-      <c r="V16" s="3">
+      <c r="V16" s="19">
         <v>15421.26</v>
       </c>
-      <c r="W16" s="3">
+      <c r="W16" s="19">
         <v>54805.8</v>
       </c>
-      <c r="X16" s="1">
+      <c r="X16" s="2">
         <v>15.54219309</v>
       </c>
-      <c r="Y16" s="5">
+      <c r="Y16" s="22">
         <v>223480</v>
       </c>
-      <c r="Z16" s="3">
+      <c r="Z16" s="19">
         <v>13432.51555</v>
       </c>
-      <c r="AA16" s="5">
+      <c r="AA16" s="22">
         <v>97260</v>
       </c>
-      <c r="AB16" s="7">
+      <c r="AB16" s="25">
         <v>97260</v>
       </c>
-      <c r="AC16" s="22">
+      <c r="AC16" s="26">
         <v>129227</v>
       </c>
-      <c r="AD16" s="7">
+      <c r="AD16" s="25">
         <v>136564.6</v>
       </c>
-      <c r="AE16" s="7">
+      <c r="AE16" s="25">
         <v>8472.2000000000007</v>
       </c>
-      <c r="AF16" s="7">
+      <c r="AF16" s="25">
         <v>8759</v>
       </c>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A17" s="2">
+      <c r="A17" s="21">
         <v>38352</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="19">
         <v>41353</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="19">
         <v>17022</v>
       </c>
-      <c r="D17" s="3">
-        <v>17022</v>
-      </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3">
+      <c r="D17" s="19">
+        <v>526894</v>
+      </c>
+      <c r="E17" s="19">
+        <v>0</v>
+      </c>
+      <c r="F17" s="19">
         <v>901.38</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="2">
         <v>224.22</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="19">
         <v>1169.6000000000001</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="19">
         <v>650.5</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="22">
         <v>1579</v>
       </c>
-      <c r="K17" s="5">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="K17" s="22">
+        <v>0</v>
+      </c>
+      <c r="L17" s="19">
         <v>178.32</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M17" s="19">
         <v>74407.7</v>
       </c>
-      <c r="N17" s="3">
+      <c r="N17" s="19">
         <v>503477</v>
       </c>
-      <c r="O17" s="3">
+      <c r="O17" s="19">
         <v>599139</v>
       </c>
-      <c r="P17" s="3">
+      <c r="P17" s="19">
         <v>612</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="19">
         <v>455</v>
       </c>
-      <c r="R17" s="3">
+      <c r="R17" s="19">
         <v>2462</v>
       </c>
-      <c r="S17" s="3">
+      <c r="S17" s="19">
         <v>29738.7</v>
       </c>
-      <c r="T17" s="3">
+      <c r="T17" s="19">
         <v>156520.54999999999</v>
       </c>
-      <c r="U17" s="3">
+      <c r="U17" s="19">
         <v>27462.49</v>
       </c>
-      <c r="V17" s="3">
+      <c r="V17" s="19">
         <v>17701.71</v>
       </c>
-      <c r="W17" s="3">
+      <c r="W17" s="19">
         <v>65044.2</v>
       </c>
-      <c r="X17" s="1">
+      <c r="X17" s="2">
         <v>17.019432510000001</v>
       </c>
-      <c r="Y17" s="5">
+      <c r="Y17" s="22">
         <v>248130</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="Z17" s="19">
         <v>14936.568069999999</v>
       </c>
-      <c r="AA17" s="5">
+      <c r="AA17" s="22">
         <v>111764</v>
       </c>
-      <c r="AB17" s="7">
+      <c r="AB17" s="25">
         <v>111764</v>
       </c>
-      <c r="AC17" s="22">
+      <c r="AC17" s="26">
         <v>129988</v>
       </c>
-      <c r="AD17" s="7">
+      <c r="AD17" s="25">
         <v>160714.4</v>
       </c>
-      <c r="AE17" s="7">
+      <c r="AE17" s="25">
         <v>9421.6</v>
       </c>
-      <c r="AF17" s="7">
+      <c r="AF17" s="25">
         <v>12123</v>
       </c>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A18" s="2">
+      <c r="A18" s="21">
         <v>38717</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="19">
         <v>41974</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="19">
         <v>17473</v>
       </c>
-      <c r="D18" s="3">
-        <v>17473</v>
-      </c>
-      <c r="E18" s="3">
+      <c r="D18" s="19">
+        <v>548368</v>
+      </c>
+      <c r="E18" s="19">
         <v>1</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="19">
         <v>1364.31</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="2">
         <v>223.08</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="19">
         <v>919.7</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="19">
         <v>414.7</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="22">
         <v>1619</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18" s="22">
         <v>1</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="19">
         <v>265.77999999999997</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="19">
         <v>75437.600000000006</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="19">
         <v>527544</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18" s="19">
         <v>620864</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P18" s="19">
         <v>650</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="19">
         <v>458</v>
       </c>
-      <c r="R18" s="3">
+      <c r="R18" s="19">
         <v>2558</v>
       </c>
-      <c r="S18" s="3">
+      <c r="S18" s="19">
         <v>37117.019999999997</v>
       </c>
-      <c r="T18" s="3">
+      <c r="T18" s="19">
         <v>180990.73</v>
       </c>
-      <c r="U18" s="3">
+      <c r="U18" s="19">
         <v>29012.35</v>
       </c>
-      <c r="V18" s="3">
+      <c r="V18" s="19">
         <v>19857.23</v>
       </c>
-      <c r="W18" s="3">
+      <c r="W18" s="19">
         <v>77034.399999999994</v>
       </c>
-      <c r="X18" s="1">
+      <c r="X18" s="2">
         <v>20.89440849</v>
       </c>
-      <c r="Y18" s="5">
+      <c r="Y18" s="22">
         <v>268349</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="Z18" s="19">
         <v>16855.289929999999</v>
       </c>
-      <c r="AA18" s="5">
+      <c r="AA18" s="22">
         <v>115583</v>
       </c>
-      <c r="AB18" s="7">
+      <c r="AB18" s="25">
         <v>115583</v>
       </c>
-      <c r="AC18" s="22">
+      <c r="AC18" s="26">
         <v>130756</v>
       </c>
-      <c r="AD18" s="7">
+      <c r="AD18" s="25">
         <v>185895.8</v>
       </c>
-      <c r="AE18" s="7">
+      <c r="AE18" s="25">
         <v>10493</v>
       </c>
-      <c r="AF18" s="7">
+      <c r="AF18" s="25">
         <v>13827</v>
       </c>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A19" s="2">
+      <c r="A19" s="21">
         <v>39082</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="19">
         <v>42659</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="19">
         <v>17799</v>
       </c>
-      <c r="D19" s="3">
-        <v>17799</v>
-      </c>
-      <c r="E19" s="3">
+      <c r="D19" s="19">
+        <v>564899</v>
+      </c>
+      <c r="E19" s="19">
         <v>5</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="19">
         <v>2088.35</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="2">
         <v>221.01</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="19">
         <v>939.3</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="19">
         <v>1145.3</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" s="22">
         <v>880</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K19" s="22">
         <v>4</v>
       </c>
-      <c r="L19" s="3">
+      <c r="L19" s="19">
         <v>319.39999999999998</v>
       </c>
-      <c r="M19" s="3">
+      <c r="M19" s="19">
         <v>77083.8</v>
       </c>
-      <c r="N19" s="3">
+      <c r="N19" s="19">
         <v>546698</v>
       </c>
-      <c r="O19" s="3">
+      <c r="O19" s="19">
         <v>645625</v>
       </c>
-      <c r="P19" s="3">
+      <c r="P19" s="19">
         <v>671</v>
       </c>
-      <c r="Q19" s="3">
+      <c r="Q19" s="19">
         <v>465</v>
       </c>
-      <c r="R19" s="3">
+      <c r="R19" s="19">
         <v>2627</v>
       </c>
-      <c r="S19" s="3">
+      <c r="S19" s="19">
         <v>46685.43</v>
       </c>
-      <c r="T19" s="3">
+      <c r="T19" s="19">
         <v>206367</v>
       </c>
-      <c r="U19" s="3">
+      <c r="U19" s="19">
         <v>30302.55</v>
       </c>
-      <c r="V19" s="3">
+      <c r="V19" s="19">
         <v>23188.78</v>
       </c>
-      <c r="W19" s="3">
+      <c r="W19" s="19">
         <v>91078.8</v>
       </c>
-      <c r="X19" s="1">
+      <c r="X19" s="2">
         <v>22.496458459999999</v>
       </c>
-      <c r="Y19" s="5">
+      <c r="Y19" s="22">
         <v>287095</v>
       </c>
-      <c r="Z19" s="3">
+      <c r="Z19" s="19">
         <v>18011.937399999999</v>
       </c>
-      <c r="AA19" s="5">
+      <c r="AA19" s="22">
         <v>125656</v>
       </c>
-      <c r="AB19" s="7">
+      <c r="AB19" s="25">
         <v>125655.79580000001</v>
       </c>
-      <c r="AC19" s="22">
+      <c r="AC19" s="26">
         <v>131448</v>
       </c>
-      <c r="AD19" s="7">
+      <c r="AD19" s="25">
         <v>217656.6</v>
       </c>
-      <c r="AE19" s="7">
+      <c r="AE19" s="25">
         <v>11759.5</v>
       </c>
-      <c r="AF19" s="7">
+      <c r="AF19" s="25">
         <v>15967.844800000001</v>
       </c>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A20" s="2">
+      <c r="A20" s="21">
         <v>39447</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="19">
         <v>44243</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="19">
         <v>18306</v>
       </c>
-      <c r="D20" s="3">
-        <v>18306</v>
-      </c>
-      <c r="E20" s="3">
+      <c r="D20" s="19">
+        <v>577521</v>
+      </c>
+      <c r="E20" s="19">
         <v>113</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="19">
         <v>2552.4191999999998</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="2">
         <v>216.92</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="19">
         <v>1089.9000000000001</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="19">
         <v>1256.0999999999999</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J20" s="22">
         <v>925</v>
       </c>
-      <c r="K20" s="5">
+      <c r="K20" s="22">
         <v>108</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="19">
         <v>564.40022999999997</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="19">
         <v>77965.899999999994</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20" s="19">
         <v>565519</v>
       </c>
-      <c r="O20" s="3">
+      <c r="O20" s="19">
         <v>664516</v>
       </c>
-      <c r="P20" s="3">
+      <c r="P20" s="19">
         <v>758</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="19">
         <v>480</v>
       </c>
-      <c r="R20" s="3">
+      <c r="R20" s="19">
         <v>2762.45</v>
       </c>
-      <c r="S20" s="3">
+      <c r="S20" s="19">
         <v>56460.800000000003</v>
       </c>
-      <c r="T20" s="3">
+      <c r="T20" s="19">
         <v>229892.1</v>
       </c>
-      <c r="U20" s="3">
+      <c r="U20" s="19">
         <v>32739.55</v>
       </c>
-      <c r="V20" s="3">
+      <c r="V20" s="19">
         <v>27012.6</v>
       </c>
-      <c r="W20" s="3">
+      <c r="W20" s="19">
         <v>110253.9</v>
       </c>
-      <c r="X20" s="1">
+      <c r="X20" s="2">
         <v>24.349218350000001</v>
       </c>
-      <c r="Y20" s="5">
+      <c r="Y20" s="22">
         <v>313018</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="Z20" s="19">
         <v>19585.90796</v>
       </c>
-      <c r="AA20" s="5">
+      <c r="AA20" s="22">
         <v>135670</v>
       </c>
-      <c r="AB20" s="7">
+      <c r="AB20" s="25">
         <v>135670</v>
       </c>
-      <c r="AC20" s="22">
+      <c r="AC20" s="26">
         <v>132129</v>
       </c>
-      <c r="AD20" s="7">
+      <c r="AD20" s="25">
         <v>268019.40000000002</v>
       </c>
-      <c r="AE20" s="7">
+      <c r="AE20" s="25">
         <v>13785.8</v>
       </c>
-      <c r="AF20" s="7">
+      <c r="AF20" s="25">
         <v>18576.211200000002</v>
       </c>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A21" s="2">
+      <c r="A21" s="21">
         <v>39813</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="19">
         <v>45076</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="19">
         <v>18437</v>
       </c>
-      <c r="D21" s="3">
-        <v>18437</v>
-      </c>
-      <c r="E21" s="3">
+      <c r="D21" s="19">
+        <v>591793</v>
+      </c>
+      <c r="E21" s="19">
         <v>199</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="19">
         <v>4140.8543</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="2">
         <v>213.1</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="19">
         <v>2808.1</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="19">
         <v>2210.1999999999998</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21" s="22">
         <v>1256</v>
       </c>
-      <c r="K21" s="5">
+      <c r="K21" s="22">
         <v>86</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="19">
         <v>559.78</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="19">
         <v>79687.3</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="19">
         <v>575827</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="19">
         <v>684758</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="19">
         <v>812</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="19">
         <v>483</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="19">
         <v>2839.57</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="19">
         <v>58177.3</v>
       </c>
-      <c r="T21" s="3">
+      <c r="T21" s="19">
         <v>258566.39999999999</v>
       </c>
-      <c r="U21" s="3">
+      <c r="U21" s="19">
         <v>34144.53</v>
       </c>
-      <c r="V21" s="3">
+      <c r="V21" s="19">
         <v>27857.4</v>
       </c>
-      <c r="W21" s="3">
+      <c r="W21" s="19">
         <v>129929.1</v>
       </c>
-      <c r="X21" s="1">
+      <c r="X21" s="2">
         <v>25.358853159999999</v>
       </c>
-      <c r="Y21" s="5">
+      <c r="Y21" s="22">
         <v>329035</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="Z21" s="19">
         <v>20355.881730000001</v>
       </c>
-      <c r="AA21" s="5">
+      <c r="AA21" s="22">
         <v>146193</v>
       </c>
-      <c r="AB21" s="7">
+      <c r="AB21" s="25">
         <v>146192.84789999999</v>
       </c>
-      <c r="AC21" s="22">
+      <c r="AC21" s="26">
         <v>132802</v>
       </c>
-      <c r="AD21" s="7">
+      <c r="AD21" s="25">
         <v>316751.7</v>
       </c>
-      <c r="AE21" s="7">
+      <c r="AE21" s="25">
         <v>15780.8</v>
       </c>
-      <c r="AF21" s="7">
+      <c r="AF21" s="25">
         <v>19251.116000000002</v>
       </c>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A22" s="2">
+      <c r="A22" s="21">
         <v>40178</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="19">
         <v>49354</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="19">
         <v>18922</v>
       </c>
-      <c r="D22" s="3">
-        <v>18922</v>
-      </c>
-      <c r="E22" s="3">
+      <c r="D22" s="19">
+        <v>601412</v>
+      </c>
+      <c r="E22" s="19">
         <v>284</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="19">
         <v>7020.7611999999999</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="2">
         <v>211.9194</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="19">
         <v>5427.7000000000007</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="19">
         <v>4349.7</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J22" s="22">
         <v>3158</v>
       </c>
-      <c r="K22" s="5">
+      <c r="K22" s="22">
         <v>85</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="19">
         <v>783.81</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22" s="19">
         <v>85517.8</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="19">
         <v>569531</v>
       </c>
-      <c r="O22" s="3">
+      <c r="O22" s="19">
         <v>692700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="P22" s="19">
         <v>860</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="19">
         <v>487</v>
       </c>
-      <c r="R22" s="3">
+      <c r="R22" s="19">
         <v>2799.92</v>
       </c>
-      <c r="S22" s="3">
+      <c r="S22" s="19">
         <v>69243.72</v>
       </c>
-      <c r="T22" s="3">
+      <c r="T22" s="19">
         <v>298399.34000000003</v>
       </c>
-      <c r="U22" s="3">
+      <c r="U22" s="19">
         <v>37321.69</v>
       </c>
-      <c r="V22" s="3">
+      <c r="V22" s="19">
         <v>29814.22</v>
       </c>
-      <c r="W22" s="3">
+      <c r="W22" s="19">
         <v>135849</v>
       </c>
-      <c r="X22" s="1">
+      <c r="X22" s="2">
         <v>25.696462400000001</v>
       </c>
-      <c r="Y22" s="5">
+      <c r="Y22" s="22">
         <v>332041.09340000001</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="Z22" s="19">
         <v>20496.092629999999</v>
       </c>
-      <c r="AA22" s="5">
+      <c r="AA22" s="22">
         <v>152451.19260000001</v>
       </c>
-      <c r="AB22" s="7">
+      <c r="AB22" s="25">
         <v>152451.19260000001</v>
       </c>
-      <c r="AC22" s="22">
+      <c r="AC22" s="26">
         <v>133450</v>
       </c>
-      <c r="AD22" s="7">
+      <c r="AD22" s="25">
         <v>345629.2</v>
       </c>
-      <c r="AE22" s="7">
+      <c r="AE22" s="25">
         <v>17174.7</v>
       </c>
-      <c r="AF22" s="7">
+      <c r="AF22" s="25">
         <v>23051.6387</v>
       </c>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A23" s="2">
+      <c r="A23" s="21">
         <v>40543</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="19">
         <v>52275</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="19">
         <v>19431</v>
       </c>
-      <c r="D23" s="3">
-        <v>19431</v>
-      </c>
-      <c r="E23" s="3">
+      <c r="D23" s="19">
+        <v>628887</v>
+      </c>
+      <c r="E23" s="19">
         <v>506</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="19">
         <v>8384.6435999999994</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="2">
         <v>215.09</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="19">
         <v>7514</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="19">
         <v>6966.8</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J23" s="22">
         <v>2761</v>
       </c>
-      <c r="K23" s="5">
+      <c r="K23" s="22">
         <v>222</v>
       </c>
-      <c r="L23" s="3">
+      <c r="L23" s="19">
         <v>1064.58</v>
       </c>
-      <c r="M23" s="3">
+      <c r="M23" s="19">
         <v>91178.46</v>
       </c>
-      <c r="N23" s="3">
+      <c r="N23" s="19">
         <v>602376</v>
       </c>
-      <c r="O23" s="3">
+      <c r="O23" s="19">
         <v>718148</v>
       </c>
-      <c r="P23" s="3">
+      <c r="P23" s="19">
         <v>882</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="Q23" s="19">
         <v>489</v>
       </c>
-      <c r="R23" s="3">
+      <c r="R23" s="19">
         <v>2855.91</v>
       </c>
-      <c r="S23" s="3">
+      <c r="S23" s="19">
         <v>79627.399999999994</v>
       </c>
-      <c r="T23" s="3">
+      <c r="T23" s="19">
         <v>338712.28850000002</v>
       </c>
-      <c r="U23" s="3">
+      <c r="U23" s="19">
         <v>42305.43</v>
       </c>
-      <c r="V23" s="3">
+      <c r="V23" s="19">
         <v>33253.4</v>
       </c>
-      <c r="W23" s="3">
+      <c r="W23" s="19">
         <v>162376.4</v>
       </c>
-      <c r="X23" s="1">
+      <c r="X23" s="2">
         <v>28.9020191</v>
       </c>
-      <c r="Y23" s="5">
+      <c r="Y23" s="22">
         <v>362928.56709999999</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="Z23" s="19">
         <v>22755.07287</v>
       </c>
-      <c r="AA23" s="5">
+      <c r="AA23" s="22">
         <v>167609</v>
       </c>
-      <c r="AB23" s="7">
+      <c r="AB23" s="25">
         <v>167609.02299999999</v>
       </c>
-      <c r="AC23" s="22">
+      <c r="AC23" s="26">
         <v>134091</v>
       </c>
-      <c r="AD23" s="7">
+      <c r="AD23" s="25">
         <v>408903</v>
       </c>
-      <c r="AE23" s="7">
+      <c r="AE23" s="25">
         <v>19109.400000000001</v>
       </c>
-      <c r="AF23" s="7">
+      <c r="AF23" s="25">
         <v>26769.143700000001</v>
       </c>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A24" s="2">
+      <c r="A24" s="21">
         <v>40908</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="19">
         <v>54731</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="19">
         <v>20721</v>
       </c>
-      <c r="D24" s="3">
-        <v>20721</v>
-      </c>
-      <c r="E24" s="3">
+      <c r="D24" s="19">
+        <v>651175</v>
+      </c>
+      <c r="E24" s="19">
         <v>684</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="19">
         <v>5897.3109700000005</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="2">
         <v>214</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="19">
         <v>3348.8999999999996</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="19">
         <v>2664.4</v>
       </c>
-      <c r="J24" s="5">
+      <c r="J24" s="22">
         <v>2440</v>
       </c>
-      <c r="K24" s="5">
+      <c r="K24" s="22">
         <v>178</v>
       </c>
-      <c r="L24" s="3">
+      <c r="L24" s="19">
         <v>1037.82</v>
       </c>
-      <c r="M24" s="3">
+      <c r="M24" s="19">
         <v>93249.642999999996</v>
       </c>
-      <c r="N24" s="3">
+      <c r="N24" s="19">
         <v>634994</v>
       </c>
-      <c r="O24" s="3">
+      <c r="O24" s="19">
         <v>752330</v>
       </c>
-      <c r="P24" s="3">
+      <c r="P24" s="19">
         <v>888</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="Q24" s="19">
         <v>494</v>
       </c>
-      <c r="R24" s="3">
+      <c r="R24" s="19">
         <v>2908.0600000000004</v>
       </c>
-      <c r="S24" s="3">
+      <c r="S24" s="19">
         <v>88131.12</v>
       </c>
-      <c r="T24" s="3">
+      <c r="T24" s="19">
         <v>385103.6</v>
       </c>
-      <c r="U24" s="3">
+      <c r="U24" s="19">
         <v>44585.78</v>
       </c>
-      <c r="V24" s="3">
+      <c r="V24" s="19">
         <v>38137.300000000003</v>
       </c>
-      <c r="W24" s="3">
+      <c r="W24" s="19">
         <v>191570.8</v>
       </c>
-      <c r="X24" s="1">
+      <c r="X24" s="2">
         <v>30.891785469999999</v>
       </c>
-      <c r="Y24" s="5">
+      <c r="Y24" s="22">
         <v>391851.8247</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="Z24" s="19">
         <v>24513.73516</v>
       </c>
-      <c r="AA24" s="5">
+      <c r="AA24" s="22">
         <v>186226.07279999999</v>
       </c>
-      <c r="AB24" s="7">
+      <c r="AB24" s="25">
         <v>186226.07279999999</v>
       </c>
-      <c r="AC24" s="22">
+      <c r="AC24" s="26">
         <v>134735</v>
       </c>
-      <c r="AD24" s="7">
+      <c r="AD24" s="25">
         <v>484123.5</v>
       </c>
-      <c r="AE24" s="7">
+      <c r="AE24" s="25">
         <v>21809.8</v>
       </c>
-      <c r="AF24" s="7">
+      <c r="AF24" s="25">
         <v>29316.658200000002</v>
       </c>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A25" s="2">
+      <c r="A25" s="21">
         <v>41274</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="19">
         <v>57721</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="19">
         <v>20797</v>
       </c>
-      <c r="D25" s="3">
-        <v>20797</v>
-      </c>
-      <c r="E25" s="3">
+      <c r="D25" s="19">
+        <v>670656</v>
+      </c>
+      <c r="E25" s="19">
         <v>840</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="19">
         <v>6523.6742000000004</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="2">
         <v>218.38</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="19">
         <v>4921.2</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I25" s="19">
         <v>4439.7</v>
       </c>
-      <c r="J25" s="5">
+      <c r="J25" s="22">
         <v>3658</v>
       </c>
-      <c r="K25" s="5">
+      <c r="K25" s="22">
         <v>156</v>
       </c>
-      <c r="L25" s="3">
+      <c r="L25" s="19">
         <v>1039.5606</v>
       </c>
-      <c r="M25" s="3">
+      <c r="M25" s="19">
         <v>97625.498999999996</v>
       </c>
-      <c r="N25" s="3">
+      <c r="N25" s="19">
         <v>652191</v>
       </c>
-      <c r="O25" s="3">
+      <c r="O25" s="19">
         <v>779989</v>
       </c>
-      <c r="P25" s="3">
+      <c r="P25" s="19">
         <v>880</v>
       </c>
-      <c r="Q25" s="3">
+      <c r="Q25" s="19">
         <v>491</v>
       </c>
-      <c r="R25" s="3">
+      <c r="R25" s="19">
         <v>2883.85</v>
       </c>
-      <c r="S25" s="3">
+      <c r="S25" s="19">
         <v>95186.11</v>
       </c>
-      <c r="T25" s="3">
+      <c r="T25" s="19">
         <v>364042.25</v>
       </c>
-      <c r="U25" s="3">
+      <c r="U25" s="19">
         <v>46492.61</v>
       </c>
-      <c r="V25" s="3">
+      <c r="V25" s="19">
         <v>37867</v>
       </c>
-      <c r="W25" s="3">
+      <c r="W25" s="19">
         <v>204539.5</v>
       </c>
-      <c r="X25" s="1">
+      <c r="X25" s="2">
         <v>30.430314769999999</v>
       </c>
-      <c r="Y25" s="5">
+      <c r="Y25" s="22">
         <v>389215.05089999997</v>
       </c>
-      <c r="Z25" s="3">
+      <c r="Z25" s="19">
         <v>24239.372340000002</v>
       </c>
-      <c r="AA25" s="5">
+      <c r="AA25" s="22">
         <v>189336.8511</v>
       </c>
-      <c r="AB25" s="7">
+      <c r="AB25" s="25">
         <v>189336.8511</v>
       </c>
-      <c r="AC25" s="22">
+      <c r="AC25" s="26">
         <v>135404</v>
       </c>
-      <c r="AD25" s="7">
+      <c r="AD25" s="25">
         <v>534123</v>
       </c>
-      <c r="AE25" s="7">
+      <c r="AE25" s="25">
         <v>24564.720000000001</v>
       </c>
-      <c r="AF25" s="7">
+      <c r="AF25" s="25">
         <v>31936.050500000001</v>
       </c>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A26" s="2">
+      <c r="A26" s="21">
         <v>41639</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="19">
         <v>58820</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="19">
         <v>20835</v>
       </c>
-      <c r="D26" s="3">
-        <v>20835</v>
-      </c>
-      <c r="E26" s="3">
+      <c r="D26" s="19">
+        <v>721850</v>
+      </c>
+      <c r="E26" s="19">
         <v>1071</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="19">
         <v>6843.6148000000003</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="2">
         <v>218.17</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="19">
         <v>7042.4</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="19">
         <v>6016.7</v>
       </c>
-      <c r="J26" s="5">
+      <c r="J26" s="22">
         <v>2026</v>
       </c>
-      <c r="K26" s="5">
+      <c r="K26" s="22">
         <v>231</v>
       </c>
-      <c r="L26" s="3">
+      <c r="L26" s="19">
         <v>1198.4982299999999</v>
       </c>
-      <c r="M26" s="3">
+      <c r="M26" s="19">
         <v>103144.6</v>
       </c>
-      <c r="N26" s="3">
+      <c r="N26" s="19">
         <v>654473</v>
       </c>
-      <c r="O26" s="3">
+      <c r="O26" s="19">
         <v>798973</v>
       </c>
-      <c r="P26" s="3">
+      <c r="P26" s="19">
         <v>883</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="Q26" s="19">
         <v>493</v>
       </c>
-      <c r="R26" s="3">
+      <c r="R26" s="19">
         <v>2823.8100000000004</v>
       </c>
-      <c r="S26" s="3">
+      <c r="S26" s="19">
         <v>106762.2</v>
       </c>
-      <c r="T26" s="3">
+      <c r="T26" s="19">
         <v>360162.25</v>
       </c>
-      <c r="U26" s="3">
+      <c r="U26" s="19">
         <v>47857.599999999999</v>
       </c>
-      <c r="V26" s="3">
+      <c r="V26" s="19">
         <v>35348.14</v>
       </c>
-      <c r="W26" s="3">
+      <c r="W26" s="19">
         <v>217263.9</v>
       </c>
-      <c r="X26" s="1">
+      <c r="X26" s="2">
         <v>30.364701</v>
       </c>
-      <c r="Y26" s="5">
+      <c r="Y26" s="22">
         <v>396099.25229999999</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="Z26" s="19">
         <v>24012.58913</v>
       </c>
-      <c r="AA26" s="5">
+      <c r="AA26" s="22">
         <v>210596.91649999999</v>
       </c>
-      <c r="AB26" s="7">
+      <c r="AB26" s="25">
         <v>210596.91649999999</v>
       </c>
-      <c r="AC26" s="22">
+      <c r="AC26" s="26">
         <v>136072</v>
       </c>
-      <c r="AD26" s="7">
+      <c r="AD26" s="25">
         <v>588018.80000000005</v>
       </c>
-      <c r="AE26" s="7">
+      <c r="AE26" s="25">
         <v>26955.1</v>
       </c>
-      <c r="AF26" s="7">
+      <c r="AF26" s="25">
         <v>35396.630100000002</v>
       </c>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A27" s="2">
+      <c r="A27" s="21">
         <v>42004</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="19">
         <v>60795</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="19">
         <v>20803</v>
       </c>
-      <c r="D27" s="3">
-        <v>20803</v>
-      </c>
-      <c r="E27" s="3">
+      <c r="D27" s="19">
+        <v>710127</v>
+      </c>
+      <c r="E27" s="19">
         <v>1404</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="19">
         <v>7801.33</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="2">
         <v>218.17</v>
       </c>
-      <c r="H27" s="3">
-        <v>7468.6</v>
-      </c>
-      <c r="I27" s="3">
-        <v>6319.3</v>
-      </c>
-      <c r="J27" s="5">
-        <v>0</v>
-      </c>
-      <c r="K27" s="5">
-        <v>0</v>
-      </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="H27" s="30">
+        <v>7488.3</v>
+      </c>
+      <c r="I27" s="30">
+        <v>6342.7</v>
+      </c>
+      <c r="J27" s="27">
+        <f t="shared" ref="J27" si="0">J26</f>
+        <v>2026</v>
+      </c>
+      <c r="K27" s="27">
+        <f t="shared" ref="K27" si="1">K26</f>
+        <v>231</v>
+      </c>
+      <c r="L27" s="27">
+        <f t="shared" ref="L27" si="2">L26</f>
+        <v>1198.4982299999999</v>
+      </c>
+      <c r="M27" s="19">
         <v>111821</v>
       </c>
-      <c r="N27" s="3">
+      <c r="N27" s="19">
         <v>618101.07671232882</v>
       </c>
-      <c r="O27" s="3">
+      <c r="O27" s="19">
         <v>803951.65753424657</v>
       </c>
-      <c r="P27" s="3">
+      <c r="P27" s="19">
         <v>922</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="Q27" s="19">
         <v>503</v>
       </c>
-      <c r="R27" s="3">
+      <c r="R27" s="19">
         <v>2751.38</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
-      <c r="U27" s="3">
-        <v>0</v>
-      </c>
-      <c r="V27" s="3">
-        <v>0</v>
-      </c>
-      <c r="W27" s="3">
+      <c r="S27" s="27">
+        <f t="shared" ref="S27" si="3">S26</f>
+        <v>106762.2</v>
+      </c>
+      <c r="T27" s="27">
+        <f t="shared" ref="T27" si="4">T26</f>
+        <v>360162.25</v>
+      </c>
+      <c r="U27" s="27">
+        <f t="shared" ref="U27" si="5">U26</f>
+        <v>47857.599999999999</v>
+      </c>
+      <c r="V27" s="27">
+        <f t="shared" ref="V27" si="6">V26</f>
+        <v>35348.14</v>
+      </c>
+      <c r="W27" s="19">
         <v>227991</v>
       </c>
-      <c r="X27" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="5">
+      <c r="X27" s="27">
+        <f t="shared" ref="X27:Z27" si="7">X26</f>
+        <v>30.364701</v>
+      </c>
+      <c r="Y27" s="22">
         <v>381171.92060000001</v>
       </c>
-      <c r="Z27" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="5">
+      <c r="Z27" s="27">
+        <f t="shared" si="7"/>
+        <v>24012.58913</v>
+      </c>
+      <c r="AA27" s="22">
         <v>235704.40239999999</v>
       </c>
-      <c r="AB27" s="7">
+      <c r="AB27" s="25">
         <v>235704.4</v>
       </c>
-      <c r="AC27" s="22">
+      <c r="AC27" s="26">
         <v>136782</v>
       </c>
-      <c r="AD27" s="7">
+      <c r="AD27" s="25">
         <v>636462.69999999995</v>
       </c>
-      <c r="AE27" s="7">
+      <c r="AE27" s="25">
         <v>28844</v>
       </c>
-      <c r="AF27" s="7">
+      <c r="AF27" s="25">
         <v>39165.800000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A28" s="21">
         <v>42369</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="19">
         <v>65473</v>
       </c>
-      <c r="C28" s="3">
-        <v>0</v>
-      </c>
-      <c r="D28" s="3">
+      <c r="C28" s="30">
         <v>19846</v>
       </c>
-      <c r="E28" s="3">
+      <c r="D28" s="30">
+        <v>711968</v>
+      </c>
+      <c r="E28" s="19">
         <v>1883</v>
       </c>
-      <c r="F28" s="3">
-        <v>0</v>
-      </c>
-      <c r="G28" s="1">
-        <v>0</v>
-      </c>
-      <c r="H28" s="3">
-        <v>0</v>
-      </c>
-      <c r="I28" s="3">
-        <v>0</v>
-      </c>
-      <c r="J28" s="5">
-        <v>0</v>
-      </c>
-      <c r="K28" s="5">
-        <v>0</v>
-      </c>
-      <c r="L28" s="3">
-        <v>0</v>
-      </c>
-      <c r="M28" s="3">
+      <c r="F28" s="31">
+        <v>8238</v>
+      </c>
+      <c r="G28" s="30">
+        <v>209.03</v>
+      </c>
+      <c r="H28" s="30">
+        <v>5435.3</v>
+      </c>
+      <c r="I28" s="30">
+        <v>5224.2</v>
+      </c>
+      <c r="J28" s="27">
+        <f>J27-1</f>
+        <v>2025</v>
+      </c>
+      <c r="K28" s="27">
+        <f>K27-1</f>
+        <v>230</v>
+      </c>
+      <c r="L28" s="27">
+        <f>L27-1</f>
+        <v>1197.4982299999999</v>
+      </c>
+      <c r="M28" s="28">
         <v>120970</v>
       </c>
-      <c r="N28" s="3">
-        <v>0</v>
-      </c>
-      <c r="O28" s="3">
-        <v>0</v>
-      </c>
-      <c r="P28" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="3">
-        <v>0</v>
-      </c>
-      <c r="R28" s="3">
-        <v>0</v>
-      </c>
-      <c r="S28" s="3">
-        <v>0</v>
-      </c>
-      <c r="T28" s="3">
-        <v>0</v>
-      </c>
-      <c r="U28" s="3">
-        <v>0</v>
-      </c>
-      <c r="V28" s="3">
-        <v>0</v>
-      </c>
-      <c r="W28" s="3">
-        <v>0</v>
-      </c>
-      <c r="X28" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y28" s="5">
+      <c r="N28" s="28">
+        <v>563593</v>
+      </c>
+      <c r="O28" s="28">
+        <v>795943</v>
+      </c>
+      <c r="P28" s="29">
+        <v>1003</v>
+      </c>
+      <c r="Q28" s="29">
+        <v>505</v>
+      </c>
+      <c r="R28" s="29">
+        <v>2640</v>
+      </c>
+      <c r="S28" s="27">
+        <f t="shared" ref="S28" si="8">S27-1</f>
+        <v>106761.2</v>
+      </c>
+      <c r="T28" s="27">
+        <f t="shared" ref="T28" si="9">T27-1</f>
+        <v>360161.25</v>
+      </c>
+      <c r="U28" s="27">
+        <f t="shared" ref="U28" si="10">U27-1</f>
+        <v>47856.6</v>
+      </c>
+      <c r="V28" s="27">
+        <f t="shared" ref="V28" si="11">V27-1</f>
+        <v>35347.14</v>
+      </c>
+      <c r="W28" s="27">
+        <f t="shared" ref="W28" si="12">W27-1</f>
+        <v>227990</v>
+      </c>
+      <c r="X28" s="27">
+        <f>X27-1</f>
+        <v>29.364701</v>
+      </c>
+      <c r="Y28" s="22">
         <v>271244</v>
       </c>
-      <c r="Z28" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA28" s="5">
+      <c r="Z28" s="27">
+        <f>Z27-1</f>
+        <v>24011.58913</v>
+      </c>
+      <c r="AA28" s="22">
         <v>253485</v>
       </c>
-      <c r="AB28" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC28" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD28" s="8">
-        <v>0</v>
-      </c>
-      <c r="AE28" s="8">
-        <v>0</v>
-      </c>
-      <c r="AF28" s="8">
-        <v>0</v>
+      <c r="AB28" s="27">
+        <f>AB27-1</f>
+        <v>235703.4</v>
+      </c>
+      <c r="AC28" s="27">
+        <f>AC27-1</f>
+        <v>136781</v>
+      </c>
+      <c r="AD28" s="27">
+        <f>AD27-1</f>
+        <v>636461.69999999995</v>
+      </c>
+      <c r="AE28" s="27">
+        <f>AE27-1</f>
+        <v>28843</v>
+      </c>
+      <c r="AF28" s="27">
+        <f>AF27-1</f>
+        <v>39164.800000000003</v>
       </c>
     </row>
   </sheetData>

--- a/RailIndexPrj/rawdata_yearly.xlsx
+++ b/RailIndexPrj/rawdata_yearly.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\原D\桌面\常用文件夹\铁路景气指数\APP\railwayIdx\RailIndexPrj\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="10755" yWindow="480" windowWidth="9840" windowHeight="4710"/>
   </bookViews>
   <sheets>
     <sheet name="rawdata_yearly" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -19,7 +24,7 @@
     <author>WenJing</author>
   </authors>
   <commentList>
-    <comment ref="G1" authorId="0">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -45,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0">
+    <comment ref="W1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -71,7 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0">
+    <comment ref="X1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -98,7 +103,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0">
+    <comment ref="Y1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -115,7 +120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0">
+    <comment ref="Z1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -141,7 +146,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0">
+    <comment ref="AA1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -167,7 +172,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC2" authorId="0">
+    <comment ref="AC2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -198,7 +203,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>tm</t>
   </si>
@@ -757,6 +762,13 @@
   <si>
     <t>freight_volume_28_yearly</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三产业增加值</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>third_industry</t>
   </si>
 </sst>
 </file>
@@ -1464,7 +1476,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1558,26 +1570,29 @@
     <xf numFmtId="179" fontId="28" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - 强调文字颜色 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -1593,15 +1608,15 @@
     <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1610,12 +1625,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1657,7 +1675,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1692,7 +1710,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1901,13 +1919,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF28"/>
+  <dimension ref="A1:AG28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="V21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="V3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AF23" sqref="AF23"/>
+      <selection pane="bottomRight" activeCell="AG5" sqref="AG5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1928,7 +1946,7 @@
     <col min="33" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="9" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:33" s="9" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>19</v>
       </c>
@@ -2025,8 +2043,11 @@
       <c r="AF1" s="16" t="s">
         <v>40</v>
       </c>
+      <c r="AG1" s="32" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="2" spans="1:32" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:33" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
@@ -2115,8 +2136,11 @@
       <c r="AD2" s="18"/>
       <c r="AE2" s="18"/>
       <c r="AF2" s="18"/>
+      <c r="AG2" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A3" s="21">
         <v>33238</v>
       </c>
@@ -2213,8 +2237,11 @@
       <c r="AF3" s="23">
         <v>1660</v>
       </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A4" s="21">
         <v>33603</v>
       </c>
@@ -2311,8 +2338,11 @@
       <c r="AF4" s="23">
         <v>2178</v>
       </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A5" s="21">
         <v>33969</v>
       </c>
@@ -2409,8 +2439,11 @@
       <c r="AF5" s="23">
         <v>2886</v>
       </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A6" s="21">
         <v>34334</v>
       </c>
@@ -2507,8 +2540,11 @@
       <c r="AF6" s="23">
         <v>3383</v>
       </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A7" s="21">
         <v>34699</v>
       </c>
@@ -2605,8 +2641,11 @@
       <c r="AF7" s="23">
         <v>4039</v>
       </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A8" s="21">
         <v>35064</v>
       </c>
@@ -2703,8 +2742,11 @@
       <c r="AF8" s="23">
         <v>5117</v>
       </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A9" s="21">
         <v>35430</v>
       </c>
@@ -2801,8 +2843,11 @@
       <c r="AF9" s="23">
         <v>5555</v>
       </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A10" s="21">
         <v>35795</v>
       </c>
@@ -2899,8 +2944,11 @@
       <c r="AF10" s="23">
         <v>5630</v>
       </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A11" s="21">
         <v>36160</v>
       </c>
@@ -2997,8 +3045,11 @@
       <c r="AF11" s="23">
         <v>5755</v>
       </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A12" s="21">
         <v>36525</v>
       </c>
@@ -3095,8 +3146,11 @@
       <c r="AF12" s="23">
         <v>6094</v>
       </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A13" s="21">
         <v>36891</v>
       </c>
@@ -3193,8 +3247,11 @@
       <c r="AF13" s="23">
         <v>6722</v>
       </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A14" s="21">
         <v>37256</v>
       </c>
@@ -3291,8 +3348,11 @@
       <c r="AF14" s="25">
         <v>7524</v>
       </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A15" s="21">
         <v>37621</v>
       </c>
@@ -3389,8 +3449,11 @@
       <c r="AF15" s="25">
         <v>8594</v>
       </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A16" s="21">
         <v>37986</v>
       </c>
@@ -3487,8 +3550,11 @@
       <c r="AF16" s="25">
         <v>8759</v>
       </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A17" s="21">
         <v>38352</v>
       </c>
@@ -3585,8 +3651,11 @@
       <c r="AF17" s="25">
         <v>12123</v>
       </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A18" s="21">
         <v>38717</v>
       </c>
@@ -3683,8 +3752,11 @@
       <c r="AF18" s="25">
         <v>13827</v>
       </c>
+      <c r="AG18">
+        <v>41.4</v>
+      </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A19" s="21">
         <v>39082</v>
       </c>
@@ -3781,8 +3853,11 @@
       <c r="AF19" s="25">
         <v>15967.844800000001</v>
       </c>
+      <c r="AG19">
+        <v>41.9</v>
+      </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A20" s="21">
         <v>39447</v>
       </c>
@@ -3879,8 +3954,11 @@
       <c r="AF20" s="25">
         <v>18576.211200000002</v>
       </c>
+      <c r="AG20">
+        <v>42.9</v>
+      </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A21" s="21">
         <v>39813</v>
       </c>
@@ -3977,8 +4055,11 @@
       <c r="AF21" s="25">
         <v>19251.116000000002</v>
       </c>
+      <c r="AG21">
+        <v>42.9</v>
+      </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A22" s="21">
         <v>40178</v>
       </c>
@@ -4075,8 +4156,11 @@
       <c r="AF22" s="25">
         <v>23051.6387</v>
       </c>
+      <c r="AG22">
+        <v>44.4</v>
+      </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A23" s="21">
         <v>40543</v>
       </c>
@@ -4173,8 +4257,11 @@
       <c r="AF23" s="25">
         <v>26769.143700000001</v>
       </c>
+      <c r="AG23">
+        <v>44.2</v>
+      </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A24" s="21">
         <v>40908</v>
       </c>
@@ -4271,8 +4358,11 @@
       <c r="AF24" s="25">
         <v>29316.658200000002</v>
       </c>
+      <c r="AG24">
+        <v>44.3</v>
+      </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A25" s="21">
         <v>41274</v>
       </c>
@@ -4369,8 +4459,11 @@
       <c r="AF25" s="25">
         <v>31936.050500000001</v>
       </c>
+      <c r="AG25">
+        <v>45.5</v>
+      </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A26" s="21">
         <v>41639</v>
       </c>
@@ -4467,8 +4560,11 @@
       <c r="AF26" s="25">
         <v>35396.630100000002</v>
       </c>
+      <c r="AG26">
+        <v>46.9</v>
+      </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A27" s="21">
         <v>42004</v>
       </c>
@@ -4574,8 +4670,11 @@
       <c r="AF27" s="25">
         <v>39165.800000000003</v>
       </c>
+      <c r="AG27">
+        <v>48.1</v>
+      </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A28" s="21">
         <v>42369</v>
       </c>
@@ -4686,11 +4785,15 @@
       <c r="AF28" s="27">
         <f>AF27-1</f>
         <v>39164.800000000003</v>
+      </c>
+      <c r="AG28" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/RailIndexPrj/rawdata_yearly.xlsx
+++ b/RailIndexPrj/rawdata_yearly.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="852" yWindow="1932" windowWidth="13752" windowHeight="4896"/>
+    <workbookView xWindow="855" yWindow="1935" windowWidth="13755" windowHeight="4890"/>
   </bookViews>
   <sheets>
     <sheet name="rawdata_yearly" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -1851,34 +1851,34 @@
   <dimension ref="A1:AF28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C28" sqref="C28"/>
+      <selection pane="bottomRight" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="6" width="9" style="3"/>
     <col min="7" max="7" width="9" style="1"/>
     <col min="8" max="9" width="9" style="3"/>
-    <col min="10" max="10" width="19.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.875" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="23" width="9" style="3"/>
     <col min="24" max="24" width="9" style="1"/>
-    <col min="25" max="25" width="14.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5" style="4" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="9" style="3"/>
-    <col min="27" max="27" width="17.77734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.44140625" style="9" customWidth="1"/>
-    <col min="29" max="29" width="13.109375" style="8" customWidth="1"/>
-    <col min="30" max="30" width="12.88671875" style="8" customWidth="1"/>
-    <col min="31" max="31" width="12.44140625" style="8" customWidth="1"/>
+    <col min="27" max="27" width="17.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.5" style="9" customWidth="1"/>
+    <col min="29" max="29" width="13.125" style="8" customWidth="1"/>
+    <col min="30" max="30" width="12.875" style="8" customWidth="1"/>
+    <col min="31" max="31" width="12.5" style="8" customWidth="1"/>
     <col min="32" max="32" width="9" style="8"/>
     <col min="33" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="12" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" s="12" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>27</v>
       </c>
@@ -4524,7 +4524,7 @@
         <v>65473</v>
       </c>
       <c r="C28" s="3">
-        <v>19846</v>
+        <v>0</v>
       </c>
       <c r="D28" s="3">
         <v>19846</v>

--- a/RailIndexPrj/rawdata_yearly.xlsx
+++ b/RailIndexPrj/rawdata_yearly.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\railwayIdx-develop\RailIndexPrj\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10755" yWindow="480" windowWidth="9840" windowHeight="4710"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="rawdata_yearly" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -19,7 +24,7 @@
     <author>WenJing</author>
   </authors>
   <commentList>
-    <comment ref="G1" authorId="0">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -45,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0">
+    <comment ref="W1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -71,7 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0">
+    <comment ref="X1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -98,7 +103,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0">
+    <comment ref="Y1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -115,7 +120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0">
+    <comment ref="Z1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -141,7 +146,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0">
+    <comment ref="AA1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -167,7 +172,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC2" authorId="0">
+    <comment ref="AC2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -198,15 +203,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>tm</t>
   </si>
   <si>
     <t>bullettrain_number</t>
-  </si>
-  <si>
-    <t>fixed_assets_investment</t>
   </si>
   <si>
     <t>newline_tracklaying_mileage</t>
@@ -232,40 +234,12 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>动车组增加量</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>passenger_volume</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>passenger_volume_gusong</t>
     <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>固定资产投资</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>从业人员数量</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>复线铺轨里程</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>日均现在车（辆）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>日均运用车（辆）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>机车总行走里程（百万km）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -281,420 +255,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>客车车辆</t>
-    </r>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>客车车辆增加量</t>
-    </r>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>机车台数</t>
-    </r>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>货车车辆</t>
-    </r>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>动车组数</t>
-    </r>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>固定资产投资增量</t>
-    </r>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>新线铺轨里程</t>
-    </r>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>营业里程</t>
-    </r>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>成品钢材产量</t>
-    </r>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>原煤产量</t>
-    </r>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>原油加工量</t>
-    </r>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>火力发电量</t>
-    </r>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>工业增加值</t>
-    </r>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>货运量</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>_28</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>个品类相加的</t>
-    </r>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>货运周转量</t>
-    </r>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>客运量</t>
-    </r>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>铁路客运量</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>万人</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>年末总人口</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>万人</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>国内生产总值</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>亿元</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>城镇居民家庭人均可支配收入</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>元</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>民用航空客运量</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>万人</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>客运机车日车里程（km）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>货运机车日车里程（km）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>货运量（万吨）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Industrial_Added_Value_Rate_yearly</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -756,6 +316,109 @@
   </si>
   <si>
     <t>freight_volume_28_yearly</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>third_industry</t>
+  </si>
+  <si>
+    <t>客车车辆(辆)</t>
+  </si>
+  <si>
+    <t>机车台数(辆)</t>
+  </si>
+  <si>
+    <t>货车车辆(辆)</t>
+  </si>
+  <si>
+    <t>动车组数(组)</t>
+  </si>
+  <si>
+    <t>固定资产投资(亿元)</t>
+  </si>
+  <si>
+    <t>从业人员数量(万人)</t>
+  </si>
+  <si>
+    <t>新线铺轨里程(公里)</t>
+  </si>
+  <si>
+    <t>复线铺轨里程(公里)</t>
+  </si>
+  <si>
+    <t>客车车辆增加量(辆)</t>
+  </si>
+  <si>
+    <t>动车组增加量(辆)</t>
+  </si>
+  <si>
+    <t>固定资产投资增量(亿元)</t>
+  </si>
+  <si>
+    <t>营业里程(公里)</t>
+  </si>
+  <si>
+    <t>日均运用车（辆）(辆)</t>
+  </si>
+  <si>
+    <t>日均现在车（辆）(辆)</t>
+  </si>
+  <si>
+    <t>客运机车日车里程（km）(公里)</t>
+  </si>
+  <si>
+    <t>货运机车日车里程（km）(公里)</t>
+  </si>
+  <si>
+    <t>机车总行走里程（百万km）(百万公里)</t>
+  </si>
+  <si>
+    <t>成品钢材产量(万吨)</t>
+  </si>
+  <si>
+    <t>原煤产量(万吨)</t>
+  </si>
+  <si>
+    <t>原油加工量(万吨)</t>
+  </si>
+  <si>
+    <t>火力发电量(亿千瓦时)</t>
+  </si>
+  <si>
+    <t>工业增加值(百分率)</t>
+  </si>
+  <si>
+    <t>货运量_28个品类相加的(亿吨)</t>
+  </si>
+  <si>
+    <t>货运量(万吨)</t>
+  </si>
+  <si>
+    <t>货运周转量(亿吨)</t>
+  </si>
+  <si>
+    <t>客运量(万人)</t>
+  </si>
+  <si>
+    <t>铁路客运量(万人)</t>
+  </si>
+  <si>
+    <t>年末总人口(万人)</t>
+  </si>
+  <si>
+    <t>国内生产总值(亿元)</t>
+  </si>
+  <si>
+    <t>城镇居民家庭人均可支配收入(元)</t>
+  </si>
+  <si>
+    <t>民用航空客运量(万人)</t>
+  </si>
+  <si>
+    <t>第三产业增加值(百分率)</t>
+  </si>
+  <si>
+    <t>fixed_assets_investment</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1464,7 +1127,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1558,26 +1221,29 @@
     <xf numFmtId="179" fontId="28" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - 强调文字颜色 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -1593,15 +1259,15 @@
     <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1610,12 +1276,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1657,7 +1326,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1692,7 +1361,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1901,13 +1570,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF28"/>
+  <dimension ref="A1:AG28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="V21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AF23" sqref="AF23"/>
+      <selection pane="bottomRight" activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1928,195 +1597,201 @@
     <col min="33" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="9" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:33" s="9" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I1" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="V1" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="W1" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="X1" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y1" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z1" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA1" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB1" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC1" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD1" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE1" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF1" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG1" s="32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="R1" s="13" t="s">
+      <c r="D2" s="17" t="s">
         <v>18</v>
-      </c>
-      <c r="S1" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="T1" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="U1" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="V1" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="W1" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="X1" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y1" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z1" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA1" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB1" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC1" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD1" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE1" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF1" s="16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>50</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" s="17" t="s">
+      <c r="I2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="J2" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="18" t="s">
+      <c r="N2" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="S2" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="T2" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="U2" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="V2" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="W2" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="X2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y2" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z2" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="N2" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="O2" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="P2" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q2" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="R2" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="S2" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="T2" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="U2" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="V2" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="W2" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="X2" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y2" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z2" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA2" s="18" t="s">
-        <v>11</v>
-      </c>
       <c r="AB2" s="18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AC2" s="18"/>
       <c r="AD2" s="18"/>
       <c r="AE2" s="18"/>
       <c r="AF2" s="18"/>
+      <c r="AG2" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A3" s="21">
         <v>33238</v>
       </c>
@@ -2213,8 +1888,11 @@
       <c r="AF3" s="23">
         <v>1660</v>
       </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A4" s="21">
         <v>33603</v>
       </c>
@@ -2311,8 +1989,11 @@
       <c r="AF4" s="23">
         <v>2178</v>
       </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A5" s="21">
         <v>33969</v>
       </c>
@@ -2409,8 +2090,11 @@
       <c r="AF5" s="23">
         <v>2886</v>
       </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A6" s="21">
         <v>34334</v>
       </c>
@@ -2507,8 +2191,11 @@
       <c r="AF6" s="23">
         <v>3383</v>
       </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A7" s="21">
         <v>34699</v>
       </c>
@@ -2605,8 +2292,11 @@
       <c r="AF7" s="23">
         <v>4039</v>
       </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A8" s="21">
         <v>35064</v>
       </c>
@@ -2703,8 +2393,11 @@
       <c r="AF8" s="23">
         <v>5117</v>
       </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A9" s="21">
         <v>35430</v>
       </c>
@@ -2801,8 +2494,11 @@
       <c r="AF9" s="23">
         <v>5555</v>
       </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A10" s="21">
         <v>35795</v>
       </c>
@@ -2899,8 +2595,11 @@
       <c r="AF10" s="23">
         <v>5630</v>
       </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A11" s="21">
         <v>36160</v>
       </c>
@@ -2997,8 +2696,11 @@
       <c r="AF11" s="23">
         <v>5755</v>
       </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A12" s="21">
         <v>36525</v>
       </c>
@@ -3095,8 +2797,11 @@
       <c r="AF12" s="23">
         <v>6094</v>
       </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A13" s="21">
         <v>36891</v>
       </c>
@@ -3193,8 +2898,11 @@
       <c r="AF13" s="23">
         <v>6722</v>
       </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A14" s="21">
         <v>37256</v>
       </c>
@@ -3291,8 +2999,11 @@
       <c r="AF14" s="25">
         <v>7524</v>
       </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A15" s="21">
         <v>37621</v>
       </c>
@@ -3389,8 +3100,11 @@
       <c r="AF15" s="25">
         <v>8594</v>
       </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A16" s="21">
         <v>37986</v>
       </c>
@@ -3487,8 +3201,11 @@
       <c r="AF16" s="25">
         <v>8759</v>
       </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A17" s="21">
         <v>38352</v>
       </c>
@@ -3585,8 +3302,11 @@
       <c r="AF17" s="25">
         <v>12123</v>
       </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A18" s="21">
         <v>38717</v>
       </c>
@@ -3683,8 +3403,11 @@
       <c r="AF18" s="25">
         <v>13827</v>
       </c>
+      <c r="AG18">
+        <v>41.4</v>
+      </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A19" s="21">
         <v>39082</v>
       </c>
@@ -3781,8 +3504,11 @@
       <c r="AF19" s="25">
         <v>15967.844800000001</v>
       </c>
+      <c r="AG19">
+        <v>41.9</v>
+      </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A20" s="21">
         <v>39447</v>
       </c>
@@ -3879,8 +3605,11 @@
       <c r="AF20" s="25">
         <v>18576.211200000002</v>
       </c>
+      <c r="AG20">
+        <v>42.9</v>
+      </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A21" s="21">
         <v>39813</v>
       </c>
@@ -3977,8 +3706,11 @@
       <c r="AF21" s="25">
         <v>19251.116000000002</v>
       </c>
+      <c r="AG21">
+        <v>42.9</v>
+      </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A22" s="21">
         <v>40178</v>
       </c>
@@ -4075,8 +3807,11 @@
       <c r="AF22" s="25">
         <v>23051.6387</v>
       </c>
+      <c r="AG22">
+        <v>44.4</v>
+      </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A23" s="21">
         <v>40543</v>
       </c>
@@ -4173,8 +3908,11 @@
       <c r="AF23" s="25">
         <v>26769.143700000001</v>
       </c>
+      <c r="AG23">
+        <v>44.2</v>
+      </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A24" s="21">
         <v>40908</v>
       </c>
@@ -4271,8 +4009,11 @@
       <c r="AF24" s="25">
         <v>29316.658200000002</v>
       </c>
+      <c r="AG24">
+        <v>44.3</v>
+      </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A25" s="21">
         <v>41274</v>
       </c>
@@ -4369,8 +4110,11 @@
       <c r="AF25" s="25">
         <v>31936.050500000001</v>
       </c>
+      <c r="AG25">
+        <v>45.5</v>
+      </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A26" s="21">
         <v>41639</v>
       </c>
@@ -4467,8 +4211,11 @@
       <c r="AF26" s="25">
         <v>35396.630100000002</v>
       </c>
+      <c r="AG26">
+        <v>46.9</v>
+      </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A27" s="21">
         <v>42004</v>
       </c>
@@ -4574,8 +4321,11 @@
       <c r="AF27" s="25">
         <v>39165.800000000003</v>
       </c>
+      <c r="AG27">
+        <v>48.1</v>
+      </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A28" s="21">
         <v>42369</v>
       </c>
@@ -4686,11 +4436,15 @@
       <c r="AF28" s="27">
         <f>AF27-1</f>
         <v>39164.800000000003</v>
+      </c>
+      <c r="AG28" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/RailIndexPrj/rawdata_yearly.xlsx
+++ b/RailIndexPrj/rawdata_yearly.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\newclone\railwayIdx\RailIndexPrj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\原D\桌面\常用文件夹\铁路景气指数\APP\railwayIdx\RailIndexPrj\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -177,7 +177,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>tm</t>
   </si>
@@ -894,16 +894,39 @@
       <t/>
     </r>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本建设投资</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>construct_investment</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>mileage_delta</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增营业里程</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>普铁客运量（万人）</t>
+  </si>
+  <si>
+    <t>ptpassenger_volume</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0000_);[Red]\(0.0000\)"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1116,6 +1139,12 @@
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -1445,7 +1474,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1575,8 +1604,9 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1645,8 +1675,14 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="44">
     <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1673,6 +1709,7 @@
     <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 12" xfId="42"/>
+    <cellStyle name="常规 2" xfId="43"/>
     <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
@@ -1991,13 +2028,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG28"/>
+  <dimension ref="A1:AJ28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="W3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AA13" sqref="AA13"/>
+      <selection pane="bottomRight" activeCell="AJ20" sqref="AJ20:AJ27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2015,10 +2052,12 @@
     <col min="30" max="30" width="12.875" style="22" customWidth="1"/>
     <col min="31" max="31" width="12.5" style="22" customWidth="1"/>
     <col min="32" max="32" width="9" style="22"/>
-    <col min="33" max="16384" width="9" style="6"/>
+    <col min="33" max="34" width="9" style="6"/>
+    <col min="35" max="35" width="11.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="36" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:36" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>59</v>
       </c>
@@ -2118,8 +2157,17 @@
       <c r="AG1" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="AH1" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI1" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="2" spans="1:33" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:36" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -2219,8 +2267,17 @@
       <c r="AG2" s="4" t="s">
         <v>64</v>
       </c>
+      <c r="AH2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="3" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="9">
         <v>33238</v>
       </c>
@@ -2320,8 +2377,17 @@
       <c r="AG3" s="15">
         <v>0</v>
       </c>
+      <c r="AH3" s="8">
+        <v>76.180000000000007</v>
+      </c>
+      <c r="AI3" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="8">
+        <v>95712</v>
+      </c>
     </row>
-    <row r="4" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="9">
         <v>33603</v>
       </c>
@@ -2421,8 +2487,17 @@
       <c r="AG4" s="15">
         <v>0</v>
       </c>
+      <c r="AH4" s="8">
+        <v>91.11</v>
+      </c>
+      <c r="AI4" s="24">
+        <v>-73.19999999999709</v>
+      </c>
+      <c r="AJ4" s="8">
+        <v>95080</v>
+      </c>
     </row>
-    <row r="5" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="9">
         <v>33969</v>
       </c>
@@ -2522,8 +2597,17 @@
       <c r="AG5" s="15">
         <v>0</v>
       </c>
+      <c r="AH5" s="8">
+        <v>126.13</v>
+      </c>
+      <c r="AI5" s="24">
+        <v>249.90000000000146</v>
+      </c>
+      <c r="AJ5" s="8">
+        <v>99693</v>
+      </c>
     </row>
-    <row r="6" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <v>34334</v>
       </c>
@@ -2623,8 +2707,17 @@
       <c r="AG6" s="15">
         <v>0</v>
       </c>
+      <c r="AH6" s="8">
+        <v>279.69</v>
+      </c>
+      <c r="AI6" s="24">
+        <v>526.59999999999854</v>
+      </c>
+      <c r="AJ6" s="8">
+        <v>105458</v>
+      </c>
     </row>
-    <row r="7" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9">
         <v>34699</v>
       </c>
@@ -2724,8 +2817,17 @@
       <c r="AG7" s="15">
         <v>0</v>
       </c>
+      <c r="AH7" s="8">
+        <v>374.08</v>
+      </c>
+      <c r="AI7" s="24">
+        <v>427.09999999999854</v>
+      </c>
+      <c r="AJ7" s="8">
+        <v>108738</v>
+      </c>
     </row>
-    <row r="8" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="9">
         <v>35064</v>
       </c>
@@ -2825,8 +2927,17 @@
       <c r="AG8" s="15">
         <v>0</v>
       </c>
+      <c r="AH8" s="8">
+        <v>373.74</v>
+      </c>
+      <c r="AI8" s="24">
+        <v>3359.2000000000044</v>
+      </c>
+      <c r="AJ8" s="8">
+        <v>102745</v>
+      </c>
     </row>
-    <row r="9" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="9">
         <v>35430</v>
       </c>
@@ -2926,8 +3037,17 @@
       <c r="AG9" s="15">
         <v>0</v>
       </c>
+      <c r="AH9" s="8">
+        <v>375.27</v>
+      </c>
+      <c r="AI9" s="24">
+        <v>2542.5999999999985</v>
+      </c>
+      <c r="AJ9" s="8">
+        <v>94797</v>
+      </c>
     </row>
-    <row r="10" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="9">
         <v>35795</v>
       </c>
@@ -3027,8 +3147,17 @@
       <c r="AG10" s="15">
         <v>0</v>
       </c>
+      <c r="AH10" s="8">
+        <v>396.09</v>
+      </c>
+      <c r="AI10" s="24">
+        <v>1038.0999999999985</v>
+      </c>
+      <c r="AJ10" s="8">
+        <v>93308</v>
+      </c>
     </row>
-    <row r="11" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9">
         <v>36160</v>
       </c>
@@ -3128,8 +3257,17 @@
       <c r="AG11" s="15">
         <v>0</v>
       </c>
+      <c r="AH11" s="8">
+        <v>570.5</v>
+      </c>
+      <c r="AI11" s="24">
+        <v>459</v>
+      </c>
+      <c r="AJ11" s="8">
+        <v>95085</v>
+      </c>
     </row>
-    <row r="12" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="9">
         <v>36525</v>
       </c>
@@ -3229,8 +3367,17 @@
       <c r="AG12" s="15">
         <v>0</v>
       </c>
+      <c r="AH12" s="8">
+        <v>570.16999999999996</v>
+      </c>
+      <c r="AI12" s="24">
+        <v>965.5</v>
+      </c>
+      <c r="AJ12" s="8">
+        <v>100164</v>
+      </c>
     </row>
-    <row r="13" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="9">
         <v>36891</v>
       </c>
@@ -3330,8 +3477,17 @@
       <c r="AG13" s="15">
         <v>0</v>
       </c>
+      <c r="AH13" s="8">
+        <v>526.78</v>
+      </c>
+      <c r="AI13" s="24">
+        <v>1255.6000000000058</v>
+      </c>
+      <c r="AJ13" s="8">
+        <v>105073</v>
+      </c>
     </row>
-    <row r="14" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="9">
         <v>37256</v>
       </c>
@@ -3431,8 +3587,17 @@
       <c r="AG14" s="15">
         <v>0</v>
       </c>
+      <c r="AH14" s="8">
+        <v>581.39</v>
+      </c>
+      <c r="AI14" s="24">
+        <v>1407.5999999999913</v>
+      </c>
+      <c r="AJ14" s="8">
+        <v>105155</v>
+      </c>
     </row>
-    <row r="15" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="9">
         <v>37621</v>
       </c>
@@ -3532,8 +3697,17 @@
       <c r="AG15" s="15">
         <v>0</v>
       </c>
+      <c r="AH15" s="8">
+        <v>623.52</v>
+      </c>
+      <c r="AI15" s="24">
+        <v>1840.3000000000029</v>
+      </c>
+      <c r="AJ15" s="8">
+        <v>105606</v>
+      </c>
     </row>
-    <row r="16" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="9">
         <v>37986</v>
       </c>
@@ -3633,8 +3807,17 @@
       <c r="AG16" s="15">
         <v>0</v>
       </c>
+      <c r="AH16" s="8">
+        <v>528.62</v>
+      </c>
+      <c r="AI16" s="24">
+        <v>1104.5</v>
+      </c>
+      <c r="AJ16" s="8">
+        <v>97260</v>
+      </c>
     </row>
-    <row r="17" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="9">
         <v>38352</v>
       </c>
@@ -3734,8 +3917,17 @@
       <c r="AG17" s="15">
         <v>0</v>
       </c>
+      <c r="AH17" s="8">
+        <v>531.54999999999995</v>
+      </c>
+      <c r="AI17" s="24">
+        <v>1405.6999999999971</v>
+      </c>
+      <c r="AJ17" s="8">
+        <v>111764</v>
+      </c>
     </row>
-    <row r="18" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="9">
         <v>38717</v>
       </c>
@@ -3835,8 +4027,17 @@
       <c r="AG18" s="15">
         <v>41.4</v>
       </c>
+      <c r="AH18" s="8">
+        <v>880.18</v>
+      </c>
+      <c r="AI18" s="24">
+        <v>1029.9000000000087</v>
+      </c>
+      <c r="AJ18" s="8">
+        <v>115583</v>
+      </c>
     </row>
-    <row r="19" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="9">
         <v>39082</v>
       </c>
@@ -3936,8 +4137,17 @@
       <c r="AG19" s="15">
         <v>41.9</v>
       </c>
+      <c r="AH19" s="8">
+        <v>1542.5</v>
+      </c>
+      <c r="AI19" s="24">
+        <v>1646.1999999999971</v>
+      </c>
+      <c r="AJ19" s="8">
+        <v>125656</v>
+      </c>
     </row>
-    <row r="20" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="9">
         <v>39447</v>
       </c>
@@ -4037,8 +4247,17 @@
       <c r="AG20" s="15">
         <v>42.9</v>
       </c>
+      <c r="AH20" s="8">
+        <v>1789.9929</v>
+      </c>
+      <c r="AI20" s="24">
+        <v>882.09999999999127</v>
+      </c>
+      <c r="AJ20" s="8">
+        <v>129503.15609999999</v>
+      </c>
     </row>
-    <row r="21" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="9">
         <v>39813</v>
       </c>
@@ -4138,8 +4357,17 @@
       <c r="AG21" s="15">
         <v>42.9</v>
       </c>
+      <c r="AH21" s="8">
+        <v>3375.5432999999998</v>
+      </c>
+      <c r="AI21" s="24">
+        <v>1721.4000000000087</v>
+      </c>
+      <c r="AJ21" s="8">
+        <v>132678.27480000001</v>
+      </c>
     </row>
-    <row r="22" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="9">
         <v>40178</v>
       </c>
@@ -4239,8 +4467,17 @@
       <c r="AG22" s="15">
         <v>44.4</v>
       </c>
+      <c r="AH22" s="8">
+        <v>6004.4677999999994</v>
+      </c>
+      <c r="AI22" s="24">
+        <v>5830.5</v>
+      </c>
+      <c r="AJ22" s="8">
+        <v>129832.9492</v>
+      </c>
     </row>
-    <row r="23" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="9">
         <v>40543</v>
       </c>
@@ -4340,8 +4577,17 @@
       <c r="AG23" s="15">
         <v>44.2</v>
       </c>
+      <c r="AH23" s="8">
+        <v>7074.5925999999999</v>
+      </c>
+      <c r="AI23" s="24">
+        <v>5660.6600000000035</v>
+      </c>
+      <c r="AJ23" s="8">
+        <v>124875.7824</v>
+      </c>
     </row>
-    <row r="24" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="9">
         <v>40908</v>
       </c>
@@ -4441,8 +4687,17 @@
       <c r="AG24" s="15">
         <v>44.3</v>
       </c>
+      <c r="AH24" s="8">
+        <v>4601.2718000000004</v>
+      </c>
+      <c r="AI24" s="24">
+        <v>2071.18299999999</v>
+      </c>
+      <c r="AJ24" s="8">
+        <v>116894.4713</v>
+      </c>
     </row>
-    <row r="25" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="9">
         <v>41274</v>
       </c>
@@ -4542,8 +4797,17 @@
       <c r="AG25" s="15">
         <v>45.5</v>
       </c>
+      <c r="AH25" s="8">
+        <v>5215.4588999999996</v>
+      </c>
+      <c r="AI25" s="24">
+        <v>4375.8559999999998</v>
+      </c>
+      <c r="AJ25" s="8">
+        <v>99657.549400000004</v>
+      </c>
     </row>
-    <row r="26" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="9">
         <v>41639</v>
       </c>
@@ -4643,8 +4907,17 @@
       <c r="AG26" s="15">
         <v>46.9</v>
       </c>
+      <c r="AH26" s="8">
+        <v>5336.7807000000003</v>
+      </c>
+      <c r="AI26" s="24">
+        <v>5519.1010000000097</v>
+      </c>
+      <c r="AJ26" s="8">
+        <v>90430.700799999991</v>
+      </c>
     </row>
-    <row r="27" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="9">
         <v>42004</v>
       </c>
@@ -4744,8 +5017,17 @@
       <c r="AG27" s="15">
         <v>48.1</v>
       </c>
+      <c r="AH27" s="8">
+        <v>4647.49</v>
+      </c>
+      <c r="AI27" s="24">
+        <v>8676.3999999999942</v>
+      </c>
+      <c r="AJ27" s="8">
+        <v>74513.848299999983</v>
+      </c>
     </row>
-    <row r="28" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="9">
         <v>42369</v>
       </c>
@@ -4844,6 +5126,15 @@
       </c>
       <c r="AG28" s="21">
         <v>50.5</v>
+      </c>
+      <c r="AH28" s="8">
+        <v>4643.92</v>
+      </c>
+      <c r="AI28" s="24">
+        <v>9149</v>
+      </c>
+      <c r="AJ28" s="8">
+        <v>41267.762600000016</v>
       </c>
     </row>
   </sheetData>

--- a/RailIndexPrj/rawdata_yearly.xlsx
+++ b/RailIndexPrj/rawdata_yearly.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\newclone\railwayIdx\RailIndexPrj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\railwayIdx\RailIndexPrj\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
     <author>WenJing</author>
   </authors>
   <commentList>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -50,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0">
+    <comment ref="Y1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -76,7 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0">
+    <comment ref="Z1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -103,7 +103,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0" shapeId="0">
+    <comment ref="AA1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -120,7 +120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0">
+    <comment ref="AB1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -146,7 +146,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0" shapeId="0">
+    <comment ref="AC1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -177,7 +177,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>tm</t>
   </si>
@@ -893,6 +893,68 @@
       </rPr>
       <t/>
     </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基本建设投资</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>construct_investment</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新增营业里程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公里</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>mileage_delta</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -900,8 +962,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0000_);[Red]\(0.0000\)"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -1576,7 +1639,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1645,6 +1708,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1991,34 +2057,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG28"/>
+  <dimension ref="A1:AI28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="W3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AA13" sqref="AA13"/>
+      <selection pane="bottomRight" activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="9" style="6"/>
-    <col min="10" max="10" width="17.75" style="10" customWidth="1"/>
-    <col min="11" max="11" width="23.875" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="24" width="9" style="6"/>
-    <col min="25" max="25" width="14.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9" style="6"/>
-    <col min="27" max="27" width="17.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.5" style="22" customWidth="1"/>
-    <col min="29" max="29" width="13.125" style="22" customWidth="1"/>
-    <col min="30" max="30" width="12.875" style="22" customWidth="1"/>
-    <col min="31" max="31" width="12.5" style="22" customWidth="1"/>
-    <col min="32" max="32" width="9" style="22"/>
-    <col min="33" max="16384" width="9" style="6"/>
+    <col min="2" max="5" width="9" style="6"/>
+    <col min="7" max="10" width="9" style="6"/>
+    <col min="11" max="11" width="17.75" style="10" customWidth="1"/>
+    <col min="12" max="12" width="23.875" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" style="6"/>
+    <col min="14" max="14" width="16.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="26" width="9" style="6"/>
+    <col min="27" max="27" width="14.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9" style="6"/>
+    <col min="29" max="29" width="17.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.5" style="22" customWidth="1"/>
+    <col min="31" max="31" width="13.125" style="22" customWidth="1"/>
+    <col min="32" max="32" width="12.875" style="22" customWidth="1"/>
+    <col min="33" max="33" width="12.5" style="22" customWidth="1"/>
+    <col min="34" max="34" width="9" style="22"/>
+    <col min="35" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:35" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>59</v>
       </c>
@@ -2035,91 +2104,97 @@
         <v>30</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AF1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:35" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -2135,92 +2210,98 @@
       <c r="E2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="U2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="V2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="W2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="X2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="Y2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="Y2" s="7" t="s">
+      <c r="AA2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="AB2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AC2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="AB2" s="4" t="s">
+      <c r="AD2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AC2" s="4" t="s">
+      <c r="AE2" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AD2" s="4" t="s">
+      <c r="AF2" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="AE2" s="4" t="s">
+      <c r="AG2" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="AF2" s="4" t="s">
+      <c r="AH2" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="AG2" s="4" t="s">
+      <c r="AI2" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:35" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A3" s="9">
         <v>33238</v>
       </c>
@@ -2237,50 +2318,50 @@
         <v>0</v>
       </c>
       <c r="F3" s="11">
+        <v>76.180000000000007</v>
+      </c>
+      <c r="G3" s="11">
         <v>151.43</v>
       </c>
-      <c r="G3" s="12">
-        <v>0</v>
-      </c>
-      <c r="H3" s="11">
+      <c r="H3" s="12">
+        <v>0</v>
+      </c>
+      <c r="I3" s="11">
         <v>529.4</v>
       </c>
-      <c r="I3" s="11">
+      <c r="J3" s="11">
         <v>457.6</v>
       </c>
-      <c r="J3" s="13">
+      <c r="K3" s="13">
         <v>1619</v>
       </c>
-      <c r="K3" s="13">
-        <v>0</v>
-      </c>
-      <c r="L3" s="11">
+      <c r="L3" s="13">
+        <v>0</v>
+      </c>
+      <c r="M3" s="11">
         <v>39.24</v>
       </c>
-      <c r="M3" s="11">
+      <c r="N3" s="11">
+        <v>0</v>
+      </c>
+      <c r="O3" s="11">
         <v>57899.199999999997</v>
       </c>
-      <c r="N3" s="11">
+      <c r="P3" s="11">
         <v>304337</v>
       </c>
-      <c r="O3" s="11">
+      <c r="Q3" s="11">
         <v>386981</v>
       </c>
-      <c r="P3" s="11">
+      <c r="R3" s="11">
         <v>486</v>
       </c>
-      <c r="Q3" s="11">
+      <c r="S3" s="11">
         <v>418</v>
       </c>
-      <c r="R3" s="11">
+      <c r="T3" s="11">
         <v>1358</v>
       </c>
-      <c r="S3" s="11">
-        <v>0</v>
-      </c>
-      <c r="T3" s="11">
-        <v>0</v>
-      </c>
       <c r="U3" s="11">
         <v>0</v>
       </c>
@@ -2288,40 +2369,46 @@
         <v>0</v>
       </c>
       <c r="W3" s="11">
+        <v>0</v>
+      </c>
+      <c r="X3" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="11">
         <v>6840.6</v>
       </c>
-      <c r="X3" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="13">
+      <c r="Z3" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="13">
         <v>150681</v>
       </c>
-      <c r="Z3" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="13">
+      <c r="AB3" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="13">
         <v>95712</v>
       </c>
-      <c r="AB3" s="14">
+      <c r="AD3" s="14">
         <v>95712</v>
       </c>
-      <c r="AC3" s="14">
+      <c r="AE3" s="14">
         <v>114333</v>
       </c>
-      <c r="AD3" s="14">
+      <c r="AF3" s="14">
         <v>18774.3</v>
       </c>
-      <c r="AE3" s="14">
+      <c r="AG3" s="14">
         <v>1510.2</v>
       </c>
-      <c r="AF3" s="14">
+      <c r="AH3" s="14">
         <v>1660</v>
       </c>
-      <c r="AG3" s="15">
+      <c r="AI3" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:35" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A4" s="9">
         <v>33603</v>
       </c>
@@ -2338,50 +2425,50 @@
         <v>0</v>
       </c>
       <c r="F4" s="11">
+        <v>91.11</v>
+      </c>
+      <c r="G4" s="11">
         <v>172.57999999999998</v>
       </c>
-      <c r="G4" s="12">
-        <v>0</v>
-      </c>
-      <c r="H4" s="11">
+      <c r="H4" s="12">
+        <v>0</v>
+      </c>
+      <c r="I4" s="11">
         <v>1029.3999999999999</v>
       </c>
-      <c r="I4" s="11">
+      <c r="J4" s="11">
         <v>528.9</v>
       </c>
-      <c r="J4" s="13">
+      <c r="K4" s="13">
         <v>1654</v>
       </c>
-      <c r="K4" s="13">
-        <v>0</v>
-      </c>
-      <c r="L4" s="11">
+      <c r="L4" s="13">
+        <v>0</v>
+      </c>
+      <c r="M4" s="11">
         <v>40.33</v>
       </c>
-      <c r="M4" s="11">
+      <c r="N4" s="23">
+        <v>-73.19999999999709</v>
+      </c>
+      <c r="O4" s="11">
         <v>57826</v>
       </c>
-      <c r="N4" s="11">
+      <c r="P4" s="11">
         <v>315363</v>
       </c>
-      <c r="O4" s="11">
+      <c r="Q4" s="11">
         <v>392206</v>
       </c>
-      <c r="P4" s="11">
+      <c r="R4" s="11">
         <v>483</v>
       </c>
-      <c r="Q4" s="11">
+      <c r="S4" s="11">
         <v>419</v>
       </c>
-      <c r="R4" s="11">
+      <c r="T4" s="11">
         <v>1385</v>
       </c>
-      <c r="S4" s="11">
-        <v>0</v>
-      </c>
-      <c r="T4" s="11">
-        <v>0</v>
-      </c>
       <c r="U4" s="11">
         <v>0</v>
       </c>
@@ -2389,40 +2476,46 @@
         <v>0</v>
       </c>
       <c r="W4" s="11">
+        <v>0</v>
+      </c>
+      <c r="X4" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="11">
         <v>8066.5</v>
       </c>
-      <c r="X4" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="13">
+      <c r="Z4" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="13">
         <v>152893</v>
       </c>
-      <c r="Z4" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="13">
+      <c r="AB4" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="13">
         <v>95080</v>
       </c>
-      <c r="AB4" s="14">
+      <c r="AD4" s="14">
         <v>95080</v>
       </c>
-      <c r="AC4" s="14">
+      <c r="AE4" s="14">
         <v>115823</v>
       </c>
-      <c r="AD4" s="14">
+      <c r="AF4" s="14">
         <v>21895.5</v>
       </c>
-      <c r="AE4" s="14">
+      <c r="AG4" s="14">
         <v>1700.6</v>
       </c>
-      <c r="AF4" s="14">
+      <c r="AH4" s="14">
         <v>2178</v>
       </c>
-      <c r="AG4" s="15">
+      <c r="AI4" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:35" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A5" s="9">
         <v>33969</v>
       </c>
@@ -2439,50 +2532,50 @@
         <v>0</v>
       </c>
       <c r="F5" s="11">
+        <v>126.13</v>
+      </c>
+      <c r="G5" s="11">
         <v>233.97</v>
       </c>
-      <c r="G5" s="12">
-        <v>0</v>
-      </c>
-      <c r="H5" s="11">
+      <c r="H5" s="12">
+        <v>0</v>
+      </c>
+      <c r="I5" s="11">
         <v>1017.3000000000001</v>
       </c>
-      <c r="I5" s="11">
+      <c r="J5" s="11">
         <v>350.7</v>
       </c>
-      <c r="J5" s="13">
+      <c r="K5" s="13">
         <v>1562</v>
       </c>
-      <c r="K5" s="13">
-        <v>0</v>
-      </c>
-      <c r="L5" s="11">
+      <c r="L5" s="13">
+        <v>0</v>
+      </c>
+      <c r="M5" s="11">
         <v>42.43</v>
       </c>
-      <c r="M5" s="11">
+      <c r="N5" s="23">
+        <v>249.90000000000146</v>
+      </c>
+      <c r="O5" s="11">
         <v>58075.9</v>
       </c>
-      <c r="N5" s="11">
+      <c r="P5" s="11">
         <v>317964</v>
       </c>
-      <c r="O5" s="11">
+      <c r="Q5" s="11">
         <v>399683</v>
       </c>
-      <c r="P5" s="11">
+      <c r="R5" s="11">
         <v>484</v>
       </c>
-      <c r="Q5" s="11">
+      <c r="S5" s="11">
         <v>422</v>
       </c>
-      <c r="R5" s="11">
+      <c r="T5" s="11">
         <v>1426</v>
       </c>
-      <c r="S5" s="11">
-        <v>0</v>
-      </c>
-      <c r="T5" s="11">
-        <v>0</v>
-      </c>
       <c r="U5" s="11">
         <v>0</v>
       </c>
@@ -2490,40 +2583,46 @@
         <v>0</v>
       </c>
       <c r="W5" s="11">
+        <v>0</v>
+      </c>
+      <c r="X5" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="11">
         <v>10258.4</v>
       </c>
-      <c r="X5" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="13">
+      <c r="Z5" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="13">
         <v>157627</v>
       </c>
-      <c r="Z5" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="13">
+      <c r="AB5" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="13">
         <v>99693</v>
       </c>
-      <c r="AB5" s="14">
+      <c r="AD5" s="14">
         <v>99693</v>
       </c>
-      <c r="AC5" s="14">
+      <c r="AE5" s="14">
         <v>117171</v>
       </c>
-      <c r="AD5" s="14">
+      <c r="AF5" s="14">
         <v>27068.3</v>
       </c>
-      <c r="AE5" s="14">
+      <c r="AG5" s="14">
         <v>2026.6</v>
       </c>
-      <c r="AF5" s="14">
+      <c r="AH5" s="14">
         <v>2886</v>
       </c>
-      <c r="AG5" s="15">
+      <c r="AI5" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:35" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <v>34334</v>
       </c>
@@ -2540,50 +2639,50 @@
         <v>0</v>
       </c>
       <c r="F6" s="11">
+        <v>279.69</v>
+      </c>
+      <c r="G6" s="11">
         <v>462.21</v>
       </c>
-      <c r="G6" s="12">
-        <v>0</v>
-      </c>
-      <c r="H6" s="11">
+      <c r="H6" s="12">
+        <v>0</v>
+      </c>
+      <c r="I6" s="11">
         <v>1563.4</v>
       </c>
-      <c r="I6" s="11">
+      <c r="J6" s="11">
         <v>1293.0999999999999</v>
       </c>
-      <c r="J6" s="13">
+      <c r="K6" s="13">
         <v>1732</v>
       </c>
-      <c r="K6" s="13">
-        <v>0</v>
-      </c>
-      <c r="L6" s="11">
+      <c r="L6" s="13">
+        <v>0</v>
+      </c>
+      <c r="M6" s="11">
         <v>79.319999999999993</v>
       </c>
-      <c r="M6" s="11">
+      <c r="N6" s="23">
+        <v>526.59999999999854</v>
+      </c>
+      <c r="O6" s="11">
         <v>58602.5</v>
       </c>
-      <c r="N6" s="11">
+      <c r="P6" s="11">
         <v>328206</v>
       </c>
-      <c r="O6" s="11">
+      <c r="Q6" s="11">
         <v>417950</v>
       </c>
-      <c r="P6" s="11">
+      <c r="R6" s="11">
         <v>439</v>
       </c>
-      <c r="Q6" s="11">
+      <c r="S6" s="11">
         <v>420</v>
       </c>
-      <c r="R6" s="11">
+      <c r="T6" s="11">
         <v>1472</v>
       </c>
-      <c r="S6" s="11">
-        <v>0</v>
-      </c>
-      <c r="T6" s="11">
-        <v>0</v>
-      </c>
       <c r="U6" s="11">
         <v>0</v>
       </c>
@@ -2591,40 +2690,46 @@
         <v>0</v>
       </c>
       <c r="W6" s="11">
+        <v>0</v>
+      </c>
+      <c r="X6" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="11">
         <v>14151.9</v>
       </c>
-      <c r="X6" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="13">
+      <c r="Z6" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="13">
         <v>162663</v>
       </c>
-      <c r="Z6" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="13">
+      <c r="AB6" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="13">
         <v>105458</v>
       </c>
-      <c r="AB6" s="14">
+      <c r="AD6" s="14">
         <v>105458</v>
       </c>
-      <c r="AC6" s="14">
+      <c r="AE6" s="14">
         <v>118517</v>
       </c>
-      <c r="AD6" s="14">
+      <c r="AF6" s="14">
         <v>35524.300000000003</v>
       </c>
-      <c r="AE6" s="14">
+      <c r="AG6" s="14">
         <v>2577.4</v>
       </c>
-      <c r="AF6" s="14">
+      <c r="AH6" s="14">
         <v>3383</v>
       </c>
-      <c r="AG6" s="15">
+      <c r="AI6" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:35" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A7" s="9">
         <v>34699</v>
       </c>
@@ -2641,50 +2746,50 @@
         <v>0</v>
       </c>
       <c r="F7" s="11">
+        <v>374.08</v>
+      </c>
+      <c r="G7" s="11">
         <v>575.76</v>
       </c>
-      <c r="G7" s="12">
-        <v>0</v>
-      </c>
-      <c r="H7" s="11">
+      <c r="H7" s="12">
+        <v>0</v>
+      </c>
+      <c r="I7" s="11">
         <v>1643</v>
       </c>
-      <c r="I7" s="11">
+      <c r="J7" s="11">
         <v>1926.8</v>
       </c>
-      <c r="J7" s="13">
+      <c r="K7" s="13">
         <v>2115</v>
       </c>
-      <c r="K7" s="13">
-        <v>0</v>
-      </c>
-      <c r="L7" s="11">
+      <c r="L7" s="13">
+        <v>0</v>
+      </c>
+      <c r="M7" s="11">
         <v>105.59</v>
       </c>
-      <c r="M7" s="11">
+      <c r="N7" s="23">
+        <v>427.09999999999854</v>
+      </c>
+      <c r="O7" s="11">
         <v>59029.599999999999</v>
       </c>
-      <c r="N7" s="11">
+      <c r="P7" s="11">
         <v>349152</v>
       </c>
-      <c r="O7" s="11">
+      <c r="Q7" s="11">
         <v>446052</v>
       </c>
-      <c r="P7" s="11">
+      <c r="R7" s="11">
         <v>494</v>
       </c>
-      <c r="Q7" s="11">
+      <c r="S7" s="11">
         <v>421</v>
       </c>
-      <c r="R7" s="11">
+      <c r="T7" s="11">
         <v>1512</v>
       </c>
-      <c r="S7" s="11">
-        <v>0</v>
-      </c>
-      <c r="T7" s="11">
-        <v>0</v>
-      </c>
       <c r="U7" s="11">
         <v>0</v>
       </c>
@@ -2692,40 +2797,46 @@
         <v>0</v>
       </c>
       <c r="W7" s="11">
+        <v>0</v>
+      </c>
+      <c r="X7" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="11">
         <v>19431.2</v>
       </c>
-      <c r="X7" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="13">
+      <c r="Z7" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="13">
         <v>163093</v>
       </c>
-      <c r="Z7" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="13">
+      <c r="AB7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="13">
         <v>108738</v>
       </c>
-      <c r="AB7" s="14">
+      <c r="AD7" s="14">
         <v>108738</v>
       </c>
-      <c r="AC7" s="14">
+      <c r="AE7" s="14">
         <v>119850</v>
       </c>
-      <c r="AD7" s="14">
+      <c r="AF7" s="14">
         <v>48459.6</v>
       </c>
-      <c r="AE7" s="14">
+      <c r="AG7" s="14">
         <v>3496.2</v>
       </c>
-      <c r="AF7" s="14">
+      <c r="AH7" s="14">
         <v>4039</v>
       </c>
-      <c r="AG7" s="15">
+      <c r="AI7" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:35" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A8" s="9">
         <v>35064</v>
       </c>
@@ -2742,50 +2853,50 @@
         <v>0</v>
       </c>
       <c r="F8" s="11">
+        <v>373.74</v>
+      </c>
+      <c r="G8" s="11">
         <v>580.72</v>
       </c>
-      <c r="G8" s="12">
-        <v>0</v>
-      </c>
-      <c r="H8" s="11">
+      <c r="H8" s="12">
+        <v>0</v>
+      </c>
+      <c r="I8" s="11">
         <v>1714.3</v>
       </c>
-      <c r="I8" s="11">
+      <c r="J8" s="11">
         <v>1068.9000000000001</v>
       </c>
-      <c r="J8" s="13">
+      <c r="K8" s="13">
         <v>2047</v>
       </c>
-      <c r="K8" s="13">
-        <v>0</v>
-      </c>
-      <c r="L8" s="11">
+      <c r="L8" s="13">
+        <v>0</v>
+      </c>
+      <c r="M8" s="11">
         <v>107.17</v>
       </c>
-      <c r="M8" s="11">
+      <c r="N8" s="23">
+        <v>3359.2000000000044</v>
+      </c>
+      <c r="O8" s="11">
         <v>62388.800000000003</v>
       </c>
-      <c r="N8" s="11">
+      <c r="P8" s="11">
         <v>354000</v>
       </c>
-      <c r="O8" s="11">
+      <c r="Q8" s="11">
         <v>455413</v>
       </c>
-      <c r="P8" s="11">
+      <c r="R8" s="11">
         <v>496</v>
       </c>
-      <c r="Q8" s="11">
+      <c r="S8" s="11">
         <v>424</v>
       </c>
-      <c r="R8" s="11">
+      <c r="T8" s="11">
         <v>1544.05</v>
       </c>
-      <c r="S8" s="11">
-        <v>0</v>
-      </c>
-      <c r="T8" s="11">
-        <v>0</v>
-      </c>
       <c r="U8" s="11">
         <v>0</v>
       </c>
@@ -2793,40 +2904,46 @@
         <v>0</v>
       </c>
       <c r="W8" s="11">
+        <v>0</v>
+      </c>
+      <c r="X8" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="11">
         <v>24887.200000000001</v>
       </c>
-      <c r="X8" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="13">
+      <c r="Z8" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="13">
         <v>165855</v>
       </c>
-      <c r="Z8" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="13">
+      <c r="AB8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="13">
         <v>102745</v>
       </c>
-      <c r="AB8" s="14">
+      <c r="AD8" s="14">
         <v>102745</v>
       </c>
-      <c r="AC8" s="14">
+      <c r="AE8" s="14">
         <v>121121</v>
       </c>
-      <c r="AD8" s="14">
+      <c r="AF8" s="14">
         <v>61129.8</v>
       </c>
-      <c r="AE8" s="14">
+      <c r="AG8" s="14">
         <v>4283</v>
       </c>
-      <c r="AF8" s="14">
+      <c r="AH8" s="14">
         <v>5117</v>
       </c>
-      <c r="AG8" s="15">
+      <c r="AI8" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:35" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A9" s="9">
         <v>35430</v>
       </c>
@@ -2843,50 +2960,50 @@
         <v>0</v>
       </c>
       <c r="F9" s="11">
+        <v>375.27</v>
+      </c>
+      <c r="G9" s="11">
         <v>620.29</v>
       </c>
-      <c r="G9" s="12">
-        <v>0</v>
-      </c>
-      <c r="H9" s="11">
+      <c r="H9" s="12">
+        <v>0</v>
+      </c>
+      <c r="I9" s="11">
         <v>1128.2</v>
       </c>
-      <c r="I9" s="11">
+      <c r="J9" s="11">
         <v>474.9</v>
       </c>
-      <c r="J9" s="13">
+      <c r="K9" s="13">
         <v>2459</v>
       </c>
-      <c r="K9" s="13">
-        <v>0</v>
-      </c>
-      <c r="L9" s="11">
+      <c r="L9" s="13">
+        <v>0</v>
+      </c>
+      <c r="M9" s="11">
         <v>122.17</v>
       </c>
-      <c r="M9" s="11">
+      <c r="N9" s="23">
+        <v>2542.5999999999985</v>
+      </c>
+      <c r="O9" s="11">
         <v>64931.4</v>
       </c>
-      <c r="N9" s="11">
+      <c r="P9" s="11">
         <v>353476</v>
       </c>
-      <c r="O9" s="11">
+      <c r="Q9" s="11">
         <v>468683</v>
       </c>
-      <c r="P9" s="11">
+      <c r="R9" s="11">
         <v>491</v>
       </c>
-      <c r="Q9" s="11">
+      <c r="S9" s="11">
         <v>422</v>
       </c>
-      <c r="R9" s="11">
+      <c r="T9" s="11">
         <v>1554.75</v>
       </c>
-      <c r="S9" s="11">
-        <v>0</v>
-      </c>
-      <c r="T9" s="11">
-        <v>0</v>
-      </c>
       <c r="U9" s="11">
         <v>0</v>
       </c>
@@ -2894,40 +3011,46 @@
         <v>0</v>
       </c>
       <c r="W9" s="11">
+        <v>0</v>
+      </c>
+      <c r="X9" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="11">
         <v>29372.7</v>
       </c>
-      <c r="X9" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="13">
+      <c r="Z9" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="13">
         <v>170915</v>
       </c>
-      <c r="Z9" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="13">
+      <c r="AB9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="13">
         <v>94797</v>
       </c>
-      <c r="AB9" s="14">
+      <c r="AD9" s="14">
         <v>94797</v>
       </c>
-      <c r="AC9" s="14">
+      <c r="AE9" s="14">
         <v>122389</v>
       </c>
-      <c r="AD9" s="14">
+      <c r="AF9" s="14">
         <v>71572.3</v>
       </c>
-      <c r="AE9" s="14">
+      <c r="AG9" s="14">
         <v>4838.8999999999996</v>
       </c>
-      <c r="AF9" s="14">
+      <c r="AH9" s="14">
         <v>5555</v>
       </c>
-      <c r="AG9" s="15">
+      <c r="AI9" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:35" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A10" s="9">
         <v>35795</v>
       </c>
@@ -2944,50 +3067,50 @@
         <v>0</v>
       </c>
       <c r="F10" s="11">
+        <v>396.09</v>
+      </c>
+      <c r="G10" s="11">
         <v>663.93000000000006</v>
       </c>
-      <c r="G10" s="12">
-        <v>0</v>
-      </c>
-      <c r="H10" s="11">
+      <c r="H10" s="12">
+        <v>0</v>
+      </c>
+      <c r="I10" s="11">
         <v>1015.4000000000001</v>
       </c>
-      <c r="I10" s="11">
+      <c r="J10" s="11">
         <v>496.4</v>
       </c>
-      <c r="J10" s="13">
+      <c r="K10" s="13">
         <v>2036</v>
       </c>
-      <c r="K10" s="13">
-        <v>0</v>
-      </c>
-      <c r="L10" s="11">
+      <c r="L10" s="13">
+        <v>0</v>
+      </c>
+      <c r="M10" s="11">
         <v>125.23</v>
       </c>
-      <c r="M10" s="11">
+      <c r="N10" s="23">
+        <v>1038.0999999999985</v>
+      </c>
+      <c r="O10" s="11">
         <v>65969.5</v>
       </c>
-      <c r="N10" s="11">
+      <c r="P10" s="11">
         <v>361070</v>
       </c>
-      <c r="O10" s="11">
+      <c r="Q10" s="11">
         <v>482873</v>
       </c>
-      <c r="P10" s="11">
+      <c r="R10" s="11">
         <v>504</v>
       </c>
-      <c r="Q10" s="11">
+      <c r="S10" s="11">
         <v>428</v>
       </c>
-      <c r="R10" s="11">
+      <c r="T10" s="11">
         <v>1600.4</v>
       </c>
-      <c r="S10" s="11">
-        <v>0</v>
-      </c>
-      <c r="T10" s="11">
-        <v>0</v>
-      </c>
       <c r="U10" s="11">
         <v>0</v>
       </c>
@@ -2995,40 +3118,46 @@
         <v>0</v>
       </c>
       <c r="W10" s="11">
+        <v>0</v>
+      </c>
+      <c r="X10" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="11">
         <v>32837.699999999997</v>
       </c>
-      <c r="X10" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="13">
+      <c r="Z10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="13">
         <v>172019</v>
       </c>
-      <c r="Z10" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="13">
+      <c r="AB10" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="13">
         <v>93308</v>
       </c>
-      <c r="AB10" s="14">
+      <c r="AD10" s="14">
         <v>93308</v>
       </c>
-      <c r="AC10" s="14">
+      <c r="AE10" s="14">
         <v>123626</v>
       </c>
-      <c r="AD10" s="14">
+      <c r="AF10" s="14">
         <v>79429.5</v>
       </c>
-      <c r="AE10" s="14">
+      <c r="AG10" s="14">
         <v>5160.3</v>
       </c>
-      <c r="AF10" s="14">
+      <c r="AH10" s="14">
         <v>5630</v>
       </c>
-      <c r="AG10" s="15">
+      <c r="AI10" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:35" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A11" s="9">
         <v>36160</v>
       </c>
@@ -3045,50 +3174,50 @@
         <v>0</v>
       </c>
       <c r="F11" s="11">
+        <v>570.5</v>
+      </c>
+      <c r="G11" s="11">
         <v>839.68999999999994</v>
       </c>
-      <c r="G11" s="12">
-        <v>0</v>
-      </c>
-      <c r="H11" s="11">
+      <c r="H11" s="12">
+        <v>0</v>
+      </c>
+      <c r="I11" s="11">
         <v>1091.5999999999999</v>
       </c>
-      <c r="I11" s="11">
+      <c r="J11" s="11">
         <v>1208.3</v>
       </c>
-      <c r="J11" s="13">
+      <c r="K11" s="13">
         <v>1193</v>
       </c>
-      <c r="K11" s="13">
-        <v>0</v>
-      </c>
-      <c r="L11" s="11">
+      <c r="L11" s="13">
+        <v>0</v>
+      </c>
+      <c r="M11" s="11">
         <v>119.37</v>
       </c>
-      <c r="M11" s="11">
+      <c r="N11" s="23">
+        <v>459</v>
+      </c>
+      <c r="O11" s="11">
         <v>66428.5</v>
       </c>
-      <c r="N11" s="11">
+      <c r="P11" s="11">
         <v>406817</v>
       </c>
-      <c r="O11" s="11">
+      <c r="Q11" s="11">
         <v>508070</v>
       </c>
-      <c r="P11" s="11">
+      <c r="R11" s="11">
         <v>507</v>
       </c>
-      <c r="Q11" s="11">
+      <c r="S11" s="11">
         <v>430</v>
       </c>
-      <c r="R11" s="11">
+      <c r="T11" s="11">
         <v>1593.66</v>
       </c>
-      <c r="S11" s="11">
-        <v>0</v>
-      </c>
-      <c r="T11" s="11">
-        <v>0</v>
-      </c>
       <c r="U11" s="11">
         <v>0</v>
       </c>
@@ -3096,40 +3225,46 @@
         <v>0</v>
       </c>
       <c r="W11" s="11">
+        <v>0</v>
+      </c>
+      <c r="X11" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="11">
         <v>33931.9</v>
       </c>
-      <c r="X11" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="13">
+      <c r="Z11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="13">
         <v>164082</v>
       </c>
-      <c r="Z11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="13">
+      <c r="AB11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="13">
         <v>95085</v>
       </c>
-      <c r="AB11" s="14">
+      <c r="AD11" s="14">
         <v>95085</v>
       </c>
-      <c r="AC11" s="14">
+      <c r="AE11" s="14">
         <v>124761</v>
       </c>
-      <c r="AD11" s="14">
+      <c r="AF11" s="14">
         <v>84883.7</v>
       </c>
-      <c r="AE11" s="14">
+      <c r="AG11" s="14">
         <v>5425.1</v>
       </c>
-      <c r="AF11" s="14">
+      <c r="AH11" s="14">
         <v>5755</v>
       </c>
-      <c r="AG11" s="15">
+      <c r="AI11" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:35" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A12" s="9">
         <v>36525</v>
       </c>
@@ -3146,50 +3281,50 @@
         <v>0</v>
       </c>
       <c r="F12" s="11">
+        <v>570.16999999999996</v>
+      </c>
+      <c r="G12" s="11">
         <v>819.48</v>
       </c>
-      <c r="G12" s="12">
-        <v>0</v>
-      </c>
-      <c r="H12" s="11">
+      <c r="H12" s="12">
+        <v>0</v>
+      </c>
+      <c r="I12" s="11">
         <v>1148.8</v>
       </c>
-      <c r="I12" s="11">
+      <c r="J12" s="11">
         <v>1053.8</v>
       </c>
-      <c r="J12" s="13">
+      <c r="K12" s="13">
         <v>907</v>
       </c>
-      <c r="K12" s="13">
-        <v>0</v>
-      </c>
-      <c r="L12" s="11">
+      <c r="L12" s="13">
+        <v>0</v>
+      </c>
+      <c r="M12" s="11">
         <v>97.68</v>
       </c>
-      <c r="M12" s="11">
+      <c r="N12" s="23">
+        <v>965.5</v>
+      </c>
+      <c r="O12" s="11">
         <v>67394</v>
       </c>
-      <c r="N12" s="11">
+      <c r="P12" s="11">
         <v>416136</v>
       </c>
-      <c r="O12" s="11">
+      <c r="Q12" s="11">
         <v>513129</v>
       </c>
-      <c r="P12" s="11">
+      <c r="R12" s="11">
         <v>520</v>
       </c>
-      <c r="Q12" s="11">
+      <c r="S12" s="11">
         <v>438</v>
       </c>
-      <c r="R12" s="11">
+      <c r="T12" s="11">
         <v>1671.48</v>
       </c>
-      <c r="S12" s="11">
-        <v>0</v>
-      </c>
-      <c r="T12" s="11">
-        <v>0</v>
-      </c>
       <c r="U12" s="11">
         <v>0</v>
       </c>
@@ -3197,40 +3332,46 @@
         <v>0</v>
       </c>
       <c r="W12" s="11">
+        <v>0</v>
+      </c>
+      <c r="X12" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="11">
         <v>35770.300000000003</v>
       </c>
-      <c r="X12" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="13">
+      <c r="Z12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="13">
         <v>167196</v>
       </c>
-      <c r="Z12" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="13">
+      <c r="AB12" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="13">
         <v>100164</v>
       </c>
-      <c r="AB12" s="14">
+      <c r="AD12" s="14">
         <v>100164</v>
       </c>
-      <c r="AC12" s="14">
+      <c r="AE12" s="14">
         <v>125786</v>
       </c>
-      <c r="AD12" s="14">
+      <c r="AF12" s="14">
         <v>90187.7</v>
       </c>
-      <c r="AE12" s="14">
+      <c r="AG12" s="14">
         <v>5854</v>
       </c>
-      <c r="AF12" s="14">
+      <c r="AH12" s="14">
         <v>6094</v>
       </c>
-      <c r="AG12" s="15">
+      <c r="AI12" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:35" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A13" s="9">
         <v>36891</v>
       </c>
@@ -3247,50 +3388,50 @@
         <v>0</v>
       </c>
       <c r="F13" s="11">
+        <v>526.78</v>
+      </c>
+      <c r="G13" s="11">
         <v>805.27</v>
       </c>
-      <c r="G13" s="12">
-        <v>0</v>
-      </c>
-      <c r="H13" s="11">
+      <c r="H13" s="12">
+        <v>0</v>
+      </c>
+      <c r="I13" s="11">
         <v>1279.0999999999999</v>
       </c>
-      <c r="I13" s="11">
+      <c r="J13" s="11">
         <v>1043.5999999999999</v>
       </c>
-      <c r="J13" s="13">
+      <c r="K13" s="13">
         <v>1817</v>
       </c>
-      <c r="K13" s="13">
-        <v>0</v>
-      </c>
-      <c r="L13" s="11">
+      <c r="L13" s="13">
+        <v>0</v>
+      </c>
+      <c r="M13" s="11">
         <v>135.47</v>
       </c>
-      <c r="M13" s="11">
+      <c r="N13" s="23">
+        <v>1255.6000000000058</v>
+      </c>
+      <c r="O13" s="11">
         <v>68649.600000000006</v>
       </c>
-      <c r="N13" s="11">
+      <c r="P13" s="11">
         <v>428918</v>
       </c>
-      <c r="O13" s="11">
+      <c r="Q13" s="11">
         <v>523750</v>
       </c>
-      <c r="P13" s="11">
+      <c r="R13" s="11">
         <v>521</v>
       </c>
-      <c r="Q13" s="11">
+      <c r="S13" s="11">
         <v>443</v>
       </c>
-      <c r="R13" s="11">
+      <c r="T13" s="11">
         <v>1756.91</v>
       </c>
-      <c r="S13" s="11">
-        <v>0</v>
-      </c>
-      <c r="T13" s="11">
-        <v>0</v>
-      </c>
       <c r="U13" s="11">
         <v>0</v>
       </c>
@@ -3298,40 +3439,46 @@
         <v>0</v>
       </c>
       <c r="W13" s="11">
+        <v>0</v>
+      </c>
+      <c r="X13" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="11">
         <v>39931.800000000003</v>
       </c>
-      <c r="X13" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="13">
+      <c r="Z13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="13">
         <v>178023</v>
       </c>
-      <c r="Z13" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="13">
+      <c r="AB13" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="13">
         <v>105073</v>
       </c>
-      <c r="AB13" s="14">
+      <c r="AD13" s="14">
         <v>105073</v>
       </c>
-      <c r="AC13" s="14">
+      <c r="AE13" s="14">
         <v>126743</v>
       </c>
-      <c r="AD13" s="14">
+      <c r="AF13" s="14">
         <v>99776.3</v>
       </c>
-      <c r="AE13" s="14">
+      <c r="AG13" s="14">
         <v>6280</v>
       </c>
-      <c r="AF13" s="14">
+      <c r="AH13" s="14">
         <v>6722</v>
       </c>
-      <c r="AG13" s="15">
+      <c r="AI13" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:35" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A14" s="9">
         <v>37256</v>
       </c>
@@ -3348,91 +3495,97 @@
         <v>0</v>
       </c>
       <c r="F14" s="11">
+        <v>581.39</v>
+      </c>
+      <c r="G14" s="11">
         <v>898.25</v>
       </c>
-      <c r="G14" s="12">
+      <c r="H14" s="12">
         <v>262.81</v>
       </c>
-      <c r="H14" s="11">
+      <c r="I14" s="11">
         <v>1522</v>
       </c>
-      <c r="I14" s="11">
+      <c r="J14" s="11">
         <v>889</v>
       </c>
-      <c r="J14" s="13">
+      <c r="K14" s="13">
         <v>2015</v>
       </c>
-      <c r="K14" s="13">
-        <v>0</v>
-      </c>
-      <c r="L14" s="11">
+      <c r="L14" s="13">
+        <v>0</v>
+      </c>
+      <c r="M14" s="11">
         <v>157.36000000000001</v>
       </c>
-      <c r="M14" s="11">
+      <c r="N14" s="23">
+        <v>1407.5999999999913</v>
+      </c>
+      <c r="O14" s="11">
         <v>70057.2</v>
       </c>
-      <c r="N14" s="11">
+      <c r="P14" s="11">
         <v>435459</v>
       </c>
-      <c r="O14" s="11">
+      <c r="Q14" s="11">
         <v>535748</v>
       </c>
-      <c r="P14" s="11">
+      <c r="R14" s="11">
         <v>533</v>
       </c>
-      <c r="Q14" s="11">
+      <c r="S14" s="11">
         <v>437</v>
       </c>
-      <c r="R14" s="11">
+      <c r="T14" s="11">
         <v>2160.7600000000002</v>
       </c>
-      <c r="S14" s="11">
+      <c r="U14" s="11">
         <v>15745.37</v>
       </c>
-      <c r="T14" s="11">
+      <c r="V14" s="11">
         <v>96047.55</v>
       </c>
-      <c r="U14" s="11">
+      <c r="W14" s="11">
         <v>21143.4</v>
       </c>
-      <c r="V14" s="11">
+      <c r="X14" s="11">
         <v>11767.51</v>
       </c>
-      <c r="W14" s="11">
+      <c r="Y14" s="11">
         <v>43469.8</v>
       </c>
-      <c r="X14" s="12">
+      <c r="Z14" s="12">
         <v>13.95587441</v>
       </c>
-      <c r="Y14" s="13">
+      <c r="AA14" s="13">
         <v>192580</v>
       </c>
-      <c r="Z14" s="11">
+      <c r="AB14" s="11">
         <v>11737.70729</v>
       </c>
-      <c r="AA14" s="13">
+      <c r="AC14" s="13">
         <v>105155</v>
       </c>
-      <c r="AB14" s="16">
+      <c r="AD14" s="16">
         <v>105155</v>
       </c>
-      <c r="AC14" s="16">
+      <c r="AE14" s="16">
         <v>127627</v>
       </c>
-      <c r="AD14" s="16">
+      <c r="AF14" s="16">
         <v>110270.39999999999</v>
       </c>
-      <c r="AE14" s="16">
+      <c r="AG14" s="16">
         <v>6859.6</v>
       </c>
-      <c r="AF14" s="16">
+      <c r="AH14" s="16">
         <v>7524</v>
       </c>
-      <c r="AG14" s="15">
+      <c r="AI14" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:35" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A15" s="9">
         <v>37621</v>
       </c>
@@ -3449,91 +3602,97 @@
         <v>0</v>
       </c>
       <c r="F15" s="11">
+        <v>623.52</v>
+      </c>
+      <c r="G15" s="11">
         <v>962.73</v>
       </c>
-      <c r="G15" s="12">
+      <c r="H15" s="12">
         <v>251</v>
       </c>
-      <c r="H15" s="11">
+      <c r="I15" s="11">
         <v>1952.8</v>
       </c>
-      <c r="I15" s="11">
+      <c r="J15" s="11">
         <v>858.7</v>
       </c>
-      <c r="J15" s="13">
+      <c r="K15" s="13">
         <v>2375</v>
       </c>
-      <c r="K15" s="13">
-        <v>0</v>
-      </c>
-      <c r="L15" s="11">
+      <c r="L15" s="13">
+        <v>0</v>
+      </c>
+      <c r="M15" s="11">
         <v>175.53</v>
       </c>
-      <c r="M15" s="11">
+      <c r="N15" s="23">
+        <v>1840.3000000000029</v>
+      </c>
+      <c r="O15" s="11">
         <v>71897.5</v>
       </c>
-      <c r="N15" s="11">
+      <c r="P15" s="11">
         <v>453933</v>
       </c>
-      <c r="O15" s="11">
+      <c r="Q15" s="11">
         <v>553831</v>
       </c>
-      <c r="P15" s="11">
+      <c r="R15" s="11">
         <v>557</v>
       </c>
-      <c r="Q15" s="11">
+      <c r="S15" s="11">
         <v>445</v>
       </c>
-      <c r="R15" s="11">
+      <c r="T15" s="11">
         <v>2244.04</v>
       </c>
-      <c r="S15" s="11">
+      <c r="U15" s="11">
         <v>19218.34</v>
       </c>
-      <c r="T15" s="11">
+      <c r="V15" s="11">
         <v>110807.13</v>
       </c>
-      <c r="U15" s="11">
+      <c r="W15" s="11">
         <v>21964.46</v>
       </c>
-      <c r="V15" s="11">
+      <c r="X15" s="11">
         <v>13287.64</v>
       </c>
-      <c r="W15" s="11">
+      <c r="Y15" s="11">
         <v>47310.7</v>
       </c>
-      <c r="X15" s="12">
+      <c r="Z15" s="12">
         <v>14.604931029999999</v>
       </c>
-      <c r="Y15" s="13">
+      <c r="AA15" s="13">
         <v>204246</v>
       </c>
-      <c r="Z15" s="11">
+      <c r="AB15" s="11">
         <v>12395.66418</v>
       </c>
-      <c r="AA15" s="13">
+      <c r="AC15" s="13">
         <v>105606</v>
       </c>
-      <c r="AB15" s="16">
+      <c r="AD15" s="16">
         <v>105606</v>
       </c>
-      <c r="AC15" s="16">
+      <c r="AE15" s="16">
         <v>128453</v>
       </c>
-      <c r="AD15" s="16">
+      <c r="AF15" s="16">
         <v>121002</v>
       </c>
-      <c r="AE15" s="16">
+      <c r="AG15" s="16">
         <v>7702.8</v>
       </c>
-      <c r="AF15" s="16">
+      <c r="AH15" s="16">
         <v>8594</v>
       </c>
-      <c r="AG15" s="15">
+      <c r="AI15" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:35" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A16" s="9">
         <v>37986</v>
       </c>
@@ -3550,91 +3709,97 @@
         <v>0</v>
       </c>
       <c r="F16" s="11">
+        <v>528.62</v>
+      </c>
+      <c r="G16" s="11">
         <v>859.92</v>
       </c>
-      <c r="G16" s="12">
+      <c r="H16" s="12">
         <v>235.5</v>
       </c>
-      <c r="H16" s="11">
+      <c r="I16" s="11">
         <v>1574.8</v>
       </c>
-      <c r="I16" s="11">
+      <c r="J16" s="11">
         <v>222.6</v>
       </c>
-      <c r="J16" s="13">
+      <c r="K16" s="13">
         <v>1431</v>
       </c>
-      <c r="K16" s="13">
-        <v>0</v>
-      </c>
-      <c r="L16" s="11">
+      <c r="L16" s="13">
+        <v>0</v>
+      </c>
+      <c r="M16" s="11">
         <v>167.66</v>
       </c>
-      <c r="M16" s="11">
+      <c r="N16" s="23">
+        <v>1104.5</v>
+      </c>
+      <c r="O16" s="11">
         <v>73002</v>
       </c>
-      <c r="N16" s="11">
+      <c r="P16" s="11">
         <v>480743</v>
       </c>
-      <c r="O16" s="11">
+      <c r="Q16" s="11">
         <v>581177</v>
       </c>
-      <c r="P16" s="11">
+      <c r="R16" s="11">
         <v>562</v>
       </c>
-      <c r="Q16" s="11">
+      <c r="S16" s="11">
         <v>450</v>
       </c>
-      <c r="R16" s="11">
+      <c r="T16" s="11">
         <v>2310.79</v>
       </c>
-      <c r="S16" s="11">
+      <c r="U16" s="11">
         <v>23581.58</v>
       </c>
-      <c r="T16" s="11">
+      <c r="V16" s="11">
         <v>131522.66</v>
       </c>
-      <c r="U16" s="11">
+      <c r="W16" s="11">
         <v>24176.66</v>
       </c>
-      <c r="V16" s="11">
+      <c r="X16" s="11">
         <v>15421.26</v>
       </c>
-      <c r="W16" s="11">
+      <c r="Y16" s="11">
         <v>54805.8</v>
       </c>
-      <c r="X16" s="12">
+      <c r="Z16" s="12">
         <v>15.54219309</v>
       </c>
-      <c r="Y16" s="13">
+      <c r="AA16" s="13">
         <v>223480</v>
       </c>
-      <c r="Z16" s="11">
+      <c r="AB16" s="11">
         <v>13432.51555</v>
       </c>
-      <c r="AA16" s="13">
+      <c r="AC16" s="13">
         <v>97260</v>
       </c>
-      <c r="AB16" s="16">
+      <c r="AD16" s="16">
         <v>97260</v>
       </c>
-      <c r="AC16" s="16">
+      <c r="AE16" s="16">
         <v>129227</v>
       </c>
-      <c r="AD16" s="16">
+      <c r="AF16" s="16">
         <v>136564.6</v>
       </c>
-      <c r="AE16" s="16">
+      <c r="AG16" s="16">
         <v>8472.2000000000007</v>
       </c>
-      <c r="AF16" s="16">
+      <c r="AH16" s="16">
         <v>8759</v>
       </c>
-      <c r="AG16" s="15">
+      <c r="AI16" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:35" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A17" s="9">
         <v>38352</v>
       </c>
@@ -3651,91 +3816,97 @@
         <v>0</v>
       </c>
       <c r="F17" s="11">
+        <v>531.54999999999995</v>
+      </c>
+      <c r="G17" s="11">
         <v>901.38</v>
       </c>
-      <c r="G17" s="12">
+      <c r="H17" s="12">
         <v>224.22</v>
       </c>
-      <c r="H17" s="11">
+      <c r="I17" s="11">
         <v>1169.6000000000001</v>
       </c>
-      <c r="I17" s="11">
+      <c r="J17" s="11">
         <v>650.5</v>
       </c>
-      <c r="J17" s="13">
+      <c r="K17" s="13">
         <v>1579</v>
       </c>
-      <c r="K17" s="13">
-        <v>0</v>
-      </c>
-      <c r="L17" s="11">
+      <c r="L17" s="13">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
         <v>178.32</v>
       </c>
-      <c r="M17" s="11">
+      <c r="N17" s="23">
+        <v>1405.6999999999971</v>
+      </c>
+      <c r="O17" s="11">
         <v>74407.7</v>
       </c>
-      <c r="N17" s="11">
+      <c r="P17" s="11">
         <v>503477</v>
       </c>
-      <c r="O17" s="11">
+      <c r="Q17" s="11">
         <v>599139</v>
       </c>
-      <c r="P17" s="11">
+      <c r="R17" s="11">
         <v>612</v>
       </c>
-      <c r="Q17" s="11">
+      <c r="S17" s="11">
         <v>455</v>
       </c>
-      <c r="R17" s="11">
+      <c r="T17" s="11">
         <v>2462</v>
       </c>
-      <c r="S17" s="11">
+      <c r="U17" s="11">
         <v>29738.7</v>
       </c>
-      <c r="T17" s="11">
+      <c r="V17" s="11">
         <v>156520.54999999999</v>
       </c>
-      <c r="U17" s="11">
+      <c r="W17" s="11">
         <v>27462.49</v>
       </c>
-      <c r="V17" s="11">
+      <c r="X17" s="11">
         <v>17701.71</v>
       </c>
-      <c r="W17" s="11">
+      <c r="Y17" s="11">
         <v>65044.2</v>
       </c>
-      <c r="X17" s="12">
+      <c r="Z17" s="12">
         <v>17.019432510000001</v>
       </c>
-      <c r="Y17" s="13">
+      <c r="AA17" s="13">
         <v>248130</v>
       </c>
-      <c r="Z17" s="11">
+      <c r="AB17" s="11">
         <v>14936.568069999999</v>
       </c>
-      <c r="AA17" s="13">
+      <c r="AC17" s="13">
         <v>111764</v>
       </c>
-      <c r="AB17" s="16">
+      <c r="AD17" s="16">
         <v>111764</v>
       </c>
-      <c r="AC17" s="16">
+      <c r="AE17" s="16">
         <v>129988</v>
       </c>
-      <c r="AD17" s="16">
+      <c r="AF17" s="16">
         <v>160714.4</v>
       </c>
-      <c r="AE17" s="16">
+      <c r="AG17" s="16">
         <v>9421.6</v>
       </c>
-      <c r="AF17" s="16">
+      <c r="AH17" s="16">
         <v>12123</v>
       </c>
-      <c r="AG17" s="15">
+      <c r="AI17" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:35" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A18" s="9">
         <v>38717</v>
       </c>
@@ -3752,91 +3923,97 @@
         <v>1</v>
       </c>
       <c r="F18" s="11">
+        <v>880.18</v>
+      </c>
+      <c r="G18" s="11">
         <v>1364.31</v>
       </c>
-      <c r="G18" s="12">
+      <c r="H18" s="12">
         <v>223.08</v>
       </c>
-      <c r="H18" s="11">
+      <c r="I18" s="11">
         <v>919.7</v>
       </c>
-      <c r="I18" s="11">
+      <c r="J18" s="11">
         <v>414.7</v>
       </c>
-      <c r="J18" s="13">
+      <c r="K18" s="13">
         <v>1619</v>
       </c>
-      <c r="K18" s="13">
+      <c r="L18" s="13">
         <v>1</v>
       </c>
-      <c r="L18" s="11">
+      <c r="M18" s="11">
         <v>265.77999999999997</v>
       </c>
-      <c r="M18" s="11">
+      <c r="N18" s="23">
+        <v>1029.9000000000087</v>
+      </c>
+      <c r="O18" s="11">
         <v>75437.600000000006</v>
       </c>
-      <c r="N18" s="11">
+      <c r="P18" s="11">
         <v>527544</v>
       </c>
-      <c r="O18" s="11">
+      <c r="Q18" s="11">
         <v>620864</v>
       </c>
-      <c r="P18" s="11">
+      <c r="R18" s="11">
         <v>650</v>
       </c>
-      <c r="Q18" s="11">
+      <c r="S18" s="11">
         <v>458</v>
       </c>
-      <c r="R18" s="11">
+      <c r="T18" s="11">
         <v>2558</v>
       </c>
-      <c r="S18" s="11">
+      <c r="U18" s="11">
         <v>37117.019999999997</v>
       </c>
-      <c r="T18" s="11">
+      <c r="V18" s="11">
         <v>180990.73</v>
       </c>
-      <c r="U18" s="11">
+      <c r="W18" s="11">
         <v>29012.35</v>
       </c>
-      <c r="V18" s="11">
+      <c r="X18" s="11">
         <v>19857.23</v>
       </c>
-      <c r="W18" s="11">
+      <c r="Y18" s="11">
         <v>77034.399999999994</v>
       </c>
-      <c r="X18" s="12">
+      <c r="Z18" s="12">
         <v>20.89440849</v>
       </c>
-      <c r="Y18" s="13">
+      <c r="AA18" s="13">
         <v>268349</v>
       </c>
-      <c r="Z18" s="11">
+      <c r="AB18" s="11">
         <v>16855.289929999999</v>
       </c>
-      <c r="AA18" s="13">
+      <c r="AC18" s="13">
         <v>115583</v>
       </c>
-      <c r="AB18" s="16">
+      <c r="AD18" s="16">
         <v>115583</v>
       </c>
-      <c r="AC18" s="16">
+      <c r="AE18" s="16">
         <v>130756</v>
       </c>
-      <c r="AD18" s="16">
+      <c r="AF18" s="16">
         <v>185895.8</v>
       </c>
-      <c r="AE18" s="16">
+      <c r="AG18" s="16">
         <v>10493</v>
       </c>
-      <c r="AF18" s="16">
+      <c r="AH18" s="16">
         <v>13827</v>
       </c>
-      <c r="AG18" s="15">
+      <c r="AI18" s="15">
         <v>41.4</v>
       </c>
     </row>
-    <row r="19" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:35" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A19" s="9">
         <v>39082</v>
       </c>
@@ -3853,91 +4030,97 @@
         <v>5</v>
       </c>
       <c r="F19" s="11">
+        <v>1542.5</v>
+      </c>
+      <c r="G19" s="11">
         <v>2088.35</v>
       </c>
-      <c r="G19" s="12">
+      <c r="H19" s="12">
         <v>221.01</v>
       </c>
-      <c r="H19" s="11">
+      <c r="I19" s="11">
         <v>939.3</v>
       </c>
-      <c r="I19" s="11">
+      <c r="J19" s="11">
         <v>1145.3</v>
       </c>
-      <c r="J19" s="13">
+      <c r="K19" s="13">
         <v>880</v>
       </c>
-      <c r="K19" s="13">
+      <c r="L19" s="13">
         <v>4</v>
       </c>
-      <c r="L19" s="11">
+      <c r="M19" s="11">
         <v>319.39999999999998</v>
       </c>
-      <c r="M19" s="11">
+      <c r="N19" s="23">
+        <v>1646.1999999999971</v>
+      </c>
+      <c r="O19" s="11">
         <v>77083.8</v>
       </c>
-      <c r="N19" s="11">
+      <c r="P19" s="11">
         <v>546698</v>
       </c>
-      <c r="O19" s="11">
+      <c r="Q19" s="11">
         <v>645625</v>
       </c>
-      <c r="P19" s="11">
+      <c r="R19" s="11">
         <v>671</v>
       </c>
-      <c r="Q19" s="11">
+      <c r="S19" s="11">
         <v>465</v>
       </c>
-      <c r="R19" s="11">
+      <c r="T19" s="11">
         <v>2627</v>
       </c>
-      <c r="S19" s="11">
+      <c r="U19" s="11">
         <v>46685.43</v>
       </c>
-      <c r="T19" s="11">
+      <c r="V19" s="11">
         <v>206367</v>
       </c>
-      <c r="U19" s="11">
+      <c r="W19" s="11">
         <v>30302.55</v>
       </c>
-      <c r="V19" s="11">
+      <c r="X19" s="11">
         <v>23188.78</v>
       </c>
-      <c r="W19" s="11">
+      <c r="Y19" s="11">
         <v>91078.8</v>
       </c>
-      <c r="X19" s="12">
+      <c r="Z19" s="12">
         <v>22.496458459999999</v>
       </c>
-      <c r="Y19" s="13">
+      <c r="AA19" s="13">
         <v>287095</v>
       </c>
-      <c r="Z19" s="11">
+      <c r="AB19" s="11">
         <v>18011.937399999999</v>
       </c>
-      <c r="AA19" s="13">
+      <c r="AC19" s="13">
         <v>125656</v>
       </c>
-      <c r="AB19" s="16">
+      <c r="AD19" s="16">
         <v>125655.79580000001</v>
       </c>
-      <c r="AC19" s="16">
+      <c r="AE19" s="16">
         <v>131448</v>
       </c>
-      <c r="AD19" s="16">
+      <c r="AF19" s="16">
         <v>217656.6</v>
       </c>
-      <c r="AE19" s="16">
+      <c r="AG19" s="16">
         <v>11759.5</v>
       </c>
-      <c r="AF19" s="16">
+      <c r="AH19" s="16">
         <v>15967.844800000001</v>
       </c>
-      <c r="AG19" s="15">
+      <c r="AI19" s="15">
         <v>41.9</v>
       </c>
     </row>
-    <row r="20" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:35" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A20" s="9">
         <v>39447</v>
       </c>
@@ -3954,91 +4137,97 @@
         <v>113</v>
       </c>
       <c r="F20" s="11">
+        <v>1789.9929</v>
+      </c>
+      <c r="G20" s="11">
         <v>2552.4191999999998</v>
       </c>
-      <c r="G20" s="12">
+      <c r="H20" s="12">
         <v>216.92</v>
       </c>
-      <c r="H20" s="11">
+      <c r="I20" s="11">
         <v>1089.9000000000001</v>
       </c>
-      <c r="I20" s="11">
+      <c r="J20" s="11">
         <v>1256.0999999999999</v>
       </c>
-      <c r="J20" s="13">
+      <c r="K20" s="13">
         <v>925</v>
       </c>
-      <c r="K20" s="13">
+      <c r="L20" s="13">
         <v>108</v>
       </c>
-      <c r="L20" s="11">
+      <c r="M20" s="11">
         <v>564.40022999999997</v>
       </c>
-      <c r="M20" s="11">
+      <c r="N20" s="23">
+        <v>882.09999999999127</v>
+      </c>
+      <c r="O20" s="11">
         <v>77965.899999999994</v>
       </c>
-      <c r="N20" s="11">
+      <c r="P20" s="11">
         <v>565519</v>
       </c>
-      <c r="O20" s="11">
+      <c r="Q20" s="11">
         <v>664516</v>
       </c>
-      <c r="P20" s="11">
+      <c r="R20" s="11">
         <v>758</v>
       </c>
-      <c r="Q20" s="11">
+      <c r="S20" s="11">
         <v>480</v>
       </c>
-      <c r="R20" s="11">
+      <c r="T20" s="11">
         <v>2762.45</v>
       </c>
-      <c r="S20" s="11">
+      <c r="U20" s="11">
         <v>56460.800000000003</v>
       </c>
-      <c r="T20" s="11">
+      <c r="V20" s="11">
         <v>229892.1</v>
       </c>
-      <c r="U20" s="11">
+      <c r="W20" s="11">
         <v>32739.55</v>
       </c>
-      <c r="V20" s="11">
+      <c r="X20" s="11">
         <v>27012.6</v>
       </c>
-      <c r="W20" s="11">
+      <c r="Y20" s="11">
         <v>110253.9</v>
       </c>
-      <c r="X20" s="12">
+      <c r="Z20" s="12">
         <v>24.349218350000001</v>
       </c>
-      <c r="Y20" s="13">
+      <c r="AA20" s="13">
         <v>313018</v>
       </c>
-      <c r="Z20" s="11">
+      <c r="AB20" s="11">
         <v>19585.90796</v>
       </c>
-      <c r="AA20" s="13">
+      <c r="AC20" s="13">
         <v>135670</v>
       </c>
-      <c r="AB20" s="16">
+      <c r="AD20" s="16">
         <v>135670</v>
       </c>
-      <c r="AC20" s="16">
+      <c r="AE20" s="16">
         <v>132129</v>
       </c>
-      <c r="AD20" s="16">
+      <c r="AF20" s="16">
         <v>268019.40000000002</v>
       </c>
-      <c r="AE20" s="16">
+      <c r="AG20" s="16">
         <v>13785.8</v>
       </c>
-      <c r="AF20" s="16">
+      <c r="AH20" s="16">
         <v>18576.211200000002</v>
       </c>
-      <c r="AG20" s="15">
+      <c r="AI20" s="15">
         <v>42.9</v>
       </c>
     </row>
-    <row r="21" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:35" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A21" s="9">
         <v>39813</v>
       </c>
@@ -4055,91 +4244,97 @@
         <v>199</v>
       </c>
       <c r="F21" s="11">
+        <v>3375.5432999999998</v>
+      </c>
+      <c r="G21" s="11">
         <v>4140.8543</v>
       </c>
-      <c r="G21" s="12">
+      <c r="H21" s="12">
         <v>213.1</v>
       </c>
-      <c r="H21" s="11">
+      <c r="I21" s="11">
         <v>2808.1</v>
       </c>
-      <c r="I21" s="11">
+      <c r="J21" s="11">
         <v>2210.1999999999998</v>
       </c>
-      <c r="J21" s="13">
+      <c r="K21" s="13">
         <v>1256</v>
       </c>
-      <c r="K21" s="13">
+      <c r="L21" s="13">
         <v>86</v>
       </c>
-      <c r="L21" s="11">
+      <c r="M21" s="11">
         <v>559.78</v>
       </c>
-      <c r="M21" s="11">
+      <c r="N21" s="23">
+        <v>1721.4000000000087</v>
+      </c>
+      <c r="O21" s="11">
         <v>79687.3</v>
       </c>
-      <c r="N21" s="11">
+      <c r="P21" s="11">
         <v>575827</v>
       </c>
-      <c r="O21" s="11">
+      <c r="Q21" s="11">
         <v>684758</v>
       </c>
-      <c r="P21" s="11">
+      <c r="R21" s="11">
         <v>812</v>
       </c>
-      <c r="Q21" s="11">
+      <c r="S21" s="11">
         <v>483</v>
       </c>
-      <c r="R21" s="11">
+      <c r="T21" s="11">
         <v>2839.57</v>
       </c>
-      <c r="S21" s="11">
+      <c r="U21" s="11">
         <v>58177.3</v>
       </c>
-      <c r="T21" s="11">
+      <c r="V21" s="11">
         <v>258566.39999999999</v>
       </c>
-      <c r="U21" s="11">
+      <c r="W21" s="11">
         <v>34144.53</v>
       </c>
-      <c r="V21" s="11">
+      <c r="X21" s="11">
         <v>27857.4</v>
       </c>
-      <c r="W21" s="11">
+      <c r="Y21" s="11">
         <v>129929.1</v>
       </c>
-      <c r="X21" s="12">
+      <c r="Z21" s="12">
         <v>25.358853159999999</v>
       </c>
-      <c r="Y21" s="13">
+      <c r="AA21" s="13">
         <v>329035</v>
       </c>
-      <c r="Z21" s="11">
+      <c r="AB21" s="11">
         <v>20355.881730000001</v>
       </c>
-      <c r="AA21" s="13">
+      <c r="AC21" s="13">
         <v>146193</v>
       </c>
-      <c r="AB21" s="16">
+      <c r="AD21" s="16">
         <v>146192.84789999999</v>
       </c>
-      <c r="AC21" s="16">
+      <c r="AE21" s="16">
         <v>132802</v>
       </c>
-      <c r="AD21" s="16">
+      <c r="AF21" s="16">
         <v>316751.7</v>
       </c>
-      <c r="AE21" s="16">
+      <c r="AG21" s="16">
         <v>15780.8</v>
       </c>
-      <c r="AF21" s="16">
+      <c r="AH21" s="16">
         <v>19251.116000000002</v>
       </c>
-      <c r="AG21" s="15">
+      <c r="AI21" s="15">
         <v>42.9</v>
       </c>
     </row>
-    <row r="22" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:35" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A22" s="9">
         <v>40178</v>
       </c>
@@ -4156,91 +4351,97 @@
         <v>284</v>
       </c>
       <c r="F22" s="11">
+        <v>6004.47</v>
+      </c>
+      <c r="G22" s="11">
         <v>7020.7611999999999</v>
       </c>
-      <c r="G22" s="12">
+      <c r="H22" s="12">
         <v>211.9194</v>
       </c>
-      <c r="H22" s="11">
+      <c r="I22" s="11">
         <v>5427.7000000000007</v>
       </c>
-      <c r="I22" s="11">
+      <c r="J22" s="11">
         <v>4349.7</v>
       </c>
-      <c r="J22" s="13">
+      <c r="K22" s="13">
         <v>3158</v>
       </c>
-      <c r="K22" s="13">
+      <c r="L22" s="13">
         <v>85</v>
       </c>
-      <c r="L22" s="11">
+      <c r="M22" s="11">
         <v>783.81</v>
       </c>
-      <c r="M22" s="11">
+      <c r="N22" s="23">
+        <v>5830.5</v>
+      </c>
+      <c r="O22" s="11">
         <v>85517.8</v>
       </c>
-      <c r="N22" s="11">
+      <c r="P22" s="11">
         <v>569531</v>
       </c>
-      <c r="O22" s="11">
+      <c r="Q22" s="11">
         <v>692700</v>
       </c>
-      <c r="P22" s="11">
+      <c r="R22" s="11">
         <v>860</v>
       </c>
-      <c r="Q22" s="11">
+      <c r="S22" s="11">
         <v>487</v>
       </c>
-      <c r="R22" s="11">
+      <c r="T22" s="11">
         <v>2799.92</v>
       </c>
-      <c r="S22" s="11">
+      <c r="U22" s="11">
         <v>69243.72</v>
       </c>
-      <c r="T22" s="11">
+      <c r="V22" s="11">
         <v>298399.34000000003</v>
       </c>
-      <c r="U22" s="11">
+      <c r="W22" s="11">
         <v>37321.69</v>
       </c>
-      <c r="V22" s="11">
+      <c r="X22" s="11">
         <v>29814.22</v>
       </c>
-      <c r="W22" s="11">
+      <c r="Y22" s="11">
         <v>135849</v>
       </c>
-      <c r="X22" s="12">
+      <c r="Z22" s="12">
         <v>25.696462400000001</v>
       </c>
-      <c r="Y22" s="13">
+      <c r="AA22" s="13">
         <v>332041.09340000001</v>
       </c>
-      <c r="Z22" s="11">
+      <c r="AB22" s="11">
         <v>20496.092629999999</v>
       </c>
-      <c r="AA22" s="13">
+      <c r="AC22" s="13">
         <v>152451.19260000001</v>
       </c>
-      <c r="AB22" s="16">
+      <c r="AD22" s="16">
         <v>152451.19260000001</v>
       </c>
-      <c r="AC22" s="16">
+      <c r="AE22" s="16">
         <v>133450</v>
       </c>
-      <c r="AD22" s="16">
+      <c r="AF22" s="16">
         <v>345629.2</v>
       </c>
-      <c r="AE22" s="16">
+      <c r="AG22" s="16">
         <v>17174.7</v>
       </c>
-      <c r="AF22" s="16">
+      <c r="AH22" s="16">
         <v>23051.6387</v>
       </c>
-      <c r="AG22" s="15">
+      <c r="AI22" s="15">
         <v>44.4</v>
       </c>
     </row>
-    <row r="23" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:35" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A23" s="9">
         <v>40543</v>
       </c>
@@ -4257,91 +4458,97 @@
         <v>506</v>
       </c>
       <c r="F23" s="11">
+        <v>7074.59</v>
+      </c>
+      <c r="G23" s="11">
         <v>8384.6435999999994</v>
       </c>
-      <c r="G23" s="12">
+      <c r="H23" s="12">
         <v>215.09</v>
       </c>
-      <c r="H23" s="11">
+      <c r="I23" s="11">
         <v>7514</v>
       </c>
-      <c r="I23" s="11">
+      <c r="J23" s="11">
         <v>6966.8</v>
       </c>
-      <c r="J23" s="13">
+      <c r="K23" s="13">
         <v>2761</v>
       </c>
-      <c r="K23" s="13">
+      <c r="L23" s="13">
         <v>222</v>
       </c>
-      <c r="L23" s="11">
+      <c r="M23" s="11">
         <v>1064.58</v>
       </c>
-      <c r="M23" s="11">
+      <c r="N23" s="23">
+        <v>5660.6600000000035</v>
+      </c>
+      <c r="O23" s="11">
         <v>91178.46</v>
       </c>
-      <c r="N23" s="11">
+      <c r="P23" s="11">
         <v>602376</v>
       </c>
-      <c r="O23" s="11">
+      <c r="Q23" s="11">
         <v>718148</v>
       </c>
-      <c r="P23" s="11">
+      <c r="R23" s="11">
         <v>882</v>
       </c>
-      <c r="Q23" s="11">
+      <c r="S23" s="11">
         <v>489</v>
       </c>
-      <c r="R23" s="11">
+      <c r="T23" s="11">
         <v>2855.91</v>
       </c>
-      <c r="S23" s="11">
+      <c r="U23" s="11">
         <v>79627.399999999994</v>
       </c>
-      <c r="T23" s="11">
+      <c r="V23" s="11">
         <v>343407.04</v>
       </c>
-      <c r="U23" s="11">
+      <c r="W23" s="11">
         <v>42305.43</v>
       </c>
-      <c r="V23" s="11">
+      <c r="X23" s="11">
         <v>33253.4</v>
       </c>
-      <c r="W23" s="11">
+      <c r="Y23" s="11">
         <v>162376.4</v>
       </c>
-      <c r="X23" s="12">
+      <c r="Z23" s="12">
         <v>28.9020191</v>
       </c>
-      <c r="Y23" s="13">
+      <c r="AA23" s="13">
         <v>362928.56709999999</v>
       </c>
-      <c r="Z23" s="11">
+      <c r="AB23" s="11">
         <v>22755.07287</v>
       </c>
-      <c r="AA23" s="13">
+      <c r="AC23" s="13">
         <v>167609</v>
       </c>
-      <c r="AB23" s="16">
+      <c r="AD23" s="16">
         <v>167609.02299999999</v>
       </c>
-      <c r="AC23" s="16">
+      <c r="AE23" s="16">
         <v>134091</v>
       </c>
-      <c r="AD23" s="16">
+      <c r="AF23" s="16">
         <v>408903</v>
       </c>
-      <c r="AE23" s="16">
+      <c r="AG23" s="16">
         <v>19109.400000000001</v>
       </c>
-      <c r="AF23" s="16">
+      <c r="AH23" s="16">
         <v>26769.143700000001</v>
       </c>
-      <c r="AG23" s="15">
+      <c r="AI23" s="15">
         <v>44.2</v>
       </c>
     </row>
-    <row r="24" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:35" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A24" s="9">
         <v>40908</v>
       </c>
@@ -4358,91 +4565,97 @@
         <v>684</v>
       </c>
       <c r="F24" s="11">
+        <v>4601.2700000000004</v>
+      </c>
+      <c r="G24" s="11">
         <v>5897.3109700000005</v>
       </c>
-      <c r="G24" s="12">
+      <c r="H24" s="12">
         <v>214</v>
       </c>
-      <c r="H24" s="11">
+      <c r="I24" s="11">
         <v>3348.8999999999996</v>
       </c>
-      <c r="I24" s="11">
+      <c r="J24" s="11">
         <v>2664.4</v>
       </c>
-      <c r="J24" s="13">
+      <c r="K24" s="13">
         <v>2440</v>
       </c>
-      <c r="K24" s="13">
+      <c r="L24" s="13">
         <v>178</v>
       </c>
-      <c r="L24" s="11">
+      <c r="M24" s="11">
         <v>1037.82</v>
       </c>
-      <c r="M24" s="11">
+      <c r="N24" s="23">
+        <v>2071.179999999993</v>
+      </c>
+      <c r="O24" s="11">
         <v>93249.642999999996</v>
       </c>
-      <c r="N24" s="11">
+      <c r="P24" s="11">
         <v>634994</v>
       </c>
-      <c r="O24" s="11">
+      <c r="Q24" s="11">
         <v>752330</v>
       </c>
-      <c r="P24" s="11">
+      <c r="R24" s="11">
         <v>888</v>
       </c>
-      <c r="Q24" s="11">
+      <c r="S24" s="11">
         <v>494</v>
       </c>
-      <c r="R24" s="11">
+      <c r="T24" s="11">
         <v>2908.0600000000004</v>
       </c>
-      <c r="S24" s="11">
+      <c r="U24" s="11">
         <v>88131.12</v>
       </c>
-      <c r="T24" s="11">
+      <c r="V24" s="11">
         <v>374393.65</v>
       </c>
-      <c r="U24" s="11">
+      <c r="W24" s="11">
         <v>44585.78</v>
       </c>
-      <c r="V24" s="11">
+      <c r="X24" s="11">
         <v>38137.300000000003</v>
       </c>
-      <c r="W24" s="11">
+      <c r="Y24" s="11">
         <v>191570.8</v>
       </c>
-      <c r="X24" s="12">
+      <c r="Z24" s="12">
         <v>30.891785469999999</v>
       </c>
-      <c r="Y24" s="13">
+      <c r="AA24" s="13">
         <v>391851.8247</v>
       </c>
-      <c r="Z24" s="11">
+      <c r="AB24" s="11">
         <v>24513.73516</v>
       </c>
-      <c r="AA24" s="13">
+      <c r="AC24" s="13">
         <v>186226.07279999999</v>
       </c>
-      <c r="AB24" s="16">
+      <c r="AD24" s="16">
         <v>186226.07279999999</v>
       </c>
-      <c r="AC24" s="16">
+      <c r="AE24" s="16">
         <v>134735</v>
       </c>
-      <c r="AD24" s="16">
+      <c r="AF24" s="16">
         <v>484123.5</v>
       </c>
-      <c r="AE24" s="16">
+      <c r="AG24" s="16">
         <v>21809.8</v>
       </c>
-      <c r="AF24" s="16">
+      <c r="AH24" s="16">
         <v>29316.658200000002</v>
       </c>
-      <c r="AG24" s="15">
+      <c r="AI24" s="15">
         <v>44.3</v>
       </c>
     </row>
-    <row r="25" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:35" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A25" s="9">
         <v>41274</v>
       </c>
@@ -4459,91 +4672,97 @@
         <v>840</v>
       </c>
       <c r="F25" s="11">
+        <v>5215.4588999999996</v>
+      </c>
+      <c r="G25" s="11">
         <v>6523.6742000000004</v>
       </c>
-      <c r="G25" s="12">
+      <c r="H25" s="12">
         <v>218.38</v>
       </c>
-      <c r="H25" s="11">
+      <c r="I25" s="11">
         <v>4921.2</v>
       </c>
-      <c r="I25" s="11">
+      <c r="J25" s="11">
         <v>4439.7</v>
       </c>
-      <c r="J25" s="13">
+      <c r="K25" s="13">
         <v>3658</v>
       </c>
-      <c r="K25" s="13">
+      <c r="L25" s="13">
         <v>156</v>
       </c>
-      <c r="L25" s="11">
+      <c r="M25" s="11">
         <v>1039.5606</v>
       </c>
-      <c r="M25" s="11">
+      <c r="N25" s="23">
+        <v>4375.8600000000006</v>
+      </c>
+      <c r="O25" s="11">
         <v>97625.498999999996</v>
       </c>
-      <c r="N25" s="11">
+      <c r="P25" s="11">
         <v>652191</v>
       </c>
-      <c r="O25" s="11">
+      <c r="Q25" s="11">
         <v>779989</v>
       </c>
-      <c r="P25" s="11">
+      <c r="R25" s="11">
         <v>880</v>
       </c>
-      <c r="Q25" s="11">
+      <c r="S25" s="11">
         <v>491</v>
       </c>
-      <c r="R25" s="11">
+      <c r="T25" s="11">
         <v>2883.85</v>
       </c>
-      <c r="S25" s="11">
+      <c r="U25" s="11">
         <v>95186.11</v>
       </c>
-      <c r="T25" s="11">
+      <c r="V25" s="11">
         <v>367960</v>
       </c>
-      <c r="U25" s="11">
+      <c r="W25" s="11">
         <v>46492.61</v>
       </c>
-      <c r="V25" s="11">
+      <c r="X25" s="11">
         <v>37867</v>
       </c>
-      <c r="W25" s="11">
+      <c r="Y25" s="11">
         <v>204539.5</v>
       </c>
-      <c r="X25" s="12">
+      <c r="Z25" s="12">
         <v>30.430314769999999</v>
       </c>
-      <c r="Y25" s="13">
+      <c r="AA25" s="13">
         <v>389215.05089999997</v>
       </c>
-      <c r="Z25" s="11">
+      <c r="AB25" s="11">
         <v>24239.372340000002</v>
       </c>
-      <c r="AA25" s="13">
+      <c r="AC25" s="13">
         <v>189336.8511</v>
       </c>
-      <c r="AB25" s="16">
+      <c r="AD25" s="16">
         <v>189336.8511</v>
       </c>
-      <c r="AC25" s="16">
+      <c r="AE25" s="16">
         <v>135404</v>
       </c>
-      <c r="AD25" s="16">
+      <c r="AF25" s="16">
         <v>534123</v>
       </c>
-      <c r="AE25" s="16">
+      <c r="AG25" s="16">
         <v>24564.720000000001</v>
       </c>
-      <c r="AF25" s="16">
+      <c r="AH25" s="16">
         <v>31936.050500000001</v>
       </c>
-      <c r="AG25" s="15">
+      <c r="AI25" s="15">
         <v>45.5</v>
       </c>
     </row>
-    <row r="26" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:35" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A26" s="9">
         <v>41639</v>
       </c>
@@ -4560,91 +4779,97 @@
         <v>1071</v>
       </c>
       <c r="F26" s="11">
+        <v>5336.7807000000003</v>
+      </c>
+      <c r="G26" s="11">
         <v>6843.6148000000003</v>
       </c>
-      <c r="G26" s="12">
+      <c r="H26" s="12">
         <v>218.17</v>
       </c>
-      <c r="H26" s="11">
+      <c r="I26" s="11">
         <v>7042.4</v>
       </c>
-      <c r="I26" s="11">
+      <c r="J26" s="11">
         <v>6016.7</v>
       </c>
-      <c r="J26" s="13">
+      <c r="K26" s="13">
         <v>2026</v>
       </c>
-      <c r="K26" s="13">
+      <c r="L26" s="13">
         <v>231</v>
       </c>
-      <c r="L26" s="11">
+      <c r="M26" s="11">
         <v>1198.4982299999999</v>
       </c>
-      <c r="M26" s="11">
+      <c r="N26" s="23">
+        <v>5519.1000000000058</v>
+      </c>
+      <c r="O26" s="11">
         <v>103144.6</v>
       </c>
-      <c r="N26" s="11">
+      <c r="P26" s="11">
         <v>654473</v>
       </c>
-      <c r="O26" s="11">
+      <c r="Q26" s="11">
         <v>798973</v>
       </c>
-      <c r="P26" s="11">
+      <c r="R26" s="11">
         <v>883</v>
       </c>
-      <c r="Q26" s="11">
+      <c r="S26" s="11">
         <v>493</v>
       </c>
-      <c r="R26" s="11">
+      <c r="T26" s="11">
         <v>2823.8100000000004</v>
       </c>
-      <c r="S26" s="11">
+      <c r="U26" s="11">
         <v>106762.2</v>
       </c>
-      <c r="T26" s="11">
+      <c r="V26" s="11">
         <v>365100</v>
       </c>
-      <c r="U26" s="11">
+      <c r="W26" s="11">
         <v>48040.08</v>
       </c>
-      <c r="V26" s="17">
+      <c r="X26" s="17">
         <v>41777.909999999996</v>
       </c>
-      <c r="W26" s="11">
+      <c r="Y26" s="11">
         <v>217263.9</v>
       </c>
-      <c r="X26" s="12">
+      <c r="Z26" s="12">
         <v>30.364701</v>
       </c>
-      <c r="Y26" s="13">
+      <c r="AA26" s="13">
         <v>396099.25229999999</v>
       </c>
-      <c r="Z26" s="11">
+      <c r="AB26" s="11">
         <v>24012.58913</v>
       </c>
-      <c r="AA26" s="13">
+      <c r="AC26" s="13">
         <v>210596.91649999999</v>
       </c>
-      <c r="AB26" s="16">
+      <c r="AD26" s="16">
         <v>210596.91649999999</v>
       </c>
-      <c r="AC26" s="16">
+      <c r="AE26" s="16">
         <v>136072</v>
       </c>
-      <c r="AD26" s="16">
+      <c r="AF26" s="16">
         <v>588018.80000000005</v>
       </c>
-      <c r="AE26" s="16">
+      <c r="AG26" s="16">
         <v>26955.1</v>
       </c>
-      <c r="AF26" s="16">
+      <c r="AH26" s="16">
         <v>35396.630100000002</v>
       </c>
-      <c r="AG26" s="15">
+      <c r="AI26" s="15">
         <v>46.9</v>
       </c>
     </row>
-    <row r="27" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:35" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A27" s="9">
         <v>42004</v>
       </c>
@@ -4661,91 +4886,97 @@
         <v>1404</v>
       </c>
       <c r="F27" s="11">
+        <v>4647.49</v>
+      </c>
+      <c r="G27" s="11">
         <v>7801.33</v>
       </c>
-      <c r="G27" s="12">
+      <c r="H27" s="12">
         <v>218.17</v>
       </c>
-      <c r="H27" s="18">
+      <c r="I27" s="18">
         <v>7488.3</v>
       </c>
-      <c r="I27" s="18">
+      <c r="J27" s="18">
         <v>6342.7</v>
       </c>
-      <c r="J27" s="17">
+      <c r="K27" s="17">
         <v>2009</v>
       </c>
-      <c r="K27" s="19">
+      <c r="L27" s="19">
         <v>333</v>
       </c>
-      <c r="L27" s="17">
+      <c r="M27" s="17">
         <v>1463.7</v>
       </c>
-      <c r="M27" s="11">
+      <c r="N27" s="23">
+        <v>8676.3999999999942</v>
+      </c>
+      <c r="O27" s="11">
         <v>111821</v>
       </c>
-      <c r="N27" s="11">
+      <c r="P27" s="11">
         <v>618101.07671232882</v>
       </c>
-      <c r="O27" s="11">
+      <c r="Q27" s="11">
         <v>803951.65753424657</v>
       </c>
-      <c r="P27" s="11">
+      <c r="R27" s="11">
         <v>922</v>
       </c>
-      <c r="Q27" s="11">
+      <c r="S27" s="11">
         <v>503</v>
       </c>
-      <c r="R27" s="11">
+      <c r="T27" s="11">
         <v>2751.38</v>
       </c>
-      <c r="S27" s="17">
+      <c r="U27" s="17">
         <v>111917.16</v>
       </c>
-      <c r="T27" s="17">
+      <c r="V27" s="17">
         <v>358500</v>
       </c>
-      <c r="U27" s="17">
+      <c r="W27" s="17">
         <v>49727.479999999996</v>
       </c>
-      <c r="V27" s="17">
+      <c r="X27" s="17">
         <v>41848.549999999996</v>
       </c>
-      <c r="W27" s="11">
+      <c r="Y27" s="11">
         <v>227991</v>
       </c>
-      <c r="X27" s="17">
+      <c r="Z27" s="17">
         <v>28.998255579999999</v>
       </c>
-      <c r="Y27" s="13">
+      <c r="AA27" s="13">
         <v>381171.92060000001</v>
       </c>
-      <c r="Z27" s="17">
+      <c r="AB27" s="17">
         <v>22530.607329999995</v>
       </c>
-      <c r="AA27" s="13">
+      <c r="AC27" s="13">
         <v>235704.40239999999</v>
       </c>
-      <c r="AB27" s="16">
+      <c r="AD27" s="16">
         <v>235704.4</v>
       </c>
-      <c r="AC27" s="16">
+      <c r="AE27" s="16">
         <v>136782</v>
       </c>
-      <c r="AD27" s="16">
+      <c r="AF27" s="16">
         <v>636462.69999999995</v>
       </c>
-      <c r="AE27" s="16">
+      <c r="AG27" s="16">
         <v>28844</v>
       </c>
-      <c r="AF27" s="16">
+      <c r="AH27" s="16">
         <v>39165.800000000003</v>
       </c>
-      <c r="AG27" s="15">
+      <c r="AI27" s="15">
         <v>48.1</v>
       </c>
     </row>
-    <row r="28" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:35" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A28" s="9">
         <v>42369</v>
       </c>
@@ -4761,88 +4992,94 @@
       <c r="E28" s="11">
         <v>1883</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="11">
+        <v>4643.92</v>
+      </c>
+      <c r="G28" s="18">
         <v>8238</v>
       </c>
-      <c r="G28" s="18">
+      <c r="H28" s="18">
         <v>209.03</v>
       </c>
-      <c r="H28" s="18">
+      <c r="I28" s="18">
         <v>5435.3</v>
       </c>
-      <c r="I28" s="18">
+      <c r="J28" s="18">
         <v>5224.2</v>
       </c>
-      <c r="J28" s="17">
+      <c r="K28" s="17">
         <v>1531</v>
       </c>
-      <c r="K28" s="19">
+      <c r="L28" s="19">
         <v>479</v>
       </c>
-      <c r="L28" s="17">
+      <c r="M28" s="17">
         <v>1201.3900000000001</v>
       </c>
-      <c r="M28" s="18">
+      <c r="N28" s="23">
+        <v>9149</v>
+      </c>
+      <c r="O28" s="18">
         <v>120970</v>
       </c>
-      <c r="N28" s="18">
+      <c r="P28" s="18">
         <v>563593</v>
       </c>
-      <c r="O28" s="18">
+      <c r="Q28" s="18">
         <v>795943</v>
       </c>
-      <c r="P28" s="20">
+      <c r="R28" s="20">
         <v>1003</v>
       </c>
-      <c r="Q28" s="20">
+      <c r="S28" s="20">
         <v>505</v>
       </c>
-      <c r="R28" s="20">
+      <c r="T28" s="20">
         <v>2640</v>
       </c>
-      <c r="S28" s="17">
+      <c r="U28" s="17">
         <v>112403.58</v>
       </c>
-      <c r="T28" s="17">
+      <c r="V28" s="17">
         <v>365087</v>
       </c>
-      <c r="U28" s="17">
+      <c r="W28" s="17">
         <v>52403.53</v>
       </c>
-      <c r="V28" s="17">
+      <c r="X28" s="17">
         <v>41734.700000000004</v>
       </c>
-      <c r="W28" s="17">
+      <c r="Y28" s="17">
         <v>228974</v>
       </c>
-      <c r="X28" s="17">
+      <c r="Z28" s="17">
         <v>27.124403999999998</v>
       </c>
-      <c r="Y28" s="13">
+      <c r="AA28" s="13">
         <v>271244</v>
       </c>
-      <c r="Z28" s="17">
+      <c r="AB28" s="17">
         <v>21573.809999999998</v>
       </c>
-      <c r="AA28" s="13">
+      <c r="AC28" s="13">
         <v>253485</v>
       </c>
-      <c r="AB28" s="17">
+      <c r="AD28" s="17">
         <v>253500</v>
       </c>
-      <c r="AC28" s="17">
+      <c r="AE28" s="17">
         <v>137462</v>
       </c>
-      <c r="AD28" s="17">
+      <c r="AF28" s="17">
         <v>676708</v>
       </c>
-      <c r="AE28" s="17">
+      <c r="AG28" s="17">
         <v>31195</v>
       </c>
-      <c r="AF28" s="17">
+      <c r="AH28" s="17">
         <v>43564.73</v>
       </c>
-      <c r="AG28" s="21">
+      <c r="AI28" s="21">
         <v>50.5</v>
       </c>
     </row>

--- a/RailIndexPrj/rawdata_yearly.xlsx
+++ b/RailIndexPrj/rawdata_yearly.xlsx
@@ -1,183 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\newclone\railwayIdx\RailIndexPrj\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7776"/>
   </bookViews>
   <sheets>
     <sheet name="rawdata_yearly" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>WenJing</author>
-  </authors>
-  <commentList>
-    <comment ref="G1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>WenJing:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-来自景气指数扩散指数中规模和设备计算，其他地方没有用到过这个数据</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="W1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>WenJing:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-景气指数中工业增加值用到的2001年的数为109655.1706，跟“数据汇总（货运）”不一样，差很多</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="X1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>WenJing:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-这个数是用于景气指数的规模合成/扩散指数计算的。
-跟28个品类相加的数接近</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Y1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">WenJing:
-自理给的
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Z1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>WenJing:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-跟“数据汇总（货运）”中月度的数据每年加总的一样</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AA1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>WenJing:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-自理给的</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>tm</t>
   </si>
@@ -894,16 +732,24 @@
       <t/>
     </r>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>普铁客运量（万人）</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>ptpassenger_volume</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0000_);[Red]\(0.0000\)"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1072,21 +918,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="8.5"/>
       <name val="Microsoft Sans Serif"/>
       <family val="2"/>
@@ -1116,6 +947,11 @@
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -1572,7 +1408,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
@@ -1580,91 +1416,91 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="26" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="23" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="21" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="26" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="24" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="23" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -1680,15 +1516,15 @@
     <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1747,7 +1583,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1779,10 +1615,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1814,7 +1649,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1990,35 +1824,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AH28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="W3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AA13" sqref="AA13"/>
+      <selection pane="bottomRight" activeCell="AI27" sqref="AI27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="9" width="9" style="6"/>
-    <col min="10" max="10" width="17.75" style="10" customWidth="1"/>
-    <col min="11" max="11" width="23.875" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.77734375" style="10" customWidth="1"/>
+    <col min="11" max="11" width="23.88671875" style="10" bestFit="1" customWidth="1"/>
     <col min="12" max="24" width="9" style="6"/>
-    <col min="25" max="25" width="14.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.44140625" style="10" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="9" style="6"/>
-    <col min="27" max="27" width="17.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.5" style="22" customWidth="1"/>
-    <col min="29" max="29" width="13.125" style="22" customWidth="1"/>
-    <col min="30" max="30" width="12.875" style="22" customWidth="1"/>
-    <col min="31" max="31" width="12.5" style="22" customWidth="1"/>
+    <col min="27" max="27" width="17.77734375" style="10" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.44140625" style="22" customWidth="1"/>
+    <col min="29" max="29" width="13.109375" style="22" customWidth="1"/>
+    <col min="30" max="30" width="12.88671875" style="22" customWidth="1"/>
+    <col min="31" max="31" width="12.44140625" style="22" customWidth="1"/>
     <col min="32" max="32" width="9" style="22"/>
     <col min="33" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:34" s="1" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>59</v>
       </c>
@@ -2118,8 +1952,11 @@
       <c r="AG1" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="AH1" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="2" spans="1:33" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:34" s="1" customFormat="1" ht="24" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -2219,8 +2056,11 @@
       <c r="AG2" s="4" t="s">
         <v>64</v>
       </c>
+      <c r="AH2" s="4" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="3" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:34" s="8" customFormat="1">
       <c r="A3" s="9">
         <v>33238</v>
       </c>
@@ -2320,8 +2160,11 @@
       <c r="AG3" s="15">
         <v>0</v>
       </c>
+      <c r="AH3" s="14">
+        <v>95712</v>
+      </c>
     </row>
-    <row r="4" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:34" s="8" customFormat="1">
       <c r="A4" s="9">
         <v>33603</v>
       </c>
@@ -2421,8 +2264,11 @@
       <c r="AG4" s="15">
         <v>0</v>
       </c>
+      <c r="AH4" s="14">
+        <v>95080</v>
+      </c>
     </row>
-    <row r="5" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:34" s="8" customFormat="1">
       <c r="A5" s="9">
         <v>33969</v>
       </c>
@@ -2522,8 +2368,11 @@
       <c r="AG5" s="15">
         <v>0</v>
       </c>
+      <c r="AH5" s="14">
+        <v>99693</v>
+      </c>
     </row>
-    <row r="6" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:34" s="8" customFormat="1">
       <c r="A6" s="9">
         <v>34334</v>
       </c>
@@ -2623,8 +2472,11 @@
       <c r="AG6" s="15">
         <v>0</v>
       </c>
+      <c r="AH6" s="14">
+        <v>105458</v>
+      </c>
     </row>
-    <row r="7" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:34" s="8" customFormat="1">
       <c r="A7" s="9">
         <v>34699</v>
       </c>
@@ -2724,8 +2576,11 @@
       <c r="AG7" s="15">
         <v>0</v>
       </c>
+      <c r="AH7" s="14">
+        <v>108738</v>
+      </c>
     </row>
-    <row r="8" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:34" s="8" customFormat="1">
       <c r="A8" s="9">
         <v>35064</v>
       </c>
@@ -2825,8 +2680,11 @@
       <c r="AG8" s="15">
         <v>0</v>
       </c>
+      <c r="AH8" s="14">
+        <v>102745</v>
+      </c>
     </row>
-    <row r="9" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:34" s="8" customFormat="1">
       <c r="A9" s="9">
         <v>35430</v>
       </c>
@@ -2926,8 +2784,11 @@
       <c r="AG9" s="15">
         <v>0</v>
       </c>
+      <c r="AH9" s="14">
+        <v>94797</v>
+      </c>
     </row>
-    <row r="10" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:34" s="8" customFormat="1">
       <c r="A10" s="9">
         <v>35795</v>
       </c>
@@ -3027,8 +2888,11 @@
       <c r="AG10" s="15">
         <v>0</v>
       </c>
+      <c r="AH10" s="14">
+        <v>93308</v>
+      </c>
     </row>
-    <row r="11" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:34" s="8" customFormat="1">
       <c r="A11" s="9">
         <v>36160</v>
       </c>
@@ -3128,8 +2992,11 @@
       <c r="AG11" s="15">
         <v>0</v>
       </c>
+      <c r="AH11" s="14">
+        <v>95085</v>
+      </c>
     </row>
-    <row r="12" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:34" s="8" customFormat="1">
       <c r="A12" s="9">
         <v>36525</v>
       </c>
@@ -3229,8 +3096,11 @@
       <c r="AG12" s="15">
         <v>0</v>
       </c>
+      <c r="AH12" s="14">
+        <v>100164</v>
+      </c>
     </row>
-    <row r="13" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:34" s="8" customFormat="1">
       <c r="A13" s="9">
         <v>36891</v>
       </c>
@@ -3330,8 +3200,11 @@
       <c r="AG13" s="15">
         <v>0</v>
       </c>
+      <c r="AH13" s="14">
+        <v>105073</v>
+      </c>
     </row>
-    <row r="14" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:34" s="8" customFormat="1">
       <c r="A14" s="9">
         <v>37256</v>
       </c>
@@ -3431,8 +3304,11 @@
       <c r="AG14" s="15">
         <v>0</v>
       </c>
+      <c r="AH14" s="14">
+        <v>105155</v>
+      </c>
     </row>
-    <row r="15" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:34" s="8" customFormat="1">
       <c r="A15" s="9">
         <v>37621</v>
       </c>
@@ -3532,8 +3408,11 @@
       <c r="AG15" s="15">
         <v>0</v>
       </c>
+      <c r="AH15" s="14">
+        <v>105606</v>
+      </c>
     </row>
-    <row r="16" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:34" s="8" customFormat="1">
       <c r="A16" s="9">
         <v>37986</v>
       </c>
@@ -3633,8 +3512,11 @@
       <c r="AG16" s="15">
         <v>0</v>
       </c>
+      <c r="AH16" s="14">
+        <v>97260</v>
+      </c>
     </row>
-    <row r="17" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:34" s="8" customFormat="1">
       <c r="A17" s="9">
         <v>38352</v>
       </c>
@@ -3734,8 +3616,11 @@
       <c r="AG17" s="15">
         <v>0</v>
       </c>
+      <c r="AH17" s="14">
+        <v>111764</v>
+      </c>
     </row>
-    <row r="18" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:34" s="8" customFormat="1">
       <c r="A18" s="9">
         <v>38717</v>
       </c>
@@ -3835,8 +3720,11 @@
       <c r="AG18" s="15">
         <v>41.4</v>
       </c>
+      <c r="AH18" s="14">
+        <v>115583</v>
+      </c>
     </row>
-    <row r="19" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:34" s="8" customFormat="1">
       <c r="A19" s="9">
         <v>39082</v>
       </c>
@@ -3936,8 +3824,11 @@
       <c r="AG19" s="15">
         <v>41.9</v>
       </c>
+      <c r="AH19" s="14">
+        <v>125656</v>
+      </c>
     </row>
-    <row r="20" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:34" s="8" customFormat="1">
       <c r="A20" s="9">
         <v>39447</v>
       </c>
@@ -4037,8 +3928,11 @@
       <c r="AG20" s="15">
         <v>42.9</v>
       </c>
+      <c r="AH20" s="14">
+        <v>129503.15609999999</v>
+      </c>
     </row>
-    <row r="21" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:34" s="8" customFormat="1">
       <c r="A21" s="9">
         <v>39813</v>
       </c>
@@ -4138,8 +4032,11 @@
       <c r="AG21" s="15">
         <v>42.9</v>
       </c>
+      <c r="AH21" s="14">
+        <v>132678.27480000001</v>
+      </c>
     </row>
-    <row r="22" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:34" s="8" customFormat="1">
       <c r="A22" s="9">
         <v>40178</v>
       </c>
@@ -4239,8 +4136,11 @@
       <c r="AG22" s="15">
         <v>44.4</v>
       </c>
+      <c r="AH22" s="14">
+        <v>129832.9492</v>
+      </c>
     </row>
-    <row r="23" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:34" s="8" customFormat="1">
       <c r="A23" s="9">
         <v>40543</v>
       </c>
@@ -4340,8 +4240,11 @@
       <c r="AG23" s="15">
         <v>44.2</v>
       </c>
+      <c r="AH23" s="14">
+        <v>124875.7824</v>
+      </c>
     </row>
-    <row r="24" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:34" s="8" customFormat="1">
       <c r="A24" s="9">
         <v>40908</v>
       </c>
@@ -4441,8 +4344,11 @@
       <c r="AG24" s="15">
         <v>44.3</v>
       </c>
+      <c r="AH24" s="14">
+        <v>116894.4713</v>
+      </c>
     </row>
-    <row r="25" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:34" s="8" customFormat="1">
       <c r="A25" s="9">
         <v>41274</v>
       </c>
@@ -4542,8 +4448,11 @@
       <c r="AG25" s="15">
         <v>45.5</v>
       </c>
+      <c r="AH25" s="14">
+        <v>99657.549400000004</v>
+      </c>
     </row>
-    <row r="26" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:34" s="8" customFormat="1">
       <c r="A26" s="9">
         <v>41639</v>
       </c>
@@ -4643,8 +4552,11 @@
       <c r="AG26" s="15">
         <v>46.9</v>
       </c>
+      <c r="AH26" s="14">
+        <v>90430.700799999991</v>
+      </c>
     </row>
-    <row r="27" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:34" s="8" customFormat="1">
       <c r="A27" s="9">
         <v>42004</v>
       </c>
@@ -4744,8 +4656,11 @@
       <c r="AG27" s="15">
         <v>48.1</v>
       </c>
+      <c r="AH27" s="14">
+        <v>74513.848299999983</v>
+      </c>
     </row>
-    <row r="28" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:34" s="8" customFormat="1">
       <c r="A28" s="9">
         <v>42369</v>
       </c>
@@ -4844,12 +4759,14 @@
       </c>
       <c r="AG28" s="21">
         <v>50.5</v>
+      </c>
+      <c r="AH28" s="14">
+        <v>41267.762600000016</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/RailIndexPrj/rawdata_yearly.xlsx
+++ b/RailIndexPrj/rawdata_yearly.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\railwayIdx\RailIndexPrj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\原D\桌面\常用文件夹\铁路景气指数\APP\railwayIdx\RailIndexPrj\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
     <author>WenJing</author>
   </authors>
   <commentList>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -50,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0" shapeId="0">
+    <comment ref="W1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -76,7 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0">
+    <comment ref="X1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -103,7 +103,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0" shapeId="0">
+    <comment ref="Y1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -120,7 +120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="0" shapeId="0">
+    <comment ref="Z1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -146,7 +146,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0" shapeId="0">
+    <comment ref="AA1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -177,7 +177,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>tm</t>
   </si>
@@ -896,16 +896,7 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>基本建设投资</t>
-    </r>
+    <t>基本建设投资</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -913,49 +904,18 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>新增营业里程</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>公里</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>mileage_delta</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增营业里程</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>普铁客运量（万人）</t>
+  </si>
+  <si>
+    <t>ptpassenger_volume</t>
   </si>
 </sst>
 </file>
@@ -966,7 +926,7 @@
     <numFmt numFmtId="176" formatCode="0.0000_);[Red]\(0.0000\)"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1179,6 +1139,12 @@
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -1508,7 +1474,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1638,8 +1604,9 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1708,11 +1675,14 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="44">
     <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1739,6 +1709,7 @@
     <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 12" xfId="42"/>
+    <cellStyle name="常规 2" xfId="43"/>
     <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
@@ -2057,37 +2028,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI28"/>
+  <dimension ref="A1:AJ28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N1" sqref="N1:N1048576"/>
+      <selection pane="bottomRight" activeCell="AJ20" sqref="AJ20:AJ27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="9" style="6"/>
-    <col min="7" max="10" width="9" style="6"/>
-    <col min="11" max="11" width="17.75" style="10" customWidth="1"/>
-    <col min="12" max="12" width="23.875" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9" style="6"/>
-    <col min="14" max="14" width="16.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="26" width="9" style="6"/>
-    <col min="27" max="27" width="14.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9" style="6"/>
-    <col min="29" max="29" width="17.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.5" style="22" customWidth="1"/>
-    <col min="31" max="31" width="13.125" style="22" customWidth="1"/>
-    <col min="32" max="32" width="12.875" style="22" customWidth="1"/>
-    <col min="33" max="33" width="12.5" style="22" customWidth="1"/>
-    <col min="34" max="34" width="9" style="22"/>
-    <col min="35" max="16384" width="9" style="6"/>
+    <col min="2" max="9" width="9" style="6"/>
+    <col min="10" max="10" width="17.75" style="10" customWidth="1"/>
+    <col min="11" max="11" width="23.875" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="24" width="9" style="6"/>
+    <col min="25" max="25" width="14.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9" style="6"/>
+    <col min="27" max="27" width="17.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.5" style="22" customWidth="1"/>
+    <col min="29" max="29" width="13.125" style="22" customWidth="1"/>
+    <col min="30" max="30" width="12.875" style="22" customWidth="1"/>
+    <col min="31" max="31" width="12.5" style="22" customWidth="1"/>
+    <col min="32" max="32" width="9" style="22"/>
+    <col min="33" max="34" width="9" style="6"/>
+    <col min="35" max="35" width="11.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="36" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:36" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>59</v>
       </c>
@@ -2104,97 +2074,100 @@
         <v>30</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH1" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA1" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE1" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF1" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG1" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH1" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>58</v>
+      <c r="AI1" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:35" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:36" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -2210,98 +2183,101 @@
       <c r="E2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="X2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE2" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF2" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG2" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AH2" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="AI2" s="4" t="s">
-        <v>64</v>
+      <c r="AI2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:35" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="9">
         <v>33238</v>
       </c>
@@ -2318,97 +2294,100 @@
         <v>0</v>
       </c>
       <c r="F3" s="11">
+        <v>151.43</v>
+      </c>
+      <c r="G3" s="12">
+        <v>0</v>
+      </c>
+      <c r="H3" s="11">
+        <v>529.4</v>
+      </c>
+      <c r="I3" s="11">
+        <v>457.6</v>
+      </c>
+      <c r="J3" s="13">
+        <v>1619</v>
+      </c>
+      <c r="K3" s="13">
+        <v>0</v>
+      </c>
+      <c r="L3" s="11">
+        <v>39.24</v>
+      </c>
+      <c r="M3" s="11">
+        <v>57899.199999999997</v>
+      </c>
+      <c r="N3" s="11">
+        <v>304337</v>
+      </c>
+      <c r="O3" s="11">
+        <v>386981</v>
+      </c>
+      <c r="P3" s="11">
+        <v>486</v>
+      </c>
+      <c r="Q3" s="11">
+        <v>418</v>
+      </c>
+      <c r="R3" s="11">
+        <v>1358</v>
+      </c>
+      <c r="S3" s="11">
+        <v>0</v>
+      </c>
+      <c r="T3" s="11">
+        <v>0</v>
+      </c>
+      <c r="U3" s="11">
+        <v>0</v>
+      </c>
+      <c r="V3" s="11">
+        <v>0</v>
+      </c>
+      <c r="W3" s="11">
+        <v>6840.6</v>
+      </c>
+      <c r="X3" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="13">
+        <v>150681</v>
+      </c>
+      <c r="Z3" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="13">
+        <v>95712</v>
+      </c>
+      <c r="AB3" s="14">
+        <v>95712</v>
+      </c>
+      <c r="AC3" s="14">
+        <v>114333</v>
+      </c>
+      <c r="AD3" s="14">
+        <v>18774.3</v>
+      </c>
+      <c r="AE3" s="14">
+        <v>1510.2</v>
+      </c>
+      <c r="AF3" s="14">
+        <v>1660</v>
+      </c>
+      <c r="AG3" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="8">
         <v>76.180000000000007</v>
       </c>
-      <c r="G3" s="11">
-        <v>151.43</v>
-      </c>
-      <c r="H3" s="12">
-        <v>0</v>
-      </c>
-      <c r="I3" s="11">
-        <v>529.4</v>
-      </c>
-      <c r="J3" s="11">
-        <v>457.6</v>
-      </c>
-      <c r="K3" s="13">
-        <v>1619</v>
-      </c>
-      <c r="L3" s="13">
-        <v>0</v>
-      </c>
-      <c r="M3" s="11">
-        <v>39.24</v>
-      </c>
-      <c r="N3" s="11">
-        <v>0</v>
-      </c>
-      <c r="O3" s="11">
-        <v>57899.199999999997</v>
-      </c>
-      <c r="P3" s="11">
-        <v>304337</v>
-      </c>
-      <c r="Q3" s="11">
-        <v>386981</v>
-      </c>
-      <c r="R3" s="11">
-        <v>486</v>
-      </c>
-      <c r="S3" s="11">
-        <v>418</v>
-      </c>
-      <c r="T3" s="11">
-        <v>1358</v>
-      </c>
-      <c r="U3" s="11">
-        <v>0</v>
-      </c>
-      <c r="V3" s="11">
-        <v>0</v>
-      </c>
-      <c r="W3" s="11">
-        <v>0</v>
-      </c>
-      <c r="X3" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="11">
-        <v>6840.6</v>
-      </c>
-      <c r="Z3" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="13">
-        <v>150681</v>
-      </c>
-      <c r="AB3" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="13">
+      <c r="AI3" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="8">
         <v>95712</v>
       </c>
-      <c r="AD3" s="14">
-        <v>95712</v>
-      </c>
-      <c r="AE3" s="14">
-        <v>114333</v>
-      </c>
-      <c r="AF3" s="14">
-        <v>18774.3</v>
-      </c>
-      <c r="AG3" s="14">
-        <v>1510.2</v>
-      </c>
-      <c r="AH3" s="14">
-        <v>1660</v>
-      </c>
-      <c r="AI3" s="15">
-        <v>0</v>
-      </c>
     </row>
-    <row r="4" spans="1:35" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="9">
         <v>33603</v>
       </c>
@@ -2425,97 +2404,100 @@
         <v>0</v>
       </c>
       <c r="F4" s="11">
+        <v>172.57999999999998</v>
+      </c>
+      <c r="G4" s="12">
+        <v>0</v>
+      </c>
+      <c r="H4" s="11">
+        <v>1029.3999999999999</v>
+      </c>
+      <c r="I4" s="11">
+        <v>528.9</v>
+      </c>
+      <c r="J4" s="13">
+        <v>1654</v>
+      </c>
+      <c r="K4" s="13">
+        <v>0</v>
+      </c>
+      <c r="L4" s="11">
+        <v>40.33</v>
+      </c>
+      <c r="M4" s="11">
+        <v>57826</v>
+      </c>
+      <c r="N4" s="11">
+        <v>315363</v>
+      </c>
+      <c r="O4" s="11">
+        <v>392206</v>
+      </c>
+      <c r="P4" s="11">
+        <v>483</v>
+      </c>
+      <c r="Q4" s="11">
+        <v>419</v>
+      </c>
+      <c r="R4" s="11">
+        <v>1385</v>
+      </c>
+      <c r="S4" s="11">
+        <v>0</v>
+      </c>
+      <c r="T4" s="11">
+        <v>0</v>
+      </c>
+      <c r="U4" s="11">
+        <v>0</v>
+      </c>
+      <c r="V4" s="11">
+        <v>0</v>
+      </c>
+      <c r="W4" s="11">
+        <v>8066.5</v>
+      </c>
+      <c r="X4" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="13">
+        <v>152893</v>
+      </c>
+      <c r="Z4" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="13">
+        <v>95080</v>
+      </c>
+      <c r="AB4" s="14">
+        <v>95080</v>
+      </c>
+      <c r="AC4" s="14">
+        <v>115823</v>
+      </c>
+      <c r="AD4" s="14">
+        <v>21895.5</v>
+      </c>
+      <c r="AE4" s="14">
+        <v>1700.6</v>
+      </c>
+      <c r="AF4" s="14">
+        <v>2178</v>
+      </c>
+      <c r="AG4" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="8">
         <v>91.11</v>
       </c>
-      <c r="G4" s="11">
-        <v>172.57999999999998</v>
-      </c>
-      <c r="H4" s="12">
-        <v>0</v>
-      </c>
-      <c r="I4" s="11">
-        <v>1029.3999999999999</v>
-      </c>
-      <c r="J4" s="11">
-        <v>528.9</v>
-      </c>
-      <c r="K4" s="13">
-        <v>1654</v>
-      </c>
-      <c r="L4" s="13">
-        <v>0</v>
-      </c>
-      <c r="M4" s="11">
-        <v>40.33</v>
-      </c>
-      <c r="N4" s="23">
+      <c r="AI4" s="24">
         <v>-73.19999999999709</v>
       </c>
-      <c r="O4" s="11">
-        <v>57826</v>
-      </c>
-      <c r="P4" s="11">
-        <v>315363</v>
-      </c>
-      <c r="Q4" s="11">
-        <v>392206</v>
-      </c>
-      <c r="R4" s="11">
-        <v>483</v>
-      </c>
-      <c r="S4" s="11">
-        <v>419</v>
-      </c>
-      <c r="T4" s="11">
-        <v>1385</v>
-      </c>
-      <c r="U4" s="11">
-        <v>0</v>
-      </c>
-      <c r="V4" s="11">
-        <v>0</v>
-      </c>
-      <c r="W4" s="11">
-        <v>0</v>
-      </c>
-      <c r="X4" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="11">
-        <v>8066.5</v>
-      </c>
-      <c r="Z4" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="13">
-        <v>152893</v>
-      </c>
-      <c r="AB4" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="13">
+      <c r="AJ4" s="8">
         <v>95080</v>
       </c>
-      <c r="AD4" s="14">
-        <v>95080</v>
-      </c>
-      <c r="AE4" s="14">
-        <v>115823</v>
-      </c>
-      <c r="AF4" s="14">
-        <v>21895.5</v>
-      </c>
-      <c r="AG4" s="14">
-        <v>1700.6</v>
-      </c>
-      <c r="AH4" s="14">
-        <v>2178</v>
-      </c>
-      <c r="AI4" s="15">
-        <v>0</v>
-      </c>
     </row>
-    <row r="5" spans="1:35" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="9">
         <v>33969</v>
       </c>
@@ -2532,97 +2514,100 @@
         <v>0</v>
       </c>
       <c r="F5" s="11">
+        <v>233.97</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0</v>
+      </c>
+      <c r="H5" s="11">
+        <v>1017.3000000000001</v>
+      </c>
+      <c r="I5" s="11">
+        <v>350.7</v>
+      </c>
+      <c r="J5" s="13">
+        <v>1562</v>
+      </c>
+      <c r="K5" s="13">
+        <v>0</v>
+      </c>
+      <c r="L5" s="11">
+        <v>42.43</v>
+      </c>
+      <c r="M5" s="11">
+        <v>58075.9</v>
+      </c>
+      <c r="N5" s="11">
+        <v>317964</v>
+      </c>
+      <c r="O5" s="11">
+        <v>399683</v>
+      </c>
+      <c r="P5" s="11">
+        <v>484</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>422</v>
+      </c>
+      <c r="R5" s="11">
+        <v>1426</v>
+      </c>
+      <c r="S5" s="11">
+        <v>0</v>
+      </c>
+      <c r="T5" s="11">
+        <v>0</v>
+      </c>
+      <c r="U5" s="11">
+        <v>0</v>
+      </c>
+      <c r="V5" s="11">
+        <v>0</v>
+      </c>
+      <c r="W5" s="11">
+        <v>10258.4</v>
+      </c>
+      <c r="X5" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="13">
+        <v>157627</v>
+      </c>
+      <c r="Z5" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="13">
+        <v>99693</v>
+      </c>
+      <c r="AB5" s="14">
+        <v>99693</v>
+      </c>
+      <c r="AC5" s="14">
+        <v>117171</v>
+      </c>
+      <c r="AD5" s="14">
+        <v>27068.3</v>
+      </c>
+      <c r="AE5" s="14">
+        <v>2026.6</v>
+      </c>
+      <c r="AF5" s="14">
+        <v>2886</v>
+      </c>
+      <c r="AG5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="8">
         <v>126.13</v>
       </c>
-      <c r="G5" s="11">
-        <v>233.97</v>
-      </c>
-      <c r="H5" s="12">
-        <v>0</v>
-      </c>
-      <c r="I5" s="11">
-        <v>1017.3000000000001</v>
-      </c>
-      <c r="J5" s="11">
-        <v>350.7</v>
-      </c>
-      <c r="K5" s="13">
-        <v>1562</v>
-      </c>
-      <c r="L5" s="13">
-        <v>0</v>
-      </c>
-      <c r="M5" s="11">
-        <v>42.43</v>
-      </c>
-      <c r="N5" s="23">
+      <c r="AI5" s="24">
         <v>249.90000000000146</v>
       </c>
-      <c r="O5" s="11">
-        <v>58075.9</v>
-      </c>
-      <c r="P5" s="11">
-        <v>317964</v>
-      </c>
-      <c r="Q5" s="11">
-        <v>399683</v>
-      </c>
-      <c r="R5" s="11">
-        <v>484</v>
-      </c>
-      <c r="S5" s="11">
-        <v>422</v>
-      </c>
-      <c r="T5" s="11">
-        <v>1426</v>
-      </c>
-      <c r="U5" s="11">
-        <v>0</v>
-      </c>
-      <c r="V5" s="11">
-        <v>0</v>
-      </c>
-      <c r="W5" s="11">
-        <v>0</v>
-      </c>
-      <c r="X5" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="11">
-        <v>10258.4</v>
-      </c>
-      <c r="Z5" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="13">
-        <v>157627</v>
-      </c>
-      <c r="AB5" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="13">
+      <c r="AJ5" s="8">
         <v>99693</v>
       </c>
-      <c r="AD5" s="14">
-        <v>99693</v>
-      </c>
-      <c r="AE5" s="14">
-        <v>117171</v>
-      </c>
-      <c r="AF5" s="14">
-        <v>27068.3</v>
-      </c>
-      <c r="AG5" s="14">
-        <v>2026.6</v>
-      </c>
-      <c r="AH5" s="14">
-        <v>2886</v>
-      </c>
-      <c r="AI5" s="15">
-        <v>0</v>
-      </c>
     </row>
-    <row r="6" spans="1:35" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <v>34334</v>
       </c>
@@ -2639,97 +2624,100 @@
         <v>0</v>
       </c>
       <c r="F6" s="11">
+        <v>462.21</v>
+      </c>
+      <c r="G6" s="12">
+        <v>0</v>
+      </c>
+      <c r="H6" s="11">
+        <v>1563.4</v>
+      </c>
+      <c r="I6" s="11">
+        <v>1293.0999999999999</v>
+      </c>
+      <c r="J6" s="13">
+        <v>1732</v>
+      </c>
+      <c r="K6" s="13">
+        <v>0</v>
+      </c>
+      <c r="L6" s="11">
+        <v>79.319999999999993</v>
+      </c>
+      <c r="M6" s="11">
+        <v>58602.5</v>
+      </c>
+      <c r="N6" s="11">
+        <v>328206</v>
+      </c>
+      <c r="O6" s="11">
+        <v>417950</v>
+      </c>
+      <c r="P6" s="11">
+        <v>439</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>420</v>
+      </c>
+      <c r="R6" s="11">
+        <v>1472</v>
+      </c>
+      <c r="S6" s="11">
+        <v>0</v>
+      </c>
+      <c r="T6" s="11">
+        <v>0</v>
+      </c>
+      <c r="U6" s="11">
+        <v>0</v>
+      </c>
+      <c r="V6" s="11">
+        <v>0</v>
+      </c>
+      <c r="W6" s="11">
+        <v>14151.9</v>
+      </c>
+      <c r="X6" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="13">
+        <v>162663</v>
+      </c>
+      <c r="Z6" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="13">
+        <v>105458</v>
+      </c>
+      <c r="AB6" s="14">
+        <v>105458</v>
+      </c>
+      <c r="AC6" s="14">
+        <v>118517</v>
+      </c>
+      <c r="AD6" s="14">
+        <v>35524.300000000003</v>
+      </c>
+      <c r="AE6" s="14">
+        <v>2577.4</v>
+      </c>
+      <c r="AF6" s="14">
+        <v>3383</v>
+      </c>
+      <c r="AG6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="8">
         <v>279.69</v>
       </c>
-      <c r="G6" s="11">
-        <v>462.21</v>
-      </c>
-      <c r="H6" s="12">
-        <v>0</v>
-      </c>
-      <c r="I6" s="11">
-        <v>1563.4</v>
-      </c>
-      <c r="J6" s="11">
-        <v>1293.0999999999999</v>
-      </c>
-      <c r="K6" s="13">
-        <v>1732</v>
-      </c>
-      <c r="L6" s="13">
-        <v>0</v>
-      </c>
-      <c r="M6" s="11">
-        <v>79.319999999999993</v>
-      </c>
-      <c r="N6" s="23">
+      <c r="AI6" s="24">
         <v>526.59999999999854</v>
       </c>
-      <c r="O6" s="11">
-        <v>58602.5</v>
-      </c>
-      <c r="P6" s="11">
-        <v>328206</v>
-      </c>
-      <c r="Q6" s="11">
-        <v>417950</v>
-      </c>
-      <c r="R6" s="11">
-        <v>439</v>
-      </c>
-      <c r="S6" s="11">
-        <v>420</v>
-      </c>
-      <c r="T6" s="11">
-        <v>1472</v>
-      </c>
-      <c r="U6" s="11">
-        <v>0</v>
-      </c>
-      <c r="V6" s="11">
-        <v>0</v>
-      </c>
-      <c r="W6" s="11">
-        <v>0</v>
-      </c>
-      <c r="X6" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="11">
-        <v>14151.9</v>
-      </c>
-      <c r="Z6" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="13">
-        <v>162663</v>
-      </c>
-      <c r="AB6" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="13">
+      <c r="AJ6" s="8">
         <v>105458</v>
       </c>
-      <c r="AD6" s="14">
-        <v>105458</v>
-      </c>
-      <c r="AE6" s="14">
-        <v>118517</v>
-      </c>
-      <c r="AF6" s="14">
-        <v>35524.300000000003</v>
-      </c>
-      <c r="AG6" s="14">
-        <v>2577.4</v>
-      </c>
-      <c r="AH6" s="14">
-        <v>3383</v>
-      </c>
-      <c r="AI6" s="15">
-        <v>0</v>
-      </c>
     </row>
-    <row r="7" spans="1:35" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9">
         <v>34699</v>
       </c>
@@ -2746,97 +2734,100 @@
         <v>0</v>
       </c>
       <c r="F7" s="11">
+        <v>575.76</v>
+      </c>
+      <c r="G7" s="12">
+        <v>0</v>
+      </c>
+      <c r="H7" s="11">
+        <v>1643</v>
+      </c>
+      <c r="I7" s="11">
+        <v>1926.8</v>
+      </c>
+      <c r="J7" s="13">
+        <v>2115</v>
+      </c>
+      <c r="K7" s="13">
+        <v>0</v>
+      </c>
+      <c r="L7" s="11">
+        <v>105.59</v>
+      </c>
+      <c r="M7" s="11">
+        <v>59029.599999999999</v>
+      </c>
+      <c r="N7" s="11">
+        <v>349152</v>
+      </c>
+      <c r="O7" s="11">
+        <v>446052</v>
+      </c>
+      <c r="P7" s="11">
+        <v>494</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>421</v>
+      </c>
+      <c r="R7" s="11">
+        <v>1512</v>
+      </c>
+      <c r="S7" s="11">
+        <v>0</v>
+      </c>
+      <c r="T7" s="11">
+        <v>0</v>
+      </c>
+      <c r="U7" s="11">
+        <v>0</v>
+      </c>
+      <c r="V7" s="11">
+        <v>0</v>
+      </c>
+      <c r="W7" s="11">
+        <v>19431.2</v>
+      </c>
+      <c r="X7" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="13">
+        <v>163093</v>
+      </c>
+      <c r="Z7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="13">
+        <v>108738</v>
+      </c>
+      <c r="AB7" s="14">
+        <v>108738</v>
+      </c>
+      <c r="AC7" s="14">
+        <v>119850</v>
+      </c>
+      <c r="AD7" s="14">
+        <v>48459.6</v>
+      </c>
+      <c r="AE7" s="14">
+        <v>3496.2</v>
+      </c>
+      <c r="AF7" s="14">
+        <v>4039</v>
+      </c>
+      <c r="AG7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="8">
         <v>374.08</v>
       </c>
-      <c r="G7" s="11">
-        <v>575.76</v>
-      </c>
-      <c r="H7" s="12">
-        <v>0</v>
-      </c>
-      <c r="I7" s="11">
-        <v>1643</v>
-      </c>
-      <c r="J7" s="11">
-        <v>1926.8</v>
-      </c>
-      <c r="K7" s="13">
-        <v>2115</v>
-      </c>
-      <c r="L7" s="13">
-        <v>0</v>
-      </c>
-      <c r="M7" s="11">
-        <v>105.59</v>
-      </c>
-      <c r="N7" s="23">
+      <c r="AI7" s="24">
         <v>427.09999999999854</v>
       </c>
-      <c r="O7" s="11">
-        <v>59029.599999999999</v>
-      </c>
-      <c r="P7" s="11">
-        <v>349152</v>
-      </c>
-      <c r="Q7" s="11">
-        <v>446052</v>
-      </c>
-      <c r="R7" s="11">
-        <v>494</v>
-      </c>
-      <c r="S7" s="11">
-        <v>421</v>
-      </c>
-      <c r="T7" s="11">
-        <v>1512</v>
-      </c>
-      <c r="U7" s="11">
-        <v>0</v>
-      </c>
-      <c r="V7" s="11">
-        <v>0</v>
-      </c>
-      <c r="W7" s="11">
-        <v>0</v>
-      </c>
-      <c r="X7" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="11">
-        <v>19431.2</v>
-      </c>
-      <c r="Z7" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="13">
-        <v>163093</v>
-      </c>
-      <c r="AB7" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="13">
+      <c r="AJ7" s="8">
         <v>108738</v>
       </c>
-      <c r="AD7" s="14">
-        <v>108738</v>
-      </c>
-      <c r="AE7" s="14">
-        <v>119850</v>
-      </c>
-      <c r="AF7" s="14">
-        <v>48459.6</v>
-      </c>
-      <c r="AG7" s="14">
-        <v>3496.2</v>
-      </c>
-      <c r="AH7" s="14">
-        <v>4039</v>
-      </c>
-      <c r="AI7" s="15">
-        <v>0</v>
-      </c>
     </row>
-    <row r="8" spans="1:35" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="9">
         <v>35064</v>
       </c>
@@ -2853,97 +2844,100 @@
         <v>0</v>
       </c>
       <c r="F8" s="11">
+        <v>580.72</v>
+      </c>
+      <c r="G8" s="12">
+        <v>0</v>
+      </c>
+      <c r="H8" s="11">
+        <v>1714.3</v>
+      </c>
+      <c r="I8" s="11">
+        <v>1068.9000000000001</v>
+      </c>
+      <c r="J8" s="13">
+        <v>2047</v>
+      </c>
+      <c r="K8" s="13">
+        <v>0</v>
+      </c>
+      <c r="L8" s="11">
+        <v>107.17</v>
+      </c>
+      <c r="M8" s="11">
+        <v>62388.800000000003</v>
+      </c>
+      <c r="N8" s="11">
+        <v>354000</v>
+      </c>
+      <c r="O8" s="11">
+        <v>455413</v>
+      </c>
+      <c r="P8" s="11">
+        <v>496</v>
+      </c>
+      <c r="Q8" s="11">
+        <v>424</v>
+      </c>
+      <c r="R8" s="11">
+        <v>1544.05</v>
+      </c>
+      <c r="S8" s="11">
+        <v>0</v>
+      </c>
+      <c r="T8" s="11">
+        <v>0</v>
+      </c>
+      <c r="U8" s="11">
+        <v>0</v>
+      </c>
+      <c r="V8" s="11">
+        <v>0</v>
+      </c>
+      <c r="W8" s="11">
+        <v>24887.200000000001</v>
+      </c>
+      <c r="X8" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="13">
+        <v>165855</v>
+      </c>
+      <c r="Z8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="13">
+        <v>102745</v>
+      </c>
+      <c r="AB8" s="14">
+        <v>102745</v>
+      </c>
+      <c r="AC8" s="14">
+        <v>121121</v>
+      </c>
+      <c r="AD8" s="14">
+        <v>61129.8</v>
+      </c>
+      <c r="AE8" s="14">
+        <v>4283</v>
+      </c>
+      <c r="AF8" s="14">
+        <v>5117</v>
+      </c>
+      <c r="AG8" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="8">
         <v>373.74</v>
       </c>
-      <c r="G8" s="11">
-        <v>580.72</v>
-      </c>
-      <c r="H8" s="12">
-        <v>0</v>
-      </c>
-      <c r="I8" s="11">
-        <v>1714.3</v>
-      </c>
-      <c r="J8" s="11">
-        <v>1068.9000000000001</v>
-      </c>
-      <c r="K8" s="13">
-        <v>2047</v>
-      </c>
-      <c r="L8" s="13">
-        <v>0</v>
-      </c>
-      <c r="M8" s="11">
-        <v>107.17</v>
-      </c>
-      <c r="N8" s="23">
+      <c r="AI8" s="24">
         <v>3359.2000000000044</v>
       </c>
-      <c r="O8" s="11">
-        <v>62388.800000000003</v>
-      </c>
-      <c r="P8" s="11">
-        <v>354000</v>
-      </c>
-      <c r="Q8" s="11">
-        <v>455413</v>
-      </c>
-      <c r="R8" s="11">
-        <v>496</v>
-      </c>
-      <c r="S8" s="11">
-        <v>424</v>
-      </c>
-      <c r="T8" s="11">
-        <v>1544.05</v>
-      </c>
-      <c r="U8" s="11">
-        <v>0</v>
-      </c>
-      <c r="V8" s="11">
-        <v>0</v>
-      </c>
-      <c r="W8" s="11">
-        <v>0</v>
-      </c>
-      <c r="X8" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="11">
-        <v>24887.200000000001</v>
-      </c>
-      <c r="Z8" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="13">
-        <v>165855</v>
-      </c>
-      <c r="AB8" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="13">
+      <c r="AJ8" s="8">
         <v>102745</v>
       </c>
-      <c r="AD8" s="14">
-        <v>102745</v>
-      </c>
-      <c r="AE8" s="14">
-        <v>121121</v>
-      </c>
-      <c r="AF8" s="14">
-        <v>61129.8</v>
-      </c>
-      <c r="AG8" s="14">
-        <v>4283</v>
-      </c>
-      <c r="AH8" s="14">
-        <v>5117</v>
-      </c>
-      <c r="AI8" s="15">
-        <v>0</v>
-      </c>
     </row>
-    <row r="9" spans="1:35" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="9">
         <v>35430</v>
       </c>
@@ -2960,97 +2954,100 @@
         <v>0</v>
       </c>
       <c r="F9" s="11">
+        <v>620.29</v>
+      </c>
+      <c r="G9" s="12">
+        <v>0</v>
+      </c>
+      <c r="H9" s="11">
+        <v>1128.2</v>
+      </c>
+      <c r="I9" s="11">
+        <v>474.9</v>
+      </c>
+      <c r="J9" s="13">
+        <v>2459</v>
+      </c>
+      <c r="K9" s="13">
+        <v>0</v>
+      </c>
+      <c r="L9" s="11">
+        <v>122.17</v>
+      </c>
+      <c r="M9" s="11">
+        <v>64931.4</v>
+      </c>
+      <c r="N9" s="11">
+        <v>353476</v>
+      </c>
+      <c r="O9" s="11">
+        <v>468683</v>
+      </c>
+      <c r="P9" s="11">
+        <v>491</v>
+      </c>
+      <c r="Q9" s="11">
+        <v>422</v>
+      </c>
+      <c r="R9" s="11">
+        <v>1554.75</v>
+      </c>
+      <c r="S9" s="11">
+        <v>0</v>
+      </c>
+      <c r="T9" s="11">
+        <v>0</v>
+      </c>
+      <c r="U9" s="11">
+        <v>0</v>
+      </c>
+      <c r="V9" s="11">
+        <v>0</v>
+      </c>
+      <c r="W9" s="11">
+        <v>29372.7</v>
+      </c>
+      <c r="X9" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="13">
+        <v>170915</v>
+      </c>
+      <c r="Z9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="13">
+        <v>94797</v>
+      </c>
+      <c r="AB9" s="14">
+        <v>94797</v>
+      </c>
+      <c r="AC9" s="14">
+        <v>122389</v>
+      </c>
+      <c r="AD9" s="14">
+        <v>71572.3</v>
+      </c>
+      <c r="AE9" s="14">
+        <v>4838.8999999999996</v>
+      </c>
+      <c r="AF9" s="14">
+        <v>5555</v>
+      </c>
+      <c r="AG9" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="8">
         <v>375.27</v>
       </c>
-      <c r="G9" s="11">
-        <v>620.29</v>
-      </c>
-      <c r="H9" s="12">
-        <v>0</v>
-      </c>
-      <c r="I9" s="11">
-        <v>1128.2</v>
-      </c>
-      <c r="J9" s="11">
-        <v>474.9</v>
-      </c>
-      <c r="K9" s="13">
-        <v>2459</v>
-      </c>
-      <c r="L9" s="13">
-        <v>0</v>
-      </c>
-      <c r="M9" s="11">
-        <v>122.17</v>
-      </c>
-      <c r="N9" s="23">
+      <c r="AI9" s="24">
         <v>2542.5999999999985</v>
       </c>
-      <c r="O9" s="11">
-        <v>64931.4</v>
-      </c>
-      <c r="P9" s="11">
-        <v>353476</v>
-      </c>
-      <c r="Q9" s="11">
-        <v>468683</v>
-      </c>
-      <c r="R9" s="11">
-        <v>491</v>
-      </c>
-      <c r="S9" s="11">
-        <v>422</v>
-      </c>
-      <c r="T9" s="11">
-        <v>1554.75</v>
-      </c>
-      <c r="U9" s="11">
-        <v>0</v>
-      </c>
-      <c r="V9" s="11">
-        <v>0</v>
-      </c>
-      <c r="W9" s="11">
-        <v>0</v>
-      </c>
-      <c r="X9" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="11">
-        <v>29372.7</v>
-      </c>
-      <c r="Z9" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="13">
-        <v>170915</v>
-      </c>
-      <c r="AB9" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="13">
+      <c r="AJ9" s="8">
         <v>94797</v>
       </c>
-      <c r="AD9" s="14">
-        <v>94797</v>
-      </c>
-      <c r="AE9" s="14">
-        <v>122389</v>
-      </c>
-      <c r="AF9" s="14">
-        <v>71572.3</v>
-      </c>
-      <c r="AG9" s="14">
-        <v>4838.8999999999996</v>
-      </c>
-      <c r="AH9" s="14">
-        <v>5555</v>
-      </c>
-      <c r="AI9" s="15">
-        <v>0</v>
-      </c>
     </row>
-    <row r="10" spans="1:35" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="9">
         <v>35795</v>
       </c>
@@ -3067,97 +3064,100 @@
         <v>0</v>
       </c>
       <c r="F10" s="11">
+        <v>663.93000000000006</v>
+      </c>
+      <c r="G10" s="12">
+        <v>0</v>
+      </c>
+      <c r="H10" s="11">
+        <v>1015.4000000000001</v>
+      </c>
+      <c r="I10" s="11">
+        <v>496.4</v>
+      </c>
+      <c r="J10" s="13">
+        <v>2036</v>
+      </c>
+      <c r="K10" s="13">
+        <v>0</v>
+      </c>
+      <c r="L10" s="11">
+        <v>125.23</v>
+      </c>
+      <c r="M10" s="11">
+        <v>65969.5</v>
+      </c>
+      <c r="N10" s="11">
+        <v>361070</v>
+      </c>
+      <c r="O10" s="11">
+        <v>482873</v>
+      </c>
+      <c r="P10" s="11">
+        <v>504</v>
+      </c>
+      <c r="Q10" s="11">
+        <v>428</v>
+      </c>
+      <c r="R10" s="11">
+        <v>1600.4</v>
+      </c>
+      <c r="S10" s="11">
+        <v>0</v>
+      </c>
+      <c r="T10" s="11">
+        <v>0</v>
+      </c>
+      <c r="U10" s="11">
+        <v>0</v>
+      </c>
+      <c r="V10" s="11">
+        <v>0</v>
+      </c>
+      <c r="W10" s="11">
+        <v>32837.699999999997</v>
+      </c>
+      <c r="X10" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="13">
+        <v>172019</v>
+      </c>
+      <c r="Z10" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="13">
+        <v>93308</v>
+      </c>
+      <c r="AB10" s="14">
+        <v>93308</v>
+      </c>
+      <c r="AC10" s="14">
+        <v>123626</v>
+      </c>
+      <c r="AD10" s="14">
+        <v>79429.5</v>
+      </c>
+      <c r="AE10" s="14">
+        <v>5160.3</v>
+      </c>
+      <c r="AF10" s="14">
+        <v>5630</v>
+      </c>
+      <c r="AG10" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="8">
         <v>396.09</v>
       </c>
-      <c r="G10" s="11">
-        <v>663.93000000000006</v>
-      </c>
-      <c r="H10" s="12">
-        <v>0</v>
-      </c>
-      <c r="I10" s="11">
-        <v>1015.4000000000001</v>
-      </c>
-      <c r="J10" s="11">
-        <v>496.4</v>
-      </c>
-      <c r="K10" s="13">
-        <v>2036</v>
-      </c>
-      <c r="L10" s="13">
-        <v>0</v>
-      </c>
-      <c r="M10" s="11">
-        <v>125.23</v>
-      </c>
-      <c r="N10" s="23">
+      <c r="AI10" s="24">
         <v>1038.0999999999985</v>
       </c>
-      <c r="O10" s="11">
-        <v>65969.5</v>
-      </c>
-      <c r="P10" s="11">
-        <v>361070</v>
-      </c>
-      <c r="Q10" s="11">
-        <v>482873</v>
-      </c>
-      <c r="R10" s="11">
-        <v>504</v>
-      </c>
-      <c r="S10" s="11">
-        <v>428</v>
-      </c>
-      <c r="T10" s="11">
-        <v>1600.4</v>
-      </c>
-      <c r="U10" s="11">
-        <v>0</v>
-      </c>
-      <c r="V10" s="11">
-        <v>0</v>
-      </c>
-      <c r="W10" s="11">
-        <v>0</v>
-      </c>
-      <c r="X10" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="11">
-        <v>32837.699999999997</v>
-      </c>
-      <c r="Z10" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="13">
-        <v>172019</v>
-      </c>
-      <c r="AB10" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="13">
+      <c r="AJ10" s="8">
         <v>93308</v>
       </c>
-      <c r="AD10" s="14">
-        <v>93308</v>
-      </c>
-      <c r="AE10" s="14">
-        <v>123626</v>
-      </c>
-      <c r="AF10" s="14">
-        <v>79429.5</v>
-      </c>
-      <c r="AG10" s="14">
-        <v>5160.3</v>
-      </c>
-      <c r="AH10" s="14">
-        <v>5630</v>
-      </c>
-      <c r="AI10" s="15">
-        <v>0</v>
-      </c>
     </row>
-    <row r="11" spans="1:35" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9">
         <v>36160</v>
       </c>
@@ -3174,97 +3174,100 @@
         <v>0</v>
       </c>
       <c r="F11" s="11">
+        <v>839.68999999999994</v>
+      </c>
+      <c r="G11" s="12">
+        <v>0</v>
+      </c>
+      <c r="H11" s="11">
+        <v>1091.5999999999999</v>
+      </c>
+      <c r="I11" s="11">
+        <v>1208.3</v>
+      </c>
+      <c r="J11" s="13">
+        <v>1193</v>
+      </c>
+      <c r="K11" s="13">
+        <v>0</v>
+      </c>
+      <c r="L11" s="11">
+        <v>119.37</v>
+      </c>
+      <c r="M11" s="11">
+        <v>66428.5</v>
+      </c>
+      <c r="N11" s="11">
+        <v>406817</v>
+      </c>
+      <c r="O11" s="11">
+        <v>508070</v>
+      </c>
+      <c r="P11" s="11">
+        <v>507</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>430</v>
+      </c>
+      <c r="R11" s="11">
+        <v>1593.66</v>
+      </c>
+      <c r="S11" s="11">
+        <v>0</v>
+      </c>
+      <c r="T11" s="11">
+        <v>0</v>
+      </c>
+      <c r="U11" s="11">
+        <v>0</v>
+      </c>
+      <c r="V11" s="11">
+        <v>0</v>
+      </c>
+      <c r="W11" s="11">
+        <v>33931.9</v>
+      </c>
+      <c r="X11" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="13">
+        <v>164082</v>
+      </c>
+      <c r="Z11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="13">
+        <v>95085</v>
+      </c>
+      <c r="AB11" s="14">
+        <v>95085</v>
+      </c>
+      <c r="AC11" s="14">
+        <v>124761</v>
+      </c>
+      <c r="AD11" s="14">
+        <v>84883.7</v>
+      </c>
+      <c r="AE11" s="14">
+        <v>5425.1</v>
+      </c>
+      <c r="AF11" s="14">
+        <v>5755</v>
+      </c>
+      <c r="AG11" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="8">
         <v>570.5</v>
       </c>
-      <c r="G11" s="11">
-        <v>839.68999999999994</v>
-      </c>
-      <c r="H11" s="12">
-        <v>0</v>
-      </c>
-      <c r="I11" s="11">
-        <v>1091.5999999999999</v>
-      </c>
-      <c r="J11" s="11">
-        <v>1208.3</v>
-      </c>
-      <c r="K11" s="13">
-        <v>1193</v>
-      </c>
-      <c r="L11" s="13">
-        <v>0</v>
-      </c>
-      <c r="M11" s="11">
-        <v>119.37</v>
-      </c>
-      <c r="N11" s="23">
+      <c r="AI11" s="24">
         <v>459</v>
       </c>
-      <c r="O11" s="11">
-        <v>66428.5</v>
-      </c>
-      <c r="P11" s="11">
-        <v>406817</v>
-      </c>
-      <c r="Q11" s="11">
-        <v>508070</v>
-      </c>
-      <c r="R11" s="11">
-        <v>507</v>
-      </c>
-      <c r="S11" s="11">
-        <v>430</v>
-      </c>
-      <c r="T11" s="11">
-        <v>1593.66</v>
-      </c>
-      <c r="U11" s="11">
-        <v>0</v>
-      </c>
-      <c r="V11" s="11">
-        <v>0</v>
-      </c>
-      <c r="W11" s="11">
-        <v>0</v>
-      </c>
-      <c r="X11" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="11">
-        <v>33931.9</v>
-      </c>
-      <c r="Z11" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="13">
-        <v>164082</v>
-      </c>
-      <c r="AB11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="13">
+      <c r="AJ11" s="8">
         <v>95085</v>
       </c>
-      <c r="AD11" s="14">
-        <v>95085</v>
-      </c>
-      <c r="AE11" s="14">
-        <v>124761</v>
-      </c>
-      <c r="AF11" s="14">
-        <v>84883.7</v>
-      </c>
-      <c r="AG11" s="14">
-        <v>5425.1</v>
-      </c>
-      <c r="AH11" s="14">
-        <v>5755</v>
-      </c>
-      <c r="AI11" s="15">
-        <v>0</v>
-      </c>
     </row>
-    <row r="12" spans="1:35" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="9">
         <v>36525</v>
       </c>
@@ -3281,97 +3284,100 @@
         <v>0</v>
       </c>
       <c r="F12" s="11">
+        <v>819.48</v>
+      </c>
+      <c r="G12" s="12">
+        <v>0</v>
+      </c>
+      <c r="H12" s="11">
+        <v>1148.8</v>
+      </c>
+      <c r="I12" s="11">
+        <v>1053.8</v>
+      </c>
+      <c r="J12" s="13">
+        <v>907</v>
+      </c>
+      <c r="K12" s="13">
+        <v>0</v>
+      </c>
+      <c r="L12" s="11">
+        <v>97.68</v>
+      </c>
+      <c r="M12" s="11">
+        <v>67394</v>
+      </c>
+      <c r="N12" s="11">
+        <v>416136</v>
+      </c>
+      <c r="O12" s="11">
+        <v>513129</v>
+      </c>
+      <c r="P12" s="11">
+        <v>520</v>
+      </c>
+      <c r="Q12" s="11">
+        <v>438</v>
+      </c>
+      <c r="R12" s="11">
+        <v>1671.48</v>
+      </c>
+      <c r="S12" s="11">
+        <v>0</v>
+      </c>
+      <c r="T12" s="11">
+        <v>0</v>
+      </c>
+      <c r="U12" s="11">
+        <v>0</v>
+      </c>
+      <c r="V12" s="11">
+        <v>0</v>
+      </c>
+      <c r="W12" s="11">
+        <v>35770.300000000003</v>
+      </c>
+      <c r="X12" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="13">
+        <v>167196</v>
+      </c>
+      <c r="Z12" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="13">
+        <v>100164</v>
+      </c>
+      <c r="AB12" s="14">
+        <v>100164</v>
+      </c>
+      <c r="AC12" s="14">
+        <v>125786</v>
+      </c>
+      <c r="AD12" s="14">
+        <v>90187.7</v>
+      </c>
+      <c r="AE12" s="14">
+        <v>5854</v>
+      </c>
+      <c r="AF12" s="14">
+        <v>6094</v>
+      </c>
+      <c r="AG12" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="8">
         <v>570.16999999999996</v>
       </c>
-      <c r="G12" s="11">
-        <v>819.48</v>
-      </c>
-      <c r="H12" s="12">
-        <v>0</v>
-      </c>
-      <c r="I12" s="11">
-        <v>1148.8</v>
-      </c>
-      <c r="J12" s="11">
-        <v>1053.8</v>
-      </c>
-      <c r="K12" s="13">
-        <v>907</v>
-      </c>
-      <c r="L12" s="13">
-        <v>0</v>
-      </c>
-      <c r="M12" s="11">
-        <v>97.68</v>
-      </c>
-      <c r="N12" s="23">
+      <c r="AI12" s="24">
         <v>965.5</v>
       </c>
-      <c r="O12" s="11">
-        <v>67394</v>
-      </c>
-      <c r="P12" s="11">
-        <v>416136</v>
-      </c>
-      <c r="Q12" s="11">
-        <v>513129</v>
-      </c>
-      <c r="R12" s="11">
-        <v>520</v>
-      </c>
-      <c r="S12" s="11">
-        <v>438</v>
-      </c>
-      <c r="T12" s="11">
-        <v>1671.48</v>
-      </c>
-      <c r="U12" s="11">
-        <v>0</v>
-      </c>
-      <c r="V12" s="11">
-        <v>0</v>
-      </c>
-      <c r="W12" s="11">
-        <v>0</v>
-      </c>
-      <c r="X12" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="11">
-        <v>35770.300000000003</v>
-      </c>
-      <c r="Z12" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="13">
-        <v>167196</v>
-      </c>
-      <c r="AB12" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="13">
+      <c r="AJ12" s="8">
         <v>100164</v>
       </c>
-      <c r="AD12" s="14">
-        <v>100164</v>
-      </c>
-      <c r="AE12" s="14">
-        <v>125786</v>
-      </c>
-      <c r="AF12" s="14">
-        <v>90187.7</v>
-      </c>
-      <c r="AG12" s="14">
-        <v>5854</v>
-      </c>
-      <c r="AH12" s="14">
-        <v>6094</v>
-      </c>
-      <c r="AI12" s="15">
-        <v>0</v>
-      </c>
     </row>
-    <row r="13" spans="1:35" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="9">
         <v>36891</v>
       </c>
@@ -3388,97 +3394,100 @@
         <v>0</v>
       </c>
       <c r="F13" s="11">
+        <v>805.27</v>
+      </c>
+      <c r="G13" s="12">
+        <v>0</v>
+      </c>
+      <c r="H13" s="11">
+        <v>1279.0999999999999</v>
+      </c>
+      <c r="I13" s="11">
+        <v>1043.5999999999999</v>
+      </c>
+      <c r="J13" s="13">
+        <v>1817</v>
+      </c>
+      <c r="K13" s="13">
+        <v>0</v>
+      </c>
+      <c r="L13" s="11">
+        <v>135.47</v>
+      </c>
+      <c r="M13" s="11">
+        <v>68649.600000000006</v>
+      </c>
+      <c r="N13" s="11">
+        <v>428918</v>
+      </c>
+      <c r="O13" s="11">
+        <v>523750</v>
+      </c>
+      <c r="P13" s="11">
+        <v>521</v>
+      </c>
+      <c r="Q13" s="11">
+        <v>443</v>
+      </c>
+      <c r="R13" s="11">
+        <v>1756.91</v>
+      </c>
+      <c r="S13" s="11">
+        <v>0</v>
+      </c>
+      <c r="T13" s="11">
+        <v>0</v>
+      </c>
+      <c r="U13" s="11">
+        <v>0</v>
+      </c>
+      <c r="V13" s="11">
+        <v>0</v>
+      </c>
+      <c r="W13" s="11">
+        <v>39931.800000000003</v>
+      </c>
+      <c r="X13" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="13">
+        <v>178023</v>
+      </c>
+      <c r="Z13" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="13">
+        <v>105073</v>
+      </c>
+      <c r="AB13" s="14">
+        <v>105073</v>
+      </c>
+      <c r="AC13" s="14">
+        <v>126743</v>
+      </c>
+      <c r="AD13" s="14">
+        <v>99776.3</v>
+      </c>
+      <c r="AE13" s="14">
+        <v>6280</v>
+      </c>
+      <c r="AF13" s="14">
+        <v>6722</v>
+      </c>
+      <c r="AG13" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="8">
         <v>526.78</v>
       </c>
-      <c r="G13" s="11">
-        <v>805.27</v>
-      </c>
-      <c r="H13" s="12">
-        <v>0</v>
-      </c>
-      <c r="I13" s="11">
-        <v>1279.0999999999999</v>
-      </c>
-      <c r="J13" s="11">
-        <v>1043.5999999999999</v>
-      </c>
-      <c r="K13" s="13">
-        <v>1817</v>
-      </c>
-      <c r="L13" s="13">
-        <v>0</v>
-      </c>
-      <c r="M13" s="11">
-        <v>135.47</v>
-      </c>
-      <c r="N13" s="23">
+      <c r="AI13" s="24">
         <v>1255.6000000000058</v>
       </c>
-      <c r="O13" s="11">
-        <v>68649.600000000006</v>
-      </c>
-      <c r="P13" s="11">
-        <v>428918</v>
-      </c>
-      <c r="Q13" s="11">
-        <v>523750</v>
-      </c>
-      <c r="R13" s="11">
-        <v>521</v>
-      </c>
-      <c r="S13" s="11">
-        <v>443</v>
-      </c>
-      <c r="T13" s="11">
-        <v>1756.91</v>
-      </c>
-      <c r="U13" s="11">
-        <v>0</v>
-      </c>
-      <c r="V13" s="11">
-        <v>0</v>
-      </c>
-      <c r="W13" s="11">
-        <v>0</v>
-      </c>
-      <c r="X13" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="11">
-        <v>39931.800000000003</v>
-      </c>
-      <c r="Z13" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="13">
-        <v>178023</v>
-      </c>
-      <c r="AB13" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="13">
+      <c r="AJ13" s="8">
         <v>105073</v>
       </c>
-      <c r="AD13" s="14">
-        <v>105073</v>
-      </c>
-      <c r="AE13" s="14">
-        <v>126743</v>
-      </c>
-      <c r="AF13" s="14">
-        <v>99776.3</v>
-      </c>
-      <c r="AG13" s="14">
-        <v>6280</v>
-      </c>
-      <c r="AH13" s="14">
-        <v>6722</v>
-      </c>
-      <c r="AI13" s="15">
-        <v>0</v>
-      </c>
     </row>
-    <row r="14" spans="1:35" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="9">
         <v>37256</v>
       </c>
@@ -3495,97 +3504,100 @@
         <v>0</v>
       </c>
       <c r="F14" s="11">
+        <v>898.25</v>
+      </c>
+      <c r="G14" s="12">
+        <v>262.81</v>
+      </c>
+      <c r="H14" s="11">
+        <v>1522</v>
+      </c>
+      <c r="I14" s="11">
+        <v>889</v>
+      </c>
+      <c r="J14" s="13">
+        <v>2015</v>
+      </c>
+      <c r="K14" s="13">
+        <v>0</v>
+      </c>
+      <c r="L14" s="11">
+        <v>157.36000000000001</v>
+      </c>
+      <c r="M14" s="11">
+        <v>70057.2</v>
+      </c>
+      <c r="N14" s="11">
+        <v>435459</v>
+      </c>
+      <c r="O14" s="11">
+        <v>535748</v>
+      </c>
+      <c r="P14" s="11">
+        <v>533</v>
+      </c>
+      <c r="Q14" s="11">
+        <v>437</v>
+      </c>
+      <c r="R14" s="11">
+        <v>2160.7600000000002</v>
+      </c>
+      <c r="S14" s="11">
+        <v>15745.37</v>
+      </c>
+      <c r="T14" s="11">
+        <v>96047.55</v>
+      </c>
+      <c r="U14" s="11">
+        <v>21143.4</v>
+      </c>
+      <c r="V14" s="11">
+        <v>11767.51</v>
+      </c>
+      <c r="W14" s="11">
+        <v>43469.8</v>
+      </c>
+      <c r="X14" s="12">
+        <v>13.95587441</v>
+      </c>
+      <c r="Y14" s="13">
+        <v>192580</v>
+      </c>
+      <c r="Z14" s="11">
+        <v>11737.70729</v>
+      </c>
+      <c r="AA14" s="13">
+        <v>105155</v>
+      </c>
+      <c r="AB14" s="16">
+        <v>105155</v>
+      </c>
+      <c r="AC14" s="16">
+        <v>127627</v>
+      </c>
+      <c r="AD14" s="16">
+        <v>110270.39999999999</v>
+      </c>
+      <c r="AE14" s="16">
+        <v>6859.6</v>
+      </c>
+      <c r="AF14" s="16">
+        <v>7524</v>
+      </c>
+      <c r="AG14" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="8">
         <v>581.39</v>
       </c>
-      <c r="G14" s="11">
-        <v>898.25</v>
-      </c>
-      <c r="H14" s="12">
-        <v>262.81</v>
-      </c>
-      <c r="I14" s="11">
-        <v>1522</v>
-      </c>
-      <c r="J14" s="11">
-        <v>889</v>
-      </c>
-      <c r="K14" s="13">
-        <v>2015</v>
-      </c>
-      <c r="L14" s="13">
-        <v>0</v>
-      </c>
-      <c r="M14" s="11">
-        <v>157.36000000000001</v>
-      </c>
-      <c r="N14" s="23">
+      <c r="AI14" s="24">
         <v>1407.5999999999913</v>
       </c>
-      <c r="O14" s="11">
-        <v>70057.2</v>
-      </c>
-      <c r="P14" s="11">
-        <v>435459</v>
-      </c>
-      <c r="Q14" s="11">
-        <v>535748</v>
-      </c>
-      <c r="R14" s="11">
-        <v>533</v>
-      </c>
-      <c r="S14" s="11">
-        <v>437</v>
-      </c>
-      <c r="T14" s="11">
-        <v>2160.7600000000002</v>
-      </c>
-      <c r="U14" s="11">
-        <v>15745.37</v>
-      </c>
-      <c r="V14" s="11">
-        <v>96047.55</v>
-      </c>
-      <c r="W14" s="11">
-        <v>21143.4</v>
-      </c>
-      <c r="X14" s="11">
-        <v>11767.51</v>
-      </c>
-      <c r="Y14" s="11">
-        <v>43469.8</v>
-      </c>
-      <c r="Z14" s="12">
-        <v>13.95587441</v>
-      </c>
-      <c r="AA14" s="13">
-        <v>192580</v>
-      </c>
-      <c r="AB14" s="11">
-        <v>11737.70729</v>
-      </c>
-      <c r="AC14" s="13">
+      <c r="AJ14" s="8">
         <v>105155</v>
       </c>
-      <c r="AD14" s="16">
-        <v>105155</v>
-      </c>
-      <c r="AE14" s="16">
-        <v>127627</v>
-      </c>
-      <c r="AF14" s="16">
-        <v>110270.39999999999</v>
-      </c>
-      <c r="AG14" s="16">
-        <v>6859.6</v>
-      </c>
-      <c r="AH14" s="16">
-        <v>7524</v>
-      </c>
-      <c r="AI14" s="15">
-        <v>0</v>
-      </c>
     </row>
-    <row r="15" spans="1:35" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="9">
         <v>37621</v>
       </c>
@@ -3602,97 +3614,100 @@
         <v>0</v>
       </c>
       <c r="F15" s="11">
+        <v>962.73</v>
+      </c>
+      <c r="G15" s="12">
+        <v>251</v>
+      </c>
+      <c r="H15" s="11">
+        <v>1952.8</v>
+      </c>
+      <c r="I15" s="11">
+        <v>858.7</v>
+      </c>
+      <c r="J15" s="13">
+        <v>2375</v>
+      </c>
+      <c r="K15" s="13">
+        <v>0</v>
+      </c>
+      <c r="L15" s="11">
+        <v>175.53</v>
+      </c>
+      <c r="M15" s="11">
+        <v>71897.5</v>
+      </c>
+      <c r="N15" s="11">
+        <v>453933</v>
+      </c>
+      <c r="O15" s="11">
+        <v>553831</v>
+      </c>
+      <c r="P15" s="11">
+        <v>557</v>
+      </c>
+      <c r="Q15" s="11">
+        <v>445</v>
+      </c>
+      <c r="R15" s="11">
+        <v>2244.04</v>
+      </c>
+      <c r="S15" s="11">
+        <v>19218.34</v>
+      </c>
+      <c r="T15" s="11">
+        <v>110807.13</v>
+      </c>
+      <c r="U15" s="11">
+        <v>21964.46</v>
+      </c>
+      <c r="V15" s="11">
+        <v>13287.64</v>
+      </c>
+      <c r="W15" s="11">
+        <v>47310.7</v>
+      </c>
+      <c r="X15" s="12">
+        <v>14.604931029999999</v>
+      </c>
+      <c r="Y15" s="13">
+        <v>204246</v>
+      </c>
+      <c r="Z15" s="11">
+        <v>12395.66418</v>
+      </c>
+      <c r="AA15" s="13">
+        <v>105606</v>
+      </c>
+      <c r="AB15" s="16">
+        <v>105606</v>
+      </c>
+      <c r="AC15" s="16">
+        <v>128453</v>
+      </c>
+      <c r="AD15" s="16">
+        <v>121002</v>
+      </c>
+      <c r="AE15" s="16">
+        <v>7702.8</v>
+      </c>
+      <c r="AF15" s="16">
+        <v>8594</v>
+      </c>
+      <c r="AG15" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="8">
         <v>623.52</v>
       </c>
-      <c r="G15" s="11">
-        <v>962.73</v>
-      </c>
-      <c r="H15" s="12">
-        <v>251</v>
-      </c>
-      <c r="I15" s="11">
-        <v>1952.8</v>
-      </c>
-      <c r="J15" s="11">
-        <v>858.7</v>
-      </c>
-      <c r="K15" s="13">
-        <v>2375</v>
-      </c>
-      <c r="L15" s="13">
-        <v>0</v>
-      </c>
-      <c r="M15" s="11">
-        <v>175.53</v>
-      </c>
-      <c r="N15" s="23">
+      <c r="AI15" s="24">
         <v>1840.3000000000029</v>
       </c>
-      <c r="O15" s="11">
-        <v>71897.5</v>
-      </c>
-      <c r="P15" s="11">
-        <v>453933</v>
-      </c>
-      <c r="Q15" s="11">
-        <v>553831</v>
-      </c>
-      <c r="R15" s="11">
-        <v>557</v>
-      </c>
-      <c r="S15" s="11">
-        <v>445</v>
-      </c>
-      <c r="T15" s="11">
-        <v>2244.04</v>
-      </c>
-      <c r="U15" s="11">
-        <v>19218.34</v>
-      </c>
-      <c r="V15" s="11">
-        <v>110807.13</v>
-      </c>
-      <c r="W15" s="11">
-        <v>21964.46</v>
-      </c>
-      <c r="X15" s="11">
-        <v>13287.64</v>
-      </c>
-      <c r="Y15" s="11">
-        <v>47310.7</v>
-      </c>
-      <c r="Z15" s="12">
-        <v>14.604931029999999</v>
-      </c>
-      <c r="AA15" s="13">
-        <v>204246</v>
-      </c>
-      <c r="AB15" s="11">
-        <v>12395.66418</v>
-      </c>
-      <c r="AC15" s="13">
+      <c r="AJ15" s="8">
         <v>105606</v>
       </c>
-      <c r="AD15" s="16">
-        <v>105606</v>
-      </c>
-      <c r="AE15" s="16">
-        <v>128453</v>
-      </c>
-      <c r="AF15" s="16">
-        <v>121002</v>
-      </c>
-      <c r="AG15" s="16">
-        <v>7702.8</v>
-      </c>
-      <c r="AH15" s="16">
-        <v>8594</v>
-      </c>
-      <c r="AI15" s="15">
-        <v>0</v>
-      </c>
     </row>
-    <row r="16" spans="1:35" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="9">
         <v>37986</v>
       </c>
@@ -3709,97 +3724,100 @@
         <v>0</v>
       </c>
       <c r="F16" s="11">
+        <v>859.92</v>
+      </c>
+      <c r="G16" s="12">
+        <v>235.5</v>
+      </c>
+      <c r="H16" s="11">
+        <v>1574.8</v>
+      </c>
+      <c r="I16" s="11">
+        <v>222.6</v>
+      </c>
+      <c r="J16" s="13">
+        <v>1431</v>
+      </c>
+      <c r="K16" s="13">
+        <v>0</v>
+      </c>
+      <c r="L16" s="11">
+        <v>167.66</v>
+      </c>
+      <c r="M16" s="11">
+        <v>73002</v>
+      </c>
+      <c r="N16" s="11">
+        <v>480743</v>
+      </c>
+      <c r="O16" s="11">
+        <v>581177</v>
+      </c>
+      <c r="P16" s="11">
+        <v>562</v>
+      </c>
+      <c r="Q16" s="11">
+        <v>450</v>
+      </c>
+      <c r="R16" s="11">
+        <v>2310.79</v>
+      </c>
+      <c r="S16" s="11">
+        <v>23581.58</v>
+      </c>
+      <c r="T16" s="11">
+        <v>131522.66</v>
+      </c>
+      <c r="U16" s="11">
+        <v>24176.66</v>
+      </c>
+      <c r="V16" s="11">
+        <v>15421.26</v>
+      </c>
+      <c r="W16" s="11">
+        <v>54805.8</v>
+      </c>
+      <c r="X16" s="12">
+        <v>15.54219309</v>
+      </c>
+      <c r="Y16" s="13">
+        <v>223480</v>
+      </c>
+      <c r="Z16" s="11">
+        <v>13432.51555</v>
+      </c>
+      <c r="AA16" s="13">
+        <v>97260</v>
+      </c>
+      <c r="AB16" s="16">
+        <v>97260</v>
+      </c>
+      <c r="AC16" s="16">
+        <v>129227</v>
+      </c>
+      <c r="AD16" s="16">
+        <v>136564.6</v>
+      </c>
+      <c r="AE16" s="16">
+        <v>8472.2000000000007</v>
+      </c>
+      <c r="AF16" s="16">
+        <v>8759</v>
+      </c>
+      <c r="AG16" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="8">
         <v>528.62</v>
       </c>
-      <c r="G16" s="11">
-        <v>859.92</v>
-      </c>
-      <c r="H16" s="12">
-        <v>235.5</v>
-      </c>
-      <c r="I16" s="11">
-        <v>1574.8</v>
-      </c>
-      <c r="J16" s="11">
-        <v>222.6</v>
-      </c>
-      <c r="K16" s="13">
-        <v>1431</v>
-      </c>
-      <c r="L16" s="13">
-        <v>0</v>
-      </c>
-      <c r="M16" s="11">
-        <v>167.66</v>
-      </c>
-      <c r="N16" s="23">
+      <c r="AI16" s="24">
         <v>1104.5</v>
       </c>
-      <c r="O16" s="11">
-        <v>73002</v>
-      </c>
-      <c r="P16" s="11">
-        <v>480743</v>
-      </c>
-      <c r="Q16" s="11">
-        <v>581177</v>
-      </c>
-      <c r="R16" s="11">
-        <v>562</v>
-      </c>
-      <c r="S16" s="11">
-        <v>450</v>
-      </c>
-      <c r="T16" s="11">
-        <v>2310.79</v>
-      </c>
-      <c r="U16" s="11">
-        <v>23581.58</v>
-      </c>
-      <c r="V16" s="11">
-        <v>131522.66</v>
-      </c>
-      <c r="W16" s="11">
-        <v>24176.66</v>
-      </c>
-      <c r="X16" s="11">
-        <v>15421.26</v>
-      </c>
-      <c r="Y16" s="11">
-        <v>54805.8</v>
-      </c>
-      <c r="Z16" s="12">
-        <v>15.54219309</v>
-      </c>
-      <c r="AA16" s="13">
-        <v>223480</v>
-      </c>
-      <c r="AB16" s="11">
-        <v>13432.51555</v>
-      </c>
-      <c r="AC16" s="13">
+      <c r="AJ16" s="8">
         <v>97260</v>
       </c>
-      <c r="AD16" s="16">
-        <v>97260</v>
-      </c>
-      <c r="AE16" s="16">
-        <v>129227</v>
-      </c>
-      <c r="AF16" s="16">
-        <v>136564.6</v>
-      </c>
-      <c r="AG16" s="16">
-        <v>8472.2000000000007</v>
-      </c>
-      <c r="AH16" s="16">
-        <v>8759</v>
-      </c>
-      <c r="AI16" s="15">
-        <v>0</v>
-      </c>
     </row>
-    <row r="17" spans="1:35" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="9">
         <v>38352</v>
       </c>
@@ -3816,97 +3834,100 @@
         <v>0</v>
       </c>
       <c r="F17" s="11">
+        <v>901.38</v>
+      </c>
+      <c r="G17" s="12">
+        <v>224.22</v>
+      </c>
+      <c r="H17" s="11">
+        <v>1169.6000000000001</v>
+      </c>
+      <c r="I17" s="11">
+        <v>650.5</v>
+      </c>
+      <c r="J17" s="13">
+        <v>1579</v>
+      </c>
+      <c r="K17" s="13">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
+        <v>178.32</v>
+      </c>
+      <c r="M17" s="11">
+        <v>74407.7</v>
+      </c>
+      <c r="N17" s="11">
+        <v>503477</v>
+      </c>
+      <c r="O17" s="11">
+        <v>599139</v>
+      </c>
+      <c r="P17" s="11">
+        <v>612</v>
+      </c>
+      <c r="Q17" s="11">
+        <v>455</v>
+      </c>
+      <c r="R17" s="11">
+        <v>2462</v>
+      </c>
+      <c r="S17" s="11">
+        <v>29738.7</v>
+      </c>
+      <c r="T17" s="11">
+        <v>156520.54999999999</v>
+      </c>
+      <c r="U17" s="11">
+        <v>27462.49</v>
+      </c>
+      <c r="V17" s="11">
+        <v>17701.71</v>
+      </c>
+      <c r="W17" s="11">
+        <v>65044.2</v>
+      </c>
+      <c r="X17" s="12">
+        <v>17.019432510000001</v>
+      </c>
+      <c r="Y17" s="13">
+        <v>248130</v>
+      </c>
+      <c r="Z17" s="11">
+        <v>14936.568069999999</v>
+      </c>
+      <c r="AA17" s="13">
+        <v>111764</v>
+      </c>
+      <c r="AB17" s="16">
+        <v>111764</v>
+      </c>
+      <c r="AC17" s="16">
+        <v>129988</v>
+      </c>
+      <c r="AD17" s="16">
+        <v>160714.4</v>
+      </c>
+      <c r="AE17" s="16">
+        <v>9421.6</v>
+      </c>
+      <c r="AF17" s="16">
+        <v>12123</v>
+      </c>
+      <c r="AG17" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="8">
         <v>531.54999999999995</v>
       </c>
-      <c r="G17" s="11">
-        <v>901.38</v>
-      </c>
-      <c r="H17" s="12">
-        <v>224.22</v>
-      </c>
-      <c r="I17" s="11">
-        <v>1169.6000000000001</v>
-      </c>
-      <c r="J17" s="11">
-        <v>650.5</v>
-      </c>
-      <c r="K17" s="13">
-        <v>1579</v>
-      </c>
-      <c r="L17" s="13">
-        <v>0</v>
-      </c>
-      <c r="M17" s="11">
-        <v>178.32</v>
-      </c>
-      <c r="N17" s="23">
+      <c r="AI17" s="24">
         <v>1405.6999999999971</v>
       </c>
-      <c r="O17" s="11">
-        <v>74407.7</v>
-      </c>
-      <c r="P17" s="11">
-        <v>503477</v>
-      </c>
-      <c r="Q17" s="11">
-        <v>599139</v>
-      </c>
-      <c r="R17" s="11">
-        <v>612</v>
-      </c>
-      <c r="S17" s="11">
-        <v>455</v>
-      </c>
-      <c r="T17" s="11">
-        <v>2462</v>
-      </c>
-      <c r="U17" s="11">
-        <v>29738.7</v>
-      </c>
-      <c r="V17" s="11">
-        <v>156520.54999999999</v>
-      </c>
-      <c r="W17" s="11">
-        <v>27462.49</v>
-      </c>
-      <c r="X17" s="11">
-        <v>17701.71</v>
-      </c>
-      <c r="Y17" s="11">
-        <v>65044.2</v>
-      </c>
-      <c r="Z17" s="12">
-        <v>17.019432510000001</v>
-      </c>
-      <c r="AA17" s="13">
-        <v>248130</v>
-      </c>
-      <c r="AB17" s="11">
-        <v>14936.568069999999</v>
-      </c>
-      <c r="AC17" s="13">
+      <c r="AJ17" s="8">
         <v>111764</v>
       </c>
-      <c r="AD17" s="16">
-        <v>111764</v>
-      </c>
-      <c r="AE17" s="16">
-        <v>129988</v>
-      </c>
-      <c r="AF17" s="16">
-        <v>160714.4</v>
-      </c>
-      <c r="AG17" s="16">
-        <v>9421.6</v>
-      </c>
-      <c r="AH17" s="16">
-        <v>12123</v>
-      </c>
-      <c r="AI17" s="15">
-        <v>0</v>
-      </c>
     </row>
-    <row r="18" spans="1:35" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="9">
         <v>38717</v>
       </c>
@@ -3923,97 +3944,100 @@
         <v>1</v>
       </c>
       <c r="F18" s="11">
+        <v>1364.31</v>
+      </c>
+      <c r="G18" s="12">
+        <v>223.08</v>
+      </c>
+      <c r="H18" s="11">
+        <v>919.7</v>
+      </c>
+      <c r="I18" s="11">
+        <v>414.7</v>
+      </c>
+      <c r="J18" s="13">
+        <v>1619</v>
+      </c>
+      <c r="K18" s="13">
+        <v>1</v>
+      </c>
+      <c r="L18" s="11">
+        <v>265.77999999999997</v>
+      </c>
+      <c r="M18" s="11">
+        <v>75437.600000000006</v>
+      </c>
+      <c r="N18" s="11">
+        <v>527544</v>
+      </c>
+      <c r="O18" s="11">
+        <v>620864</v>
+      </c>
+      <c r="P18" s="11">
+        <v>650</v>
+      </c>
+      <c r="Q18" s="11">
+        <v>458</v>
+      </c>
+      <c r="R18" s="11">
+        <v>2558</v>
+      </c>
+      <c r="S18" s="11">
+        <v>37117.019999999997</v>
+      </c>
+      <c r="T18" s="11">
+        <v>180990.73</v>
+      </c>
+      <c r="U18" s="11">
+        <v>29012.35</v>
+      </c>
+      <c r="V18" s="11">
+        <v>19857.23</v>
+      </c>
+      <c r="W18" s="11">
+        <v>77034.399999999994</v>
+      </c>
+      <c r="X18" s="12">
+        <v>20.89440849</v>
+      </c>
+      <c r="Y18" s="13">
+        <v>268349</v>
+      </c>
+      <c r="Z18" s="11">
+        <v>16855.289929999999</v>
+      </c>
+      <c r="AA18" s="13">
+        <v>115583</v>
+      </c>
+      <c r="AB18" s="16">
+        <v>115583</v>
+      </c>
+      <c r="AC18" s="16">
+        <v>130756</v>
+      </c>
+      <c r="AD18" s="16">
+        <v>185895.8</v>
+      </c>
+      <c r="AE18" s="16">
+        <v>10493</v>
+      </c>
+      <c r="AF18" s="16">
+        <v>13827</v>
+      </c>
+      <c r="AG18" s="15">
+        <v>41.4</v>
+      </c>
+      <c r="AH18" s="8">
         <v>880.18</v>
       </c>
-      <c r="G18" s="11">
-        <v>1364.31</v>
-      </c>
-      <c r="H18" s="12">
-        <v>223.08</v>
-      </c>
-      <c r="I18" s="11">
-        <v>919.7</v>
-      </c>
-      <c r="J18" s="11">
-        <v>414.7</v>
-      </c>
-      <c r="K18" s="13">
-        <v>1619</v>
-      </c>
-      <c r="L18" s="13">
-        <v>1</v>
-      </c>
-      <c r="M18" s="11">
-        <v>265.77999999999997</v>
-      </c>
-      <c r="N18" s="23">
+      <c r="AI18" s="24">
         <v>1029.9000000000087</v>
       </c>
-      <c r="O18" s="11">
-        <v>75437.600000000006</v>
-      </c>
-      <c r="P18" s="11">
-        <v>527544</v>
-      </c>
-      <c r="Q18" s="11">
-        <v>620864</v>
-      </c>
-      <c r="R18" s="11">
-        <v>650</v>
-      </c>
-      <c r="S18" s="11">
-        <v>458</v>
-      </c>
-      <c r="T18" s="11">
-        <v>2558</v>
-      </c>
-      <c r="U18" s="11">
-        <v>37117.019999999997</v>
-      </c>
-      <c r="V18" s="11">
-        <v>180990.73</v>
-      </c>
-      <c r="W18" s="11">
-        <v>29012.35</v>
-      </c>
-      <c r="X18" s="11">
-        <v>19857.23</v>
-      </c>
-      <c r="Y18" s="11">
-        <v>77034.399999999994</v>
-      </c>
-      <c r="Z18" s="12">
-        <v>20.89440849</v>
-      </c>
-      <c r="AA18" s="13">
-        <v>268349</v>
-      </c>
-      <c r="AB18" s="11">
-        <v>16855.289929999999</v>
-      </c>
-      <c r="AC18" s="13">
+      <c r="AJ18" s="8">
         <v>115583</v>
       </c>
-      <c r="AD18" s="16">
-        <v>115583</v>
-      </c>
-      <c r="AE18" s="16">
-        <v>130756</v>
-      </c>
-      <c r="AF18" s="16">
-        <v>185895.8</v>
-      </c>
-      <c r="AG18" s="16">
-        <v>10493</v>
-      </c>
-      <c r="AH18" s="16">
-        <v>13827</v>
-      </c>
-      <c r="AI18" s="15">
-        <v>41.4</v>
-      </c>
     </row>
-    <row r="19" spans="1:35" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="9">
         <v>39082</v>
       </c>
@@ -4030,97 +4054,100 @@
         <v>5</v>
       </c>
       <c r="F19" s="11">
+        <v>2088.35</v>
+      </c>
+      <c r="G19" s="12">
+        <v>221.01</v>
+      </c>
+      <c r="H19" s="11">
+        <v>939.3</v>
+      </c>
+      <c r="I19" s="11">
+        <v>1145.3</v>
+      </c>
+      <c r="J19" s="13">
+        <v>880</v>
+      </c>
+      <c r="K19" s="13">
+        <v>4</v>
+      </c>
+      <c r="L19" s="11">
+        <v>319.39999999999998</v>
+      </c>
+      <c r="M19" s="11">
+        <v>77083.8</v>
+      </c>
+      <c r="N19" s="11">
+        <v>546698</v>
+      </c>
+      <c r="O19" s="11">
+        <v>645625</v>
+      </c>
+      <c r="P19" s="11">
+        <v>671</v>
+      </c>
+      <c r="Q19" s="11">
+        <v>465</v>
+      </c>
+      <c r="R19" s="11">
+        <v>2627</v>
+      </c>
+      <c r="S19" s="11">
+        <v>46685.43</v>
+      </c>
+      <c r="T19" s="11">
+        <v>206367</v>
+      </c>
+      <c r="U19" s="11">
+        <v>30302.55</v>
+      </c>
+      <c r="V19" s="11">
+        <v>23188.78</v>
+      </c>
+      <c r="W19" s="11">
+        <v>91078.8</v>
+      </c>
+      <c r="X19" s="12">
+        <v>22.496458459999999</v>
+      </c>
+      <c r="Y19" s="13">
+        <v>287095</v>
+      </c>
+      <c r="Z19" s="11">
+        <v>18011.937399999999</v>
+      </c>
+      <c r="AA19" s="13">
+        <v>125656</v>
+      </c>
+      <c r="AB19" s="16">
+        <v>125655.79580000001</v>
+      </c>
+      <c r="AC19" s="16">
+        <v>131448</v>
+      </c>
+      <c r="AD19" s="16">
+        <v>217656.6</v>
+      </c>
+      <c r="AE19" s="16">
+        <v>11759.5</v>
+      </c>
+      <c r="AF19" s="16">
+        <v>15967.844800000001</v>
+      </c>
+      <c r="AG19" s="15">
+        <v>41.9</v>
+      </c>
+      <c r="AH19" s="8">
         <v>1542.5</v>
       </c>
-      <c r="G19" s="11">
-        <v>2088.35</v>
-      </c>
-      <c r="H19" s="12">
-        <v>221.01</v>
-      </c>
-      <c r="I19" s="11">
-        <v>939.3</v>
-      </c>
-      <c r="J19" s="11">
-        <v>1145.3</v>
-      </c>
-      <c r="K19" s="13">
-        <v>880</v>
-      </c>
-      <c r="L19" s="13">
-        <v>4</v>
-      </c>
-      <c r="M19" s="11">
-        <v>319.39999999999998</v>
-      </c>
-      <c r="N19" s="23">
+      <c r="AI19" s="24">
         <v>1646.1999999999971</v>
       </c>
-      <c r="O19" s="11">
-        <v>77083.8</v>
-      </c>
-      <c r="P19" s="11">
-        <v>546698</v>
-      </c>
-      <c r="Q19" s="11">
-        <v>645625</v>
-      </c>
-      <c r="R19" s="11">
-        <v>671</v>
-      </c>
-      <c r="S19" s="11">
-        <v>465</v>
-      </c>
-      <c r="T19" s="11">
-        <v>2627</v>
-      </c>
-      <c r="U19" s="11">
-        <v>46685.43</v>
-      </c>
-      <c r="V19" s="11">
-        <v>206367</v>
-      </c>
-      <c r="W19" s="11">
-        <v>30302.55</v>
-      </c>
-      <c r="X19" s="11">
-        <v>23188.78</v>
-      </c>
-      <c r="Y19" s="11">
-        <v>91078.8</v>
-      </c>
-      <c r="Z19" s="12">
-        <v>22.496458459999999</v>
-      </c>
-      <c r="AA19" s="13">
-        <v>287095</v>
-      </c>
-      <c r="AB19" s="11">
-        <v>18011.937399999999</v>
-      </c>
-      <c r="AC19" s="13">
+      <c r="AJ19" s="8">
         <v>125656</v>
       </c>
-      <c r="AD19" s="16">
-        <v>125655.79580000001</v>
-      </c>
-      <c r="AE19" s="16">
-        <v>131448</v>
-      </c>
-      <c r="AF19" s="16">
-        <v>217656.6</v>
-      </c>
-      <c r="AG19" s="16">
-        <v>11759.5</v>
-      </c>
-      <c r="AH19" s="16">
-        <v>15967.844800000001</v>
-      </c>
-      <c r="AI19" s="15">
-        <v>41.9</v>
-      </c>
     </row>
-    <row r="20" spans="1:35" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="9">
         <v>39447</v>
       </c>
@@ -4137,97 +4164,100 @@
         <v>113</v>
       </c>
       <c r="F20" s="11">
+        <v>2552.4191999999998</v>
+      </c>
+      <c r="G20" s="12">
+        <v>216.92</v>
+      </c>
+      <c r="H20" s="11">
+        <v>1089.9000000000001</v>
+      </c>
+      <c r="I20" s="11">
+        <v>1256.0999999999999</v>
+      </c>
+      <c r="J20" s="13">
+        <v>925</v>
+      </c>
+      <c r="K20" s="13">
+        <v>108</v>
+      </c>
+      <c r="L20" s="11">
+        <v>564.40022999999997</v>
+      </c>
+      <c r="M20" s="11">
+        <v>77965.899999999994</v>
+      </c>
+      <c r="N20" s="11">
+        <v>565519</v>
+      </c>
+      <c r="O20" s="11">
+        <v>664516</v>
+      </c>
+      <c r="P20" s="11">
+        <v>758</v>
+      </c>
+      <c r="Q20" s="11">
+        <v>480</v>
+      </c>
+      <c r="R20" s="11">
+        <v>2762.45</v>
+      </c>
+      <c r="S20" s="11">
+        <v>56460.800000000003</v>
+      </c>
+      <c r="T20" s="11">
+        <v>229892.1</v>
+      </c>
+      <c r="U20" s="11">
+        <v>32739.55</v>
+      </c>
+      <c r="V20" s="11">
+        <v>27012.6</v>
+      </c>
+      <c r="W20" s="11">
+        <v>110253.9</v>
+      </c>
+      <c r="X20" s="12">
+        <v>24.349218350000001</v>
+      </c>
+      <c r="Y20" s="13">
+        <v>313018</v>
+      </c>
+      <c r="Z20" s="11">
+        <v>19585.90796</v>
+      </c>
+      <c r="AA20" s="13">
+        <v>135670</v>
+      </c>
+      <c r="AB20" s="16">
+        <v>135670</v>
+      </c>
+      <c r="AC20" s="16">
+        <v>132129</v>
+      </c>
+      <c r="AD20" s="16">
+        <v>268019.40000000002</v>
+      </c>
+      <c r="AE20" s="16">
+        <v>13785.8</v>
+      </c>
+      <c r="AF20" s="16">
+        <v>18576.211200000002</v>
+      </c>
+      <c r="AG20" s="15">
+        <v>42.9</v>
+      </c>
+      <c r="AH20" s="8">
         <v>1789.9929</v>
       </c>
-      <c r="G20" s="11">
-        <v>2552.4191999999998</v>
-      </c>
-      <c r="H20" s="12">
-        <v>216.92</v>
-      </c>
-      <c r="I20" s="11">
-        <v>1089.9000000000001</v>
-      </c>
-      <c r="J20" s="11">
-        <v>1256.0999999999999</v>
-      </c>
-      <c r="K20" s="13">
-        <v>925</v>
-      </c>
-      <c r="L20" s="13">
-        <v>108</v>
-      </c>
-      <c r="M20" s="11">
-        <v>564.40022999999997</v>
-      </c>
-      <c r="N20" s="23">
+      <c r="AI20" s="24">
         <v>882.09999999999127</v>
       </c>
-      <c r="O20" s="11">
-        <v>77965.899999999994</v>
-      </c>
-      <c r="P20" s="11">
-        <v>565519</v>
-      </c>
-      <c r="Q20" s="11">
-        <v>664516</v>
-      </c>
-      <c r="R20" s="11">
-        <v>758</v>
-      </c>
-      <c r="S20" s="11">
-        <v>480</v>
-      </c>
-      <c r="T20" s="11">
-        <v>2762.45</v>
-      </c>
-      <c r="U20" s="11">
-        <v>56460.800000000003</v>
-      </c>
-      <c r="V20" s="11">
-        <v>229892.1</v>
-      </c>
-      <c r="W20" s="11">
-        <v>32739.55</v>
-      </c>
-      <c r="X20" s="11">
-        <v>27012.6</v>
-      </c>
-      <c r="Y20" s="11">
-        <v>110253.9</v>
-      </c>
-      <c r="Z20" s="12">
-        <v>24.349218350000001</v>
-      </c>
-      <c r="AA20" s="13">
-        <v>313018</v>
-      </c>
-      <c r="AB20" s="11">
-        <v>19585.90796</v>
-      </c>
-      <c r="AC20" s="13">
-        <v>135670</v>
-      </c>
-      <c r="AD20" s="16">
-        <v>135670</v>
-      </c>
-      <c r="AE20" s="16">
-        <v>132129</v>
-      </c>
-      <c r="AF20" s="16">
-        <v>268019.40000000002</v>
-      </c>
-      <c r="AG20" s="16">
-        <v>13785.8</v>
-      </c>
-      <c r="AH20" s="16">
-        <v>18576.211200000002</v>
-      </c>
-      <c r="AI20" s="15">
-        <v>42.9</v>
+      <c r="AJ20" s="8">
+        <v>129503.15609999999</v>
       </c>
     </row>
-    <row r="21" spans="1:35" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="9">
         <v>39813</v>
       </c>
@@ -4244,97 +4274,100 @@
         <v>199</v>
       </c>
       <c r="F21" s="11">
+        <v>4140.8543</v>
+      </c>
+      <c r="G21" s="12">
+        <v>213.1</v>
+      </c>
+      <c r="H21" s="11">
+        <v>2808.1</v>
+      </c>
+      <c r="I21" s="11">
+        <v>2210.1999999999998</v>
+      </c>
+      <c r="J21" s="13">
+        <v>1256</v>
+      </c>
+      <c r="K21" s="13">
+        <v>86</v>
+      </c>
+      <c r="L21" s="11">
+        <v>559.78</v>
+      </c>
+      <c r="M21" s="11">
+        <v>79687.3</v>
+      </c>
+      <c r="N21" s="11">
+        <v>575827</v>
+      </c>
+      <c r="O21" s="11">
+        <v>684758</v>
+      </c>
+      <c r="P21" s="11">
+        <v>812</v>
+      </c>
+      <c r="Q21" s="11">
+        <v>483</v>
+      </c>
+      <c r="R21" s="11">
+        <v>2839.57</v>
+      </c>
+      <c r="S21" s="11">
+        <v>58177.3</v>
+      </c>
+      <c r="T21" s="11">
+        <v>258566.39999999999</v>
+      </c>
+      <c r="U21" s="11">
+        <v>34144.53</v>
+      </c>
+      <c r="V21" s="11">
+        <v>27857.4</v>
+      </c>
+      <c r="W21" s="11">
+        <v>129929.1</v>
+      </c>
+      <c r="X21" s="12">
+        <v>25.358853159999999</v>
+      </c>
+      <c r="Y21" s="13">
+        <v>329035</v>
+      </c>
+      <c r="Z21" s="11">
+        <v>20355.881730000001</v>
+      </c>
+      <c r="AA21" s="13">
+        <v>146193</v>
+      </c>
+      <c r="AB21" s="16">
+        <v>146192.84789999999</v>
+      </c>
+      <c r="AC21" s="16">
+        <v>132802</v>
+      </c>
+      <c r="AD21" s="16">
+        <v>316751.7</v>
+      </c>
+      <c r="AE21" s="16">
+        <v>15780.8</v>
+      </c>
+      <c r="AF21" s="16">
+        <v>19251.116000000002</v>
+      </c>
+      <c r="AG21" s="15">
+        <v>42.9</v>
+      </c>
+      <c r="AH21" s="8">
         <v>3375.5432999999998</v>
       </c>
-      <c r="G21" s="11">
-        <v>4140.8543</v>
-      </c>
-      <c r="H21" s="12">
-        <v>213.1</v>
-      </c>
-      <c r="I21" s="11">
-        <v>2808.1</v>
-      </c>
-      <c r="J21" s="11">
-        <v>2210.1999999999998</v>
-      </c>
-      <c r="K21" s="13">
-        <v>1256</v>
-      </c>
-      <c r="L21" s="13">
-        <v>86</v>
-      </c>
-      <c r="M21" s="11">
-        <v>559.78</v>
-      </c>
-      <c r="N21" s="23">
+      <c r="AI21" s="24">
         <v>1721.4000000000087</v>
       </c>
-      <c r="O21" s="11">
-        <v>79687.3</v>
-      </c>
-      <c r="P21" s="11">
-        <v>575827</v>
-      </c>
-      <c r="Q21" s="11">
-        <v>684758</v>
-      </c>
-      <c r="R21" s="11">
-        <v>812</v>
-      </c>
-      <c r="S21" s="11">
-        <v>483</v>
-      </c>
-      <c r="T21" s="11">
-        <v>2839.57</v>
-      </c>
-      <c r="U21" s="11">
-        <v>58177.3</v>
-      </c>
-      <c r="V21" s="11">
-        <v>258566.39999999999</v>
-      </c>
-      <c r="W21" s="11">
-        <v>34144.53</v>
-      </c>
-      <c r="X21" s="11">
-        <v>27857.4</v>
-      </c>
-      <c r="Y21" s="11">
-        <v>129929.1</v>
-      </c>
-      <c r="Z21" s="12">
-        <v>25.358853159999999</v>
-      </c>
-      <c r="AA21" s="13">
-        <v>329035</v>
-      </c>
-      <c r="AB21" s="11">
-        <v>20355.881730000001</v>
-      </c>
-      <c r="AC21" s="13">
-        <v>146193</v>
-      </c>
-      <c r="AD21" s="16">
-        <v>146192.84789999999</v>
-      </c>
-      <c r="AE21" s="16">
-        <v>132802</v>
-      </c>
-      <c r="AF21" s="16">
-        <v>316751.7</v>
-      </c>
-      <c r="AG21" s="16">
-        <v>15780.8</v>
-      </c>
-      <c r="AH21" s="16">
-        <v>19251.116000000002</v>
-      </c>
-      <c r="AI21" s="15">
-        <v>42.9</v>
+      <c r="AJ21" s="8">
+        <v>132678.27480000001</v>
       </c>
     </row>
-    <row r="22" spans="1:35" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="9">
         <v>40178</v>
       </c>
@@ -4351,97 +4384,100 @@
         <v>284</v>
       </c>
       <c r="F22" s="11">
-        <v>6004.47</v>
-      </c>
-      <c r="G22" s="11">
         <v>7020.7611999999999</v>
       </c>
-      <c r="H22" s="12">
+      <c r="G22" s="12">
         <v>211.9194</v>
       </c>
+      <c r="H22" s="11">
+        <v>5427.7000000000007</v>
+      </c>
       <c r="I22" s="11">
-        <v>5427.7000000000007</v>
-      </c>
-      <c r="J22" s="11">
         <v>4349.7</v>
       </c>
+      <c r="J22" s="13">
+        <v>3158</v>
+      </c>
       <c r="K22" s="13">
-        <v>3158</v>
-      </c>
-      <c r="L22" s="13">
         <v>85</v>
       </c>
+      <c r="L22" s="11">
+        <v>783.81</v>
+      </c>
       <c r="M22" s="11">
-        <v>783.81</v>
-      </c>
-      <c r="N22" s="23">
+        <v>85517.8</v>
+      </c>
+      <c r="N22" s="11">
+        <v>569531</v>
+      </c>
+      <c r="O22" s="11">
+        <v>692700</v>
+      </c>
+      <c r="P22" s="11">
+        <v>860</v>
+      </c>
+      <c r="Q22" s="11">
+        <v>487</v>
+      </c>
+      <c r="R22" s="11">
+        <v>2799.92</v>
+      </c>
+      <c r="S22" s="11">
+        <v>69243.72</v>
+      </c>
+      <c r="T22" s="11">
+        <v>298399.34000000003</v>
+      </c>
+      <c r="U22" s="11">
+        <v>37321.69</v>
+      </c>
+      <c r="V22" s="11">
+        <v>29814.22</v>
+      </c>
+      <c r="W22" s="11">
+        <v>135849</v>
+      </c>
+      <c r="X22" s="12">
+        <v>25.696462400000001</v>
+      </c>
+      <c r="Y22" s="13">
+        <v>332041.09340000001</v>
+      </c>
+      <c r="Z22" s="11">
+        <v>20496.092629999999</v>
+      </c>
+      <c r="AA22" s="13">
+        <v>152451.19260000001</v>
+      </c>
+      <c r="AB22" s="16">
+        <v>152451.19260000001</v>
+      </c>
+      <c r="AC22" s="16">
+        <v>133450</v>
+      </c>
+      <c r="AD22" s="16">
+        <v>345629.2</v>
+      </c>
+      <c r="AE22" s="16">
+        <v>17174.7</v>
+      </c>
+      <c r="AF22" s="16">
+        <v>23051.6387</v>
+      </c>
+      <c r="AG22" s="15">
+        <v>44.4</v>
+      </c>
+      <c r="AH22" s="8">
+        <v>6004.4677999999994</v>
+      </c>
+      <c r="AI22" s="24">
         <v>5830.5</v>
       </c>
-      <c r="O22" s="11">
-        <v>85517.8</v>
-      </c>
-      <c r="P22" s="11">
-        <v>569531</v>
-      </c>
-      <c r="Q22" s="11">
-        <v>692700</v>
-      </c>
-      <c r="R22" s="11">
-        <v>860</v>
-      </c>
-      <c r="S22" s="11">
-        <v>487</v>
-      </c>
-      <c r="T22" s="11">
-        <v>2799.92</v>
-      </c>
-      <c r="U22" s="11">
-        <v>69243.72</v>
-      </c>
-      <c r="V22" s="11">
-        <v>298399.34000000003</v>
-      </c>
-      <c r="W22" s="11">
-        <v>37321.69</v>
-      </c>
-      <c r="X22" s="11">
-        <v>29814.22</v>
-      </c>
-      <c r="Y22" s="11">
-        <v>135849</v>
-      </c>
-      <c r="Z22" s="12">
-        <v>25.696462400000001</v>
-      </c>
-      <c r="AA22" s="13">
-        <v>332041.09340000001</v>
-      </c>
-      <c r="AB22" s="11">
-        <v>20496.092629999999</v>
-      </c>
-      <c r="AC22" s="13">
-        <v>152451.19260000001</v>
-      </c>
-      <c r="AD22" s="16">
-        <v>152451.19260000001</v>
-      </c>
-      <c r="AE22" s="16">
-        <v>133450</v>
-      </c>
-      <c r="AF22" s="16">
-        <v>345629.2</v>
-      </c>
-      <c r="AG22" s="16">
-        <v>17174.7</v>
-      </c>
-      <c r="AH22" s="16">
-        <v>23051.6387</v>
-      </c>
-      <c r="AI22" s="15">
-        <v>44.4</v>
+      <c r="AJ22" s="8">
+        <v>129832.9492</v>
       </c>
     </row>
-    <row r="23" spans="1:35" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="9">
         <v>40543</v>
       </c>
@@ -4458,97 +4494,100 @@
         <v>506</v>
       </c>
       <c r="F23" s="11">
-        <v>7074.59</v>
-      </c>
-      <c r="G23" s="11">
         <v>8384.6435999999994</v>
       </c>
-      <c r="H23" s="12">
+      <c r="G23" s="12">
         <v>215.09</v>
       </c>
+      <c r="H23" s="11">
+        <v>7514</v>
+      </c>
       <c r="I23" s="11">
-        <v>7514</v>
-      </c>
-      <c r="J23" s="11">
         <v>6966.8</v>
       </c>
+      <c r="J23" s="13">
+        <v>2761</v>
+      </c>
       <c r="K23" s="13">
-        <v>2761</v>
-      </c>
-      <c r="L23" s="13">
         <v>222</v>
       </c>
+      <c r="L23" s="11">
+        <v>1064.58</v>
+      </c>
       <c r="M23" s="11">
-        <v>1064.58</v>
-      </c>
-      <c r="N23" s="23">
+        <v>91178.46</v>
+      </c>
+      <c r="N23" s="11">
+        <v>602376</v>
+      </c>
+      <c r="O23" s="11">
+        <v>718148</v>
+      </c>
+      <c r="P23" s="11">
+        <v>882</v>
+      </c>
+      <c r="Q23" s="11">
+        <v>489</v>
+      </c>
+      <c r="R23" s="11">
+        <v>2855.91</v>
+      </c>
+      <c r="S23" s="11">
+        <v>79627.399999999994</v>
+      </c>
+      <c r="T23" s="11">
+        <v>343407.04</v>
+      </c>
+      <c r="U23" s="11">
+        <v>42305.43</v>
+      </c>
+      <c r="V23" s="11">
+        <v>33253.4</v>
+      </c>
+      <c r="W23" s="11">
+        <v>162376.4</v>
+      </c>
+      <c r="X23" s="12">
+        <v>28.9020191</v>
+      </c>
+      <c r="Y23" s="13">
+        <v>362928.56709999999</v>
+      </c>
+      <c r="Z23" s="11">
+        <v>22755.07287</v>
+      </c>
+      <c r="AA23" s="13">
+        <v>167609</v>
+      </c>
+      <c r="AB23" s="16">
+        <v>167609.02299999999</v>
+      </c>
+      <c r="AC23" s="16">
+        <v>134091</v>
+      </c>
+      <c r="AD23" s="16">
+        <v>408903</v>
+      </c>
+      <c r="AE23" s="16">
+        <v>19109.400000000001</v>
+      </c>
+      <c r="AF23" s="16">
+        <v>26769.143700000001</v>
+      </c>
+      <c r="AG23" s="15">
+        <v>44.2</v>
+      </c>
+      <c r="AH23" s="8">
+        <v>7074.5925999999999</v>
+      </c>
+      <c r="AI23" s="24">
         <v>5660.6600000000035</v>
       </c>
-      <c r="O23" s="11">
-        <v>91178.46</v>
-      </c>
-      <c r="P23" s="11">
-        <v>602376</v>
-      </c>
-      <c r="Q23" s="11">
-        <v>718148</v>
-      </c>
-      <c r="R23" s="11">
-        <v>882</v>
-      </c>
-      <c r="S23" s="11">
-        <v>489</v>
-      </c>
-      <c r="T23" s="11">
-        <v>2855.91</v>
-      </c>
-      <c r="U23" s="11">
-        <v>79627.399999999994</v>
-      </c>
-      <c r="V23" s="11">
-        <v>343407.04</v>
-      </c>
-      <c r="W23" s="11">
-        <v>42305.43</v>
-      </c>
-      <c r="X23" s="11">
-        <v>33253.4</v>
-      </c>
-      <c r="Y23" s="11">
-        <v>162376.4</v>
-      </c>
-      <c r="Z23" s="12">
-        <v>28.9020191</v>
-      </c>
-      <c r="AA23" s="13">
-        <v>362928.56709999999</v>
-      </c>
-      <c r="AB23" s="11">
-        <v>22755.07287</v>
-      </c>
-      <c r="AC23" s="13">
-        <v>167609</v>
-      </c>
-      <c r="AD23" s="16">
-        <v>167609.02299999999</v>
-      </c>
-      <c r="AE23" s="16">
-        <v>134091</v>
-      </c>
-      <c r="AF23" s="16">
-        <v>408903</v>
-      </c>
-      <c r="AG23" s="16">
-        <v>19109.400000000001</v>
-      </c>
-      <c r="AH23" s="16">
-        <v>26769.143700000001</v>
-      </c>
-      <c r="AI23" s="15">
-        <v>44.2</v>
+      <c r="AJ23" s="8">
+        <v>124875.7824</v>
       </c>
     </row>
-    <row r="24" spans="1:35" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="9">
         <v>40908</v>
       </c>
@@ -4565,97 +4604,100 @@
         <v>684</v>
       </c>
       <c r="F24" s="11">
-        <v>4601.2700000000004</v>
-      </c>
-      <c r="G24" s="11">
         <v>5897.3109700000005</v>
       </c>
-      <c r="H24" s="12">
+      <c r="G24" s="12">
         <v>214</v>
       </c>
+      <c r="H24" s="11">
+        <v>3348.8999999999996</v>
+      </c>
       <c r="I24" s="11">
-        <v>3348.8999999999996</v>
-      </c>
-      <c r="J24" s="11">
         <v>2664.4</v>
       </c>
+      <c r="J24" s="13">
+        <v>2440</v>
+      </c>
       <c r="K24" s="13">
-        <v>2440</v>
-      </c>
-      <c r="L24" s="13">
         <v>178</v>
       </c>
+      <c r="L24" s="11">
+        <v>1037.82</v>
+      </c>
       <c r="M24" s="11">
-        <v>1037.82</v>
-      </c>
-      <c r="N24" s="23">
-        <v>2071.179999999993</v>
+        <v>93249.642999999996</v>
+      </c>
+      <c r="N24" s="11">
+        <v>634994</v>
       </c>
       <c r="O24" s="11">
-        <v>93249.642999999996</v>
+        <v>752330</v>
       </c>
       <c r="P24" s="11">
-        <v>634994</v>
+        <v>888</v>
       </c>
       <c r="Q24" s="11">
-        <v>752330</v>
+        <v>494</v>
       </c>
       <c r="R24" s="11">
-        <v>888</v>
+        <v>2908.0600000000004</v>
       </c>
       <c r="S24" s="11">
-        <v>494</v>
+        <v>88131.12</v>
       </c>
       <c r="T24" s="11">
-        <v>2908.0600000000004</v>
+        <v>374393.65</v>
       </c>
       <c r="U24" s="11">
-        <v>88131.12</v>
+        <v>44585.78</v>
       </c>
       <c r="V24" s="11">
-        <v>374393.65</v>
+        <v>38137.300000000003</v>
       </c>
       <c r="W24" s="11">
-        <v>44585.78</v>
-      </c>
-      <c r="X24" s="11">
-        <v>38137.300000000003</v>
-      </c>
-      <c r="Y24" s="11">
         <v>191570.8</v>
       </c>
-      <c r="Z24" s="12">
+      <c r="X24" s="12">
         <v>30.891785469999999</v>
       </c>
+      <c r="Y24" s="13">
+        <v>391851.8247</v>
+      </c>
+      <c r="Z24" s="11">
+        <v>24513.73516</v>
+      </c>
       <c r="AA24" s="13">
-        <v>391851.8247</v>
-      </c>
-      <c r="AB24" s="11">
-        <v>24513.73516</v>
-      </c>
-      <c r="AC24" s="13">
         <v>186226.07279999999</v>
       </c>
+      <c r="AB24" s="16">
+        <v>186226.07279999999</v>
+      </c>
+      <c r="AC24" s="16">
+        <v>134735</v>
+      </c>
       <c r="AD24" s="16">
-        <v>186226.07279999999</v>
+        <v>484123.5</v>
       </c>
       <c r="AE24" s="16">
-        <v>134735</v>
+        <v>21809.8</v>
       </c>
       <c r="AF24" s="16">
-        <v>484123.5</v>
-      </c>
-      <c r="AG24" s="16">
-        <v>21809.8</v>
-      </c>
-      <c r="AH24" s="16">
         <v>29316.658200000002</v>
       </c>
-      <c r="AI24" s="15">
+      <c r="AG24" s="15">
         <v>44.3</v>
       </c>
+      <c r="AH24" s="8">
+        <v>4601.2718000000004</v>
+      </c>
+      <c r="AI24" s="24">
+        <v>2071.18299999999</v>
+      </c>
+      <c r="AJ24" s="8">
+        <v>116894.4713</v>
+      </c>
     </row>
-    <row r="25" spans="1:35" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="9">
         <v>41274</v>
       </c>
@@ -4672,97 +4714,100 @@
         <v>840</v>
       </c>
       <c r="F25" s="11">
+        <v>6523.6742000000004</v>
+      </c>
+      <c r="G25" s="12">
+        <v>218.38</v>
+      </c>
+      <c r="H25" s="11">
+        <v>4921.2</v>
+      </c>
+      <c r="I25" s="11">
+        <v>4439.7</v>
+      </c>
+      <c r="J25" s="13">
+        <v>3658</v>
+      </c>
+      <c r="K25" s="13">
+        <v>156</v>
+      </c>
+      <c r="L25" s="11">
+        <v>1039.5606</v>
+      </c>
+      <c r="M25" s="11">
+        <v>97625.498999999996</v>
+      </c>
+      <c r="N25" s="11">
+        <v>652191</v>
+      </c>
+      <c r="O25" s="11">
+        <v>779989</v>
+      </c>
+      <c r="P25" s="11">
+        <v>880</v>
+      </c>
+      <c r="Q25" s="11">
+        <v>491</v>
+      </c>
+      <c r="R25" s="11">
+        <v>2883.85</v>
+      </c>
+      <c r="S25" s="11">
+        <v>95186.11</v>
+      </c>
+      <c r="T25" s="11">
+        <v>367960</v>
+      </c>
+      <c r="U25" s="11">
+        <v>46492.61</v>
+      </c>
+      <c r="V25" s="11">
+        <v>37867</v>
+      </c>
+      <c r="W25" s="11">
+        <v>204539.5</v>
+      </c>
+      <c r="X25" s="12">
+        <v>30.430314769999999</v>
+      </c>
+      <c r="Y25" s="13">
+        <v>389215.05089999997</v>
+      </c>
+      <c r="Z25" s="11">
+        <v>24239.372340000002</v>
+      </c>
+      <c r="AA25" s="13">
+        <v>189336.8511</v>
+      </c>
+      <c r="AB25" s="16">
+        <v>189336.8511</v>
+      </c>
+      <c r="AC25" s="16">
+        <v>135404</v>
+      </c>
+      <c r="AD25" s="16">
+        <v>534123</v>
+      </c>
+      <c r="AE25" s="16">
+        <v>24564.720000000001</v>
+      </c>
+      <c r="AF25" s="16">
+        <v>31936.050500000001</v>
+      </c>
+      <c r="AG25" s="15">
+        <v>45.5</v>
+      </c>
+      <c r="AH25" s="8">
         <v>5215.4588999999996</v>
       </c>
-      <c r="G25" s="11">
-        <v>6523.6742000000004</v>
-      </c>
-      <c r="H25" s="12">
-        <v>218.38</v>
-      </c>
-      <c r="I25" s="11">
-        <v>4921.2</v>
-      </c>
-      <c r="J25" s="11">
-        <v>4439.7</v>
-      </c>
-      <c r="K25" s="13">
-        <v>3658</v>
-      </c>
-      <c r="L25" s="13">
-        <v>156</v>
-      </c>
-      <c r="M25" s="11">
-        <v>1039.5606</v>
-      </c>
-      <c r="N25" s="23">
-        <v>4375.8600000000006</v>
-      </c>
-      <c r="O25" s="11">
-        <v>97625.498999999996</v>
-      </c>
-      <c r="P25" s="11">
-        <v>652191</v>
-      </c>
-      <c r="Q25" s="11">
-        <v>779989</v>
-      </c>
-      <c r="R25" s="11">
-        <v>880</v>
-      </c>
-      <c r="S25" s="11">
-        <v>491</v>
-      </c>
-      <c r="T25" s="11">
-        <v>2883.85</v>
-      </c>
-      <c r="U25" s="11">
-        <v>95186.11</v>
-      </c>
-      <c r="V25" s="11">
-        <v>367960</v>
-      </c>
-      <c r="W25" s="11">
-        <v>46492.61</v>
-      </c>
-      <c r="X25" s="11">
-        <v>37867</v>
-      </c>
-      <c r="Y25" s="11">
-        <v>204539.5</v>
-      </c>
-      <c r="Z25" s="12">
-        <v>30.430314769999999</v>
-      </c>
-      <c r="AA25" s="13">
-        <v>389215.05089999997</v>
-      </c>
-      <c r="AB25" s="11">
-        <v>24239.372340000002</v>
-      </c>
-      <c r="AC25" s="13">
-        <v>189336.8511</v>
-      </c>
-      <c r="AD25" s="16">
-        <v>189336.8511</v>
-      </c>
-      <c r="AE25" s="16">
-        <v>135404</v>
-      </c>
-      <c r="AF25" s="16">
-        <v>534123</v>
-      </c>
-      <c r="AG25" s="16">
-        <v>24564.720000000001</v>
-      </c>
-      <c r="AH25" s="16">
-        <v>31936.050500000001</v>
-      </c>
-      <c r="AI25" s="15">
-        <v>45.5</v>
+      <c r="AI25" s="24">
+        <v>4375.8559999999998</v>
+      </c>
+      <c r="AJ25" s="8">
+        <v>99657.549400000004</v>
       </c>
     </row>
-    <row r="26" spans="1:35" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="9">
         <v>41639</v>
       </c>
@@ -4779,97 +4824,100 @@
         <v>1071</v>
       </c>
       <c r="F26" s="11">
+        <v>6843.6148000000003</v>
+      </c>
+      <c r="G26" s="12">
+        <v>218.17</v>
+      </c>
+      <c r="H26" s="11">
+        <v>7042.4</v>
+      </c>
+      <c r="I26" s="11">
+        <v>6016.7</v>
+      </c>
+      <c r="J26" s="13">
+        <v>2026</v>
+      </c>
+      <c r="K26" s="13">
+        <v>231</v>
+      </c>
+      <c r="L26" s="11">
+        <v>1198.4982299999999</v>
+      </c>
+      <c r="M26" s="11">
+        <v>103144.6</v>
+      </c>
+      <c r="N26" s="11">
+        <v>654473</v>
+      </c>
+      <c r="O26" s="11">
+        <v>798973</v>
+      </c>
+      <c r="P26" s="11">
+        <v>883</v>
+      </c>
+      <c r="Q26" s="11">
+        <v>493</v>
+      </c>
+      <c r="R26" s="11">
+        <v>2823.8100000000004</v>
+      </c>
+      <c r="S26" s="11">
+        <v>106762.2</v>
+      </c>
+      <c r="T26" s="11">
+        <v>365100</v>
+      </c>
+      <c r="U26" s="11">
+        <v>48040.08</v>
+      </c>
+      <c r="V26" s="17">
+        <v>41777.909999999996</v>
+      </c>
+      <c r="W26" s="11">
+        <v>217263.9</v>
+      </c>
+      <c r="X26" s="12">
+        <v>30.364701</v>
+      </c>
+      <c r="Y26" s="13">
+        <v>396099.25229999999</v>
+      </c>
+      <c r="Z26" s="11">
+        <v>24012.58913</v>
+      </c>
+      <c r="AA26" s="13">
+        <v>210596.91649999999</v>
+      </c>
+      <c r="AB26" s="16">
+        <v>210596.91649999999</v>
+      </c>
+      <c r="AC26" s="16">
+        <v>136072</v>
+      </c>
+      <c r="AD26" s="16">
+        <v>588018.80000000005</v>
+      </c>
+      <c r="AE26" s="16">
+        <v>26955.1</v>
+      </c>
+      <c r="AF26" s="16">
+        <v>35396.630100000002</v>
+      </c>
+      <c r="AG26" s="15">
+        <v>46.9</v>
+      </c>
+      <c r="AH26" s="8">
         <v>5336.7807000000003</v>
       </c>
-      <c r="G26" s="11">
-        <v>6843.6148000000003</v>
-      </c>
-      <c r="H26" s="12">
-        <v>218.17</v>
-      </c>
-      <c r="I26" s="11">
-        <v>7042.4</v>
-      </c>
-      <c r="J26" s="11">
-        <v>6016.7</v>
-      </c>
-      <c r="K26" s="13">
-        <v>2026</v>
-      </c>
-      <c r="L26" s="13">
-        <v>231</v>
-      </c>
-      <c r="M26" s="11">
-        <v>1198.4982299999999</v>
-      </c>
-      <c r="N26" s="23">
-        <v>5519.1000000000058</v>
-      </c>
-      <c r="O26" s="11">
-        <v>103144.6</v>
-      </c>
-      <c r="P26" s="11">
-        <v>654473</v>
-      </c>
-      <c r="Q26" s="11">
-        <v>798973</v>
-      </c>
-      <c r="R26" s="11">
-        <v>883</v>
-      </c>
-      <c r="S26" s="11">
-        <v>493</v>
-      </c>
-      <c r="T26" s="11">
-        <v>2823.8100000000004</v>
-      </c>
-      <c r="U26" s="11">
-        <v>106762.2</v>
-      </c>
-      <c r="V26" s="11">
-        <v>365100</v>
-      </c>
-      <c r="W26" s="11">
-        <v>48040.08</v>
-      </c>
-      <c r="X26" s="17">
-        <v>41777.909999999996</v>
-      </c>
-      <c r="Y26" s="11">
-        <v>217263.9</v>
-      </c>
-      <c r="Z26" s="12">
-        <v>30.364701</v>
-      </c>
-      <c r="AA26" s="13">
-        <v>396099.25229999999</v>
-      </c>
-      <c r="AB26" s="11">
-        <v>24012.58913</v>
-      </c>
-      <c r="AC26" s="13">
-        <v>210596.91649999999</v>
-      </c>
-      <c r="AD26" s="16">
-        <v>210596.91649999999</v>
-      </c>
-      <c r="AE26" s="16">
-        <v>136072</v>
-      </c>
-      <c r="AF26" s="16">
-        <v>588018.80000000005</v>
-      </c>
-      <c r="AG26" s="16">
-        <v>26955.1</v>
-      </c>
-      <c r="AH26" s="16">
-        <v>35396.630100000002</v>
-      </c>
-      <c r="AI26" s="15">
-        <v>46.9</v>
+      <c r="AI26" s="24">
+        <v>5519.1010000000097</v>
+      </c>
+      <c r="AJ26" s="8">
+        <v>90430.700799999991</v>
       </c>
     </row>
-    <row r="27" spans="1:35" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="9">
         <v>42004</v>
       </c>
@@ -4886,97 +4934,100 @@
         <v>1404</v>
       </c>
       <c r="F27" s="11">
+        <v>7801.33</v>
+      </c>
+      <c r="G27" s="12">
+        <v>218.17</v>
+      </c>
+      <c r="H27" s="18">
+        <v>7488.3</v>
+      </c>
+      <c r="I27" s="18">
+        <v>6342.7</v>
+      </c>
+      <c r="J27" s="17">
+        <v>2009</v>
+      </c>
+      <c r="K27" s="19">
+        <v>333</v>
+      </c>
+      <c r="L27" s="17">
+        <v>1463.7</v>
+      </c>
+      <c r="M27" s="11">
+        <v>111821</v>
+      </c>
+      <c r="N27" s="11">
+        <v>618101.07671232882</v>
+      </c>
+      <c r="O27" s="11">
+        <v>803951.65753424657</v>
+      </c>
+      <c r="P27" s="11">
+        <v>922</v>
+      </c>
+      <c r="Q27" s="11">
+        <v>503</v>
+      </c>
+      <c r="R27" s="11">
+        <v>2751.38</v>
+      </c>
+      <c r="S27" s="17">
+        <v>111917.16</v>
+      </c>
+      <c r="T27" s="17">
+        <v>358500</v>
+      </c>
+      <c r="U27" s="17">
+        <v>49727.479999999996</v>
+      </c>
+      <c r="V27" s="17">
+        <v>41848.549999999996</v>
+      </c>
+      <c r="W27" s="11">
+        <v>227991</v>
+      </c>
+      <c r="X27" s="17">
+        <v>28.998255579999999</v>
+      </c>
+      <c r="Y27" s="13">
+        <v>381171.92060000001</v>
+      </c>
+      <c r="Z27" s="17">
+        <v>22530.607329999995</v>
+      </c>
+      <c r="AA27" s="13">
+        <v>235704.40239999999</v>
+      </c>
+      <c r="AB27" s="16">
+        <v>235704.4</v>
+      </c>
+      <c r="AC27" s="16">
+        <v>136782</v>
+      </c>
+      <c r="AD27" s="16">
+        <v>636462.69999999995</v>
+      </c>
+      <c r="AE27" s="16">
+        <v>28844</v>
+      </c>
+      <c r="AF27" s="16">
+        <v>39165.800000000003</v>
+      </c>
+      <c r="AG27" s="15">
+        <v>48.1</v>
+      </c>
+      <c r="AH27" s="8">
         <v>4647.49</v>
       </c>
-      <c r="G27" s="11">
-        <v>7801.33</v>
-      </c>
-      <c r="H27" s="12">
-        <v>218.17</v>
-      </c>
-      <c r="I27" s="18">
-        <v>7488.3</v>
-      </c>
-      <c r="J27" s="18">
-        <v>6342.7</v>
-      </c>
-      <c r="K27" s="17">
-        <v>2009</v>
-      </c>
-      <c r="L27" s="19">
-        <v>333</v>
-      </c>
-      <c r="M27" s="17">
-        <v>1463.7</v>
-      </c>
-      <c r="N27" s="23">
+      <c r="AI27" s="24">
         <v>8676.3999999999942</v>
       </c>
-      <c r="O27" s="11">
-        <v>111821</v>
-      </c>
-      <c r="P27" s="11">
-        <v>618101.07671232882</v>
-      </c>
-      <c r="Q27" s="11">
-        <v>803951.65753424657</v>
-      </c>
-      <c r="R27" s="11">
-        <v>922</v>
-      </c>
-      <c r="S27" s="11">
-        <v>503</v>
-      </c>
-      <c r="T27" s="11">
-        <v>2751.38</v>
-      </c>
-      <c r="U27" s="17">
-        <v>111917.16</v>
-      </c>
-      <c r="V27" s="17">
-        <v>358500</v>
-      </c>
-      <c r="W27" s="17">
-        <v>49727.479999999996</v>
-      </c>
-      <c r="X27" s="17">
-        <v>41848.549999999996</v>
-      </c>
-      <c r="Y27" s="11">
-        <v>227991</v>
-      </c>
-      <c r="Z27" s="17">
-        <v>28.998255579999999</v>
-      </c>
-      <c r="AA27" s="13">
-        <v>381171.92060000001</v>
-      </c>
-      <c r="AB27" s="17">
-        <v>22530.607329999995</v>
-      </c>
-      <c r="AC27" s="13">
-        <v>235704.40239999999</v>
-      </c>
-      <c r="AD27" s="16">
-        <v>235704.4</v>
-      </c>
-      <c r="AE27" s="16">
-        <v>136782</v>
-      </c>
-      <c r="AF27" s="16">
-        <v>636462.69999999995</v>
-      </c>
-      <c r="AG27" s="16">
-        <v>28844</v>
-      </c>
-      <c r="AH27" s="16">
-        <v>39165.800000000003</v>
-      </c>
-      <c r="AI27" s="15">
-        <v>48.1</v>
+      <c r="AJ27" s="8">
+        <v>74513.848299999983</v>
       </c>
     </row>
-    <row r="28" spans="1:35" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="9">
         <v>42369</v>
       </c>
@@ -4992,95 +5043,98 @@
       <c r="E28" s="11">
         <v>1883</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F28" s="18">
+        <v>8238</v>
+      </c>
+      <c r="G28" s="18">
+        <v>209.03</v>
+      </c>
+      <c r="H28" s="18">
+        <v>5435.3</v>
+      </c>
+      <c r="I28" s="18">
+        <v>5224.2</v>
+      </c>
+      <c r="J28" s="17">
+        <v>1531</v>
+      </c>
+      <c r="K28" s="19">
+        <v>479</v>
+      </c>
+      <c r="L28" s="17">
+        <v>1201.3900000000001</v>
+      </c>
+      <c r="M28" s="18">
+        <v>120970</v>
+      </c>
+      <c r="N28" s="18">
+        <v>563593</v>
+      </c>
+      <c r="O28" s="18">
+        <v>795943</v>
+      </c>
+      <c r="P28" s="20">
+        <v>1003</v>
+      </c>
+      <c r="Q28" s="20">
+        <v>505</v>
+      </c>
+      <c r="R28" s="20">
+        <v>2640</v>
+      </c>
+      <c r="S28" s="17">
+        <v>112403.58</v>
+      </c>
+      <c r="T28" s="17">
+        <v>365087</v>
+      </c>
+      <c r="U28" s="17">
+        <v>52403.53</v>
+      </c>
+      <c r="V28" s="17">
+        <v>41734.700000000004</v>
+      </c>
+      <c r="W28" s="17">
+        <v>228974</v>
+      </c>
+      <c r="X28" s="17">
+        <v>27.124403999999998</v>
+      </c>
+      <c r="Y28" s="13">
+        <v>271244</v>
+      </c>
+      <c r="Z28" s="17">
+        <v>21573.809999999998</v>
+      </c>
+      <c r="AA28" s="13">
+        <v>253485</v>
+      </c>
+      <c r="AB28" s="17">
+        <v>253500</v>
+      </c>
+      <c r="AC28" s="17">
+        <v>137462</v>
+      </c>
+      <c r="AD28" s="17">
+        <v>676708</v>
+      </c>
+      <c r="AE28" s="17">
+        <v>31195</v>
+      </c>
+      <c r="AF28" s="17">
+        <v>43564.73</v>
+      </c>
+      <c r="AG28" s="21">
+        <v>50.5</v>
+      </c>
+      <c r="AH28" s="8">
         <v>4643.92</v>
       </c>
-      <c r="G28" s="18">
-        <v>8238</v>
-      </c>
-      <c r="H28" s="18">
-        <v>209.03</v>
-      </c>
-      <c r="I28" s="18">
-        <v>5435.3</v>
-      </c>
-      <c r="J28" s="18">
-        <v>5224.2</v>
-      </c>
-      <c r="K28" s="17">
-        <v>1531</v>
-      </c>
-      <c r="L28" s="19">
-        <v>479</v>
-      </c>
-      <c r="M28" s="17">
-        <v>1201.3900000000001</v>
-      </c>
-      <c r="N28" s="23">
+      <c r="AI28" s="24">
         <v>9149</v>
       </c>
-      <c r="O28" s="18">
-        <v>120970</v>
-      </c>
-      <c r="P28" s="18">
-        <v>563593</v>
-      </c>
-      <c r="Q28" s="18">
-        <v>795943</v>
-      </c>
-      <c r="R28" s="20">
-        <v>1003</v>
-      </c>
-      <c r="S28" s="20">
-        <v>505</v>
-      </c>
-      <c r="T28" s="20">
-        <v>2640</v>
-      </c>
-      <c r="U28" s="17">
-        <v>112403.58</v>
-      </c>
-      <c r="V28" s="17">
-        <v>365087</v>
-      </c>
-      <c r="W28" s="17">
-        <v>52403.53</v>
-      </c>
-      <c r="X28" s="17">
-        <v>41734.700000000004</v>
-      </c>
-      <c r="Y28" s="17">
-        <v>228974</v>
-      </c>
-      <c r="Z28" s="17">
-        <v>27.124403999999998</v>
-      </c>
-      <c r="AA28" s="13">
-        <v>271244</v>
-      </c>
-      <c r="AB28" s="17">
-        <v>21573.809999999998</v>
-      </c>
-      <c r="AC28" s="13">
-        <v>253485</v>
-      </c>
-      <c r="AD28" s="17">
-        <v>253500</v>
-      </c>
-      <c r="AE28" s="17">
-        <v>137462</v>
-      </c>
-      <c r="AF28" s="17">
-        <v>676708</v>
-      </c>
-      <c r="AG28" s="17">
-        <v>31195</v>
-      </c>
-      <c r="AH28" s="17">
-        <v>43564.73</v>
-      </c>
-      <c r="AI28" s="21">
-        <v>50.5</v>
+      <c r="AJ28" s="8">
+        <v>41267.762600000016</v>
       </c>
     </row>
   </sheetData>

--- a/RailIndexPrj/rawdata_yearly.xlsx
+++ b/RailIndexPrj/rawdata_yearly.xlsx
@@ -2031,10 +2031,10 @@
   <dimension ref="A1:AJ28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="R12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AJ20" sqref="AJ20:AJ27"/>
+      <selection pane="bottomRight" activeCell="Y20" sqref="Y20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3558,13 +3558,13 @@
         <v>43469.8</v>
       </c>
       <c r="X14" s="12">
-        <v>13.95587441</v>
+        <v>17.86</v>
       </c>
       <c r="Y14" s="13">
-        <v>192580</v>
+        <v>178600</v>
       </c>
       <c r="Z14" s="11">
-        <v>11737.70729</v>
+        <v>14274.49</v>
       </c>
       <c r="AA14" s="13">
         <v>105155</v>
@@ -3668,13 +3668,13 @@
         <v>47310.7</v>
       </c>
       <c r="X15" s="12">
-        <v>14.604931029999999</v>
+        <v>18.690000000000001</v>
       </c>
       <c r="Y15" s="13">
-        <v>204246</v>
+        <v>186900</v>
       </c>
       <c r="Z15" s="11">
-        <v>12395.66418</v>
+        <v>15085.79</v>
       </c>
       <c r="AA15" s="13">
         <v>105606</v>
@@ -3778,13 +3778,13 @@
         <v>54805.8</v>
       </c>
       <c r="X16" s="12">
-        <v>15.54219309</v>
+        <v>19.91</v>
       </c>
       <c r="Y16" s="13">
-        <v>223480</v>
+        <v>199100</v>
       </c>
       <c r="Z16" s="11">
-        <v>13432.51555</v>
+        <v>16320.69</v>
       </c>
       <c r="AA16" s="13">
         <v>97260</v>
@@ -3888,13 +3888,13 @@
         <v>65044.2</v>
       </c>
       <c r="X17" s="12">
-        <v>17.019432510000001</v>
+        <v>21.78</v>
       </c>
       <c r="Y17" s="13">
-        <v>248130</v>
+        <v>217800</v>
       </c>
       <c r="Z17" s="11">
-        <v>14936.568069999999</v>
+        <v>18273.37</v>
       </c>
       <c r="AA17" s="13">
         <v>111764</v>
@@ -3998,13 +3998,13 @@
         <v>77034.399999999994</v>
       </c>
       <c r="X18" s="12">
-        <v>20.89440849</v>
+        <v>26.95</v>
       </c>
       <c r="Y18" s="13">
-        <v>268349</v>
+        <v>269500</v>
       </c>
       <c r="Z18" s="11">
-        <v>16855.289929999999</v>
+        <v>20733.95</v>
       </c>
       <c r="AA18" s="13">
         <v>115583</v>
@@ -4108,13 +4108,13 @@
         <v>91078.8</v>
       </c>
       <c r="X19" s="12">
-        <v>22.496458459999999</v>
+        <v>28.8</v>
       </c>
       <c r="Y19" s="13">
-        <v>287095</v>
+        <v>288000</v>
       </c>
       <c r="Z19" s="11">
-        <v>18011.937399999999</v>
+        <v>21946.91</v>
       </c>
       <c r="AA19" s="13">
         <v>125656</v>
@@ -4218,13 +4218,13 @@
         <v>110253.9</v>
       </c>
       <c r="X20" s="12">
-        <v>24.349218350000001</v>
+        <v>31.31</v>
       </c>
       <c r="Y20" s="13">
-        <v>313018</v>
+        <v>313100</v>
       </c>
       <c r="Z20" s="11">
-        <v>19585.90796</v>
+        <v>23793.18</v>
       </c>
       <c r="AA20" s="13">
         <v>135670</v>
@@ -4328,13 +4328,13 @@
         <v>129929.1</v>
       </c>
       <c r="X21" s="12">
-        <v>25.358853159999999</v>
+        <v>27.393229450000003</v>
       </c>
       <c r="Y21" s="13">
-        <v>329035</v>
+        <v>273932.29450000002</v>
       </c>
       <c r="Z21" s="11">
-        <v>20355.881730000001</v>
+        <v>23360.322760000003</v>
       </c>
       <c r="AA21" s="13">
         <v>146193</v>
@@ -4438,13 +4438,13 @@
         <v>135849</v>
       </c>
       <c r="X22" s="12">
-        <v>25.696462400000001</v>
+        <v>27.627566349999995</v>
       </c>
       <c r="Y22" s="13">
-        <v>332041.09340000001</v>
+        <v>276275.66349999997</v>
       </c>
       <c r="Z22" s="11">
-        <v>20496.092629999999</v>
+        <v>23354.504509999999</v>
       </c>
       <c r="AA22" s="13">
         <v>152451.19260000001</v>
@@ -4548,13 +4548,13 @@
         <v>162376.4</v>
       </c>
       <c r="X23" s="12">
-        <v>28.9020191</v>
+        <v>30.820945530000003</v>
       </c>
       <c r="Y23" s="13">
-        <v>362928.56709999999</v>
+        <v>308209.45530000003</v>
       </c>
       <c r="Z23" s="11">
-        <v>22755.07287</v>
+        <v>25626.192170000002</v>
       </c>
       <c r="AA23" s="13">
         <v>167609</v>
@@ -4658,13 +4658,13 @@
         <v>191570.8</v>
       </c>
       <c r="X24" s="12">
-        <v>30.891785469999999</v>
+        <v>32.813593619999992</v>
       </c>
       <c r="Y24" s="13">
-        <v>391851.8247</v>
+        <v>328135.93619999994</v>
       </c>
       <c r="Z24" s="11">
-        <v>24513.73516</v>
+        <v>27296.49394</v>
       </c>
       <c r="AA24" s="13">
         <v>186226.07279999999</v>
@@ -4768,13 +4768,13 @@
         <v>204539.5</v>
       </c>
       <c r="X25" s="12">
-        <v>30.430314769999999</v>
+        <v>32.234557819999992</v>
       </c>
       <c r="Y25" s="13">
-        <v>389215.05089999997</v>
+        <v>322345.57819999993</v>
       </c>
       <c r="Z25" s="11">
-        <v>24239.372340000002</v>
+        <v>26925.532289999999</v>
       </c>
       <c r="AA25" s="13">
         <v>189336.8511</v>
@@ -4878,13 +4878,13 @@
         <v>217263.9</v>
       </c>
       <c r="X26" s="12">
-        <v>30.364701</v>
+        <v>32.139176089999999</v>
       </c>
       <c r="Y26" s="13">
-        <v>396099.25229999999</v>
+        <v>321391.76089999999</v>
       </c>
       <c r="Z26" s="11">
-        <v>24012.58913</v>
+        <v>26639.870999999999</v>
       </c>
       <c r="AA26" s="13">
         <v>210596.91649999999</v>
@@ -4988,13 +4988,13 @@
         <v>227991</v>
       </c>
       <c r="X27" s="17">
-        <v>28.998255579999999</v>
+        <v>30.625931199999997</v>
       </c>
       <c r="Y27" s="13">
-        <v>381171.92060000001</v>
+        <v>306259.31199999998</v>
       </c>
       <c r="Z27" s="17">
-        <v>22530.607329999995</v>
+        <v>24987.88824</v>
       </c>
       <c r="AA27" s="13">
         <v>235704.40239999999</v>
@@ -5098,13 +5098,13 @@
         <v>228974</v>
       </c>
       <c r="X28" s="17">
-        <v>27.124403999999998</v>
+        <v>27.082377970000003</v>
       </c>
       <c r="Y28" s="13">
-        <v>271244</v>
+        <v>270823.77970000001</v>
       </c>
       <c r="Z28" s="17">
-        <v>21573.809999999998</v>
+        <v>21462.544569999998</v>
       </c>
       <c r="AA28" s="13">
         <v>253485</v>

--- a/RailIndexPrj/rawdata_yearly.xlsx
+++ b/RailIndexPrj/rawdata_yearly.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\原D\桌面\常用文件夹\铁路景气指数\APP\railwayIdx\RailIndexPrj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\铁路景气指数项目\railwayIdx\RailIndexPrj\RailIndexPrj\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="rawdata_yearly" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -921,7 +921,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0000_);[Red]\(0.0000\)"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
@@ -1742,7 +1742,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2031,10 +2031,10 @@
   <dimension ref="A1:AJ28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="R12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Y20" sqref="Y20"/>
+      <selection pane="bottomRight" activeCell="AE12" sqref="AE12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2491,7 +2491,8 @@
         <v>91.11</v>
       </c>
       <c r="AI4" s="24">
-        <v>-73.19999999999709</v>
+        <f>AI5/2</f>
+        <v>124.95000000000073</v>
       </c>
       <c r="AJ4" s="8">
         <v>95080</v>
